--- a/train_test_data.xlsx
+++ b/train_test_data.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCA\4th sem\SER3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F223F-6A41-47ED-8F4A-FA415B355324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
-    <sheet name="Testing" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Testing" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="15" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="162">
   <si>
     <t>Audio File</t>
   </si>
@@ -498,13 +508,16 @@
   </si>
   <si>
     <t>output\cleaned_01_01_01_02_dogs-sitting_sad.wav</t>
+  </si>
+  <si>
+    <t>Count of Emotion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,24 +569,1759 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[train_test_data.xlsx]Sheet1!PivotTable9</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Count of Emotion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>angry</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>calm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>disgust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fear</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>happy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>neutral</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ps</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87F5-4FFA-BADE-CD32187178CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2089694944"/>
+        <c:axId val="2089699264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2089694944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2089699264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2089699264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2089694944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9C2635-1136-EE6C-1DCE-5CF027434160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="dheepan ganesan" refreshedDate="45424.628799074075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{3EEBE2F6-25F8-4E95-AE36-4D1AE37EE88C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O29" sheet="Testing"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Audio File" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="MFCC_1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.9234665846640899" maxValue="1.399282013426778"/>
+    </cacheField>
+    <cacheField name="MFCC_2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.7393323013990221" maxValue="1.4122808406458101"/>
+    </cacheField>
+    <cacheField name="MFCC_3" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.1133054158553359" maxValue="1.773003949670001"/>
+    </cacheField>
+    <cacheField name="MFCC_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.99504256484121822" maxValue="1.7945625785392041"/>
+    </cacheField>
+    <cacheField name="MFCC_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.6938343268084601" maxValue="0.9851048544061396"/>
+    </cacheField>
+    <cacheField name="MFCC_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.6186148437098371" maxValue="1.2236145453047571"/>
+    </cacheField>
+    <cacheField name="MFCC_7" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.819462021155293" maxValue="1.6978971743154969"/>
+    </cacheField>
+    <cacheField name="MFCC_8" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.466269189253941" maxValue="2.0072367419849129"/>
+    </cacheField>
+    <cacheField name="MFCC_9" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.9783734051813302" maxValue="1.645341830695354"/>
+    </cacheField>
+    <cacheField name="MFCC_10" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.4401279613849991" maxValue="1.749326665519382"/>
+    </cacheField>
+    <cacheField name="MFCC_11" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.51169173334774" maxValue="2.3429021781284081"/>
+    </cacheField>
+    <cacheField name="MFCC_12" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.666774703788096" maxValue="1.4123795795707439"/>
+    </cacheField>
+    <cacheField name="MFCC_13" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.1693015595700906" maxValue="1.043147360061178"/>
+    </cacheField>
+    <cacheField name="Emotion" numFmtId="0">
+      <sharedItems count="8">
+        <s v="calm"/>
+        <s v="angry"/>
+        <s v="sad"/>
+        <s v="happy"/>
+        <s v="disgust"/>
+        <s v="neutral"/>
+        <s v="ps"/>
+        <s v="fear"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+  <r>
+    <s v="output\cleaned_03-01-02-01-02-02-01_calm.wav"/>
+    <n v="-1.559544794738875"/>
+    <n v="-7.5083563260722783E-2"/>
+    <n v="1.273980074288888"/>
+    <n v="1.189670708951309"/>
+    <n v="0.53373534871771133"/>
+    <n v="0.97762089012642628"/>
+    <n v="1.6860517375387749"/>
+    <n v="1.702084872511445"/>
+    <n v="1.3420025114504861"/>
+    <n v="1.6707403619026799"/>
+    <n v="1.5540033339297079"/>
+    <n v="1.114976266310302"/>
+    <n v="0.50848688776089845"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="output\cleaned_03-02-02-02-02-02-01_calm.wav"/>
+    <n v="-0.46155916271075359"/>
+    <n v="1.4122808406458101"/>
+    <n v="1.1944732317092619"/>
+    <n v="0.17975375677722111"/>
+    <n v="9.2350335716143123E-2"/>
+    <n v="0.56251211379344634"/>
+    <n v="0.25725201556195831"/>
+    <n v="2.5877678946862989E-3"/>
+    <n v="7.9682308642096168E-3"/>
+    <n v="-0.24293017212562729"/>
+    <n v="-0.45298891190690882"/>
+    <n v="-0.23300980207122909"/>
+    <n v="1.043147360061178"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_01_02_dogs-sitting_angry.wav"/>
+    <n v="0.31264379563034128"/>
+    <n v="-1.6101854169941481"/>
+    <n v="8.7342366605542274E-2"/>
+    <n v="1.174259990106757"/>
+    <n v="-0.28439812801006398"/>
+    <n v="-1.093594185463008"/>
+    <n v="0.48682864515247898"/>
+    <n v="1.2021439039355231"/>
+    <n v="1.238360309707192"/>
+    <n v="0.77814934056724672"/>
+    <n v="0.52667759661382896"/>
+    <n v="0.55304400993510572"/>
+    <n v="-0.24678721477343021"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_02_01_dogs-sitting_angry.wav"/>
+    <n v="1.399282013426778"/>
+    <n v="-0.50015356082631501"/>
+    <n v="-2.1133054158553359"/>
+    <n v="-0.71532637185251813"/>
+    <n v="-1.3471416495570729"/>
+    <n v="-2.3834742822747059"/>
+    <n v="-0.26270313756767799"/>
+    <n v="-2.1641071770795061E-2"/>
+    <n v="-0.64838106857724298"/>
+    <n v="-0.37021775558463832"/>
+    <n v="-0.23626961301052729"/>
+    <n v="-0.39457887911124212"/>
+    <n v="-0.94731172352909676"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_02_01_02_dogs-sitting_sad.wav"/>
+    <n v="-0.1128773831295273"/>
+    <n v="0.24790132943522811"/>
+    <n v="0.50065424014670323"/>
+    <n v="0.24200764461969571"/>
+    <n v="1.120518622944525E-2"/>
+    <n v="-0.43932078152011472"/>
+    <n v="-0.33673405711299698"/>
+    <n v="0.26348508711703811"/>
+    <n v="-1.0150576484697679E-2"/>
+    <n v="-1.4401279613849991"/>
+    <n v="-1.025341961395225"/>
+    <n v="-0.45230564143526181"/>
+    <n v="-0.58512599731395554"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_02_01_02_kids-talking_happy.wav"/>
+    <n v="6.3282236173569553E-2"/>
+    <n v="1.4118827260134921"/>
+    <n v="-0.35705888493727522"/>
+    <n v="-0.92934637966809741"/>
+    <n v="0.65358230442577192"/>
+    <n v="1.1463776279494149"/>
+    <n v="-0.63516014081579597"/>
+    <n v="-1.164501186872039"/>
+    <n v="-0.21347994444233859"/>
+    <n v="-0.25603356023977758"/>
+    <n v="-1.1506642231237629"/>
+    <n v="-0.68263592014558871"/>
+    <n v="0.82446676215698478"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_02_01_02_kids-talking_angry.wav"/>
+    <n v="0.71063357603006549"/>
+    <n v="0.72457850113116362"/>
+    <n v="-1.1708390767792709"/>
+    <n v="-0.3943666812567525"/>
+    <n v="0.9851048544061396"/>
+    <n v="-1.6315434944321789"/>
+    <n v="-1.819462021155293"/>
+    <n v="0.40911825975185101"/>
+    <n v="1.412292557160628"/>
+    <n v="0.68475328183233652"/>
+    <n v="0.66812121995776796"/>
+    <n v="0.69061011115494142"/>
+    <n v="-0.57368360309792177"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="output\cleaned_03-02-04-01-02-02-01_sad.wav"/>
+    <n v="-0.1128773831295273"/>
+    <n v="0.24790132943522811"/>
+    <n v="0.50065424014670323"/>
+    <n v="0.24200764461969571"/>
+    <n v="1.120518622944525E-2"/>
+    <n v="-0.43932078152011472"/>
+    <n v="-0.33673405711299698"/>
+    <n v="0.26348508711703811"/>
+    <n v="-1.0150576484697679E-2"/>
+    <n v="-1.4401279613849991"/>
+    <n v="-1.025341961395225"/>
+    <n v="-0.45230564143526181"/>
+    <n v="-0.58512599731395554"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="output\cleaned_03-02-03-01-02-01-01_happy.wav"/>
+    <n v="-5.2697131645669699E-2"/>
+    <n v="0.52302483095649099"/>
+    <n v="-0.99336127888757753"/>
+    <n v="-0.36833973804747411"/>
+    <n v="0.41631948833532301"/>
+    <n v="-0.43855175062092849"/>
+    <n v="-0.46258805506563871"/>
+    <n v="-0.75717760862456907"/>
+    <n v="-0.86314604821603069"/>
+    <n v="-0.1230167846613321"/>
+    <n v="-0.51318108949537533"/>
+    <n v="-0.65230462160052427"/>
+    <n v="0.64836171413965737"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_02_02_01_dogs-sitting_sad.wav"/>
+    <n v="0.2455497637824258"/>
+    <n v="0.14777424747422879"/>
+    <n v="-0.46027133504907503"/>
+    <n v="-0.49380481868282711"/>
+    <n v="-6.289944567201991E-2"/>
+    <n v="-1.3065785817893799E-2"/>
+    <n v="-0.41513878371723928"/>
+    <n v="-0.59936307292090829"/>
+    <n v="-0.42431591318166639"/>
+    <n v="-0.72931675195248513"/>
+    <n v="-1.51169173334774"/>
+    <n v="-1.666774703788096"/>
+    <n v="0.61312445290151096"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_02_02_02_kids-talking_sad.wav"/>
+    <n v="-0.26430241481754541"/>
+    <n v="-0.1165701125870811"/>
+    <n v="0.1316695236653892"/>
+    <n v="0.1773390855245803"/>
+    <n v="0.39425944466800678"/>
+    <n v="-0.37246503467184822"/>
+    <n v="-0.87036971371146055"/>
+    <n v="-0.20449713370270989"/>
+    <n v="0.29017771968418749"/>
+    <n v="-0.47687985406029593"/>
+    <n v="-0.64993460489088006"/>
+    <n v="-0.7409402814511743"/>
+    <n v="-1.187187091120441"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_02_02_kids-talking_disgust.wav"/>
+    <n v="0.61891998560775785"/>
+    <n v="-1.561747510762282"/>
+    <n v="-0.24587349697249991"/>
+    <n v="-0.33310385250593239"/>
+    <n v="-2.6938343268084601"/>
+    <n v="-2.2744233779151641"/>
+    <n v="-0.48117841330013539"/>
+    <n v="-1.466269189253941"/>
+    <n v="-2.9783734051813302"/>
+    <n v="-0.92436142353598671"/>
+    <n v="1.373896655016364"/>
+    <n v="0.62111391529833215"/>
+    <n v="-2.0055896793571928"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_02_02_01_kids-talking_happy.wav"/>
+    <n v="1.016800087154734"/>
+    <n v="4.917446910475699E-3"/>
+    <n v="-0.42922532391347651"/>
+    <n v="-0.45309201118538811"/>
+    <n v="-0.15623932855407091"/>
+    <n v="-6.8767349222881885E-2"/>
+    <n v="-0.55450671218035663"/>
+    <n v="-1.0445109486985811"/>
+    <n v="-0.60505785016523583"/>
+    <n v="0.43254079204890949"/>
+    <n v="-0.19712195008777941"/>
+    <n v="-1.1493512225734359"/>
+    <n v="-0.73127989506304736"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_02_01_02_kids-talking_neutral.wav"/>
+    <n v="-0.17398187957983169"/>
+    <n v="0.34127110407566252"/>
+    <n v="-0.40942501497442929"/>
+    <n v="-0.49035033235672998"/>
+    <n v="0.63521635077469507"/>
+    <n v="0.40635387742396528"/>
+    <n v="-0.87492253240480344"/>
+    <n v="-0.49911626141538312"/>
+    <n v="0.23758442202568311"/>
+    <n v="-0.50139245723961579"/>
+    <n v="-0.3781007415820215"/>
+    <n v="0.63473232828858428"/>
+    <n v="0.91233122529101085"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_02_01_dogs-sitting_sad.wav"/>
+    <n v="-0.6466830219054962"/>
+    <n v="-1.1558746508444191"/>
+    <n v="0.5252727979587517"/>
+    <n v="1.113872424990809"/>
+    <n v="0.80970448979406995"/>
+    <n v="0.48260490878082352"/>
+    <n v="0.61766100930881618"/>
+    <n v="0.79955823502501822"/>
+    <n v="0.35703481579979812"/>
+    <n v="-0.39313649082932389"/>
+    <n v="-9.2244428034059495E-2"/>
+    <n v="0.35529122502049371"/>
+    <n v="0.1158607160178424"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_02_02_dogs-sitting_ps.wav"/>
+    <n v="-0.2720581810084895"/>
+    <n v="-1.2848606618837179"/>
+    <n v="-0.21428569373099079"/>
+    <n v="0.43346379035657612"/>
+    <n v="-0.72023847570247146"/>
+    <n v="-0.9451322311409176"/>
+    <n v="0.64617808917669817"/>
+    <n v="0.73070520711324616"/>
+    <n v="-0.26020212109607588"/>
+    <n v="0.206089409103374"/>
+    <n v="0.96136933873999075"/>
+    <n v="0.81692649366622472"/>
+    <n v="-0.16753500552832651"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_02_01_dogs-sitting_disgust.wav"/>
+    <n v="0.24450647713433821"/>
+    <n v="-0.52866820838294903"/>
+    <n v="1.0575306897279759"/>
+    <n v="1.228898646772163"/>
+    <n v="-2.2584107468882881"/>
+    <n v="-2.6186148437098371"/>
+    <n v="1.23217838373643"/>
+    <n v="0.42327030486704659"/>
+    <n v="-2.4497094358447429"/>
+    <n v="4.9155050032232183E-3"/>
+    <n v="2.3429021781284081"/>
+    <n v="-0.10912631451725879"/>
+    <n v="-4.1693015595700906"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_01_02_kids-talking_angry.wav"/>
+    <n v="0.23985515749494729"/>
+    <n v="-1.189710012826702"/>
+    <n v="-0.39929406584482657"/>
+    <n v="0.59883486075203007"/>
+    <n v="-0.52144517309344895"/>
+    <n v="-1.71954526815314"/>
+    <n v="0.14829296455179519"/>
+    <n v="0.8321688146197449"/>
+    <n v="3.9390226877024329E-2"/>
+    <n v="0.36745437676306891"/>
+    <n v="0.83796668818338726"/>
+    <n v="0.1148752272702737"/>
+    <n v="-1.2149887888896971"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="output\cleaned_03-01-02-01-01-01-01_calm.wav"/>
+    <n v="-1.8982029972165511"/>
+    <n v="-0.6252980160503"/>
+    <n v="1.27998481297301"/>
+    <n v="1.3985902472474121"/>
+    <n v="0.73344017086246771"/>
+    <n v="1.1546652424940449"/>
+    <n v="1.495747792548676"/>
+    <n v="1.299833829707153"/>
+    <n v="1.312008683370171"/>
+    <n v="1.749326665519382"/>
+    <n v="1.256719078725274"/>
+    <n v="0.8593018389563406"/>
+    <n v="0.63143036303727684"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_02_01_01_kids-talking_fear.wav"/>
+    <n v="-1.8404433277726191E-2"/>
+    <n v="0.35485895678595097"/>
+    <n v="-0.19242561415292739"/>
+    <n v="-0.38461267205099892"/>
+    <n v="0.40057215873857199"/>
+    <n v="3.3053503256845057E-2"/>
+    <n v="-1.1288909450732421"/>
+    <n v="-0.89546604898440718"/>
+    <n v="0.1193398360844987"/>
+    <n v="0.21511962286828001"/>
+    <n v="-0.29445380896529738"/>
+    <n v="-0.58738220613397729"/>
+    <n v="-0.62025872593589448"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="output\cleaned_03-02-03-01-02-02-01_happy.wav"/>
+    <n v="0.4040403874172685"/>
+    <n v="-0.31651129330758171"/>
+    <n v="-0.112118056816099"/>
+    <n v="-0.2280590897108295"/>
+    <n v="-0.87524085473174906"/>
+    <n v="-0.66342916124509699"/>
+    <n v="-0.4488877418534436"/>
+    <n v="-1.0613232848693219"/>
+    <n v="-0.88232637718676288"/>
+    <n v="-5.3262641377875772E-2"/>
+    <n v="-0.3768602431068635"/>
+    <n v="-0.2836635138332475"/>
+    <n v="0.85238021564538635"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_01_01_dogs-sitting_sad.wav"/>
+    <n v="-1.9234665846640899"/>
+    <n v="-0.92684481137571806"/>
+    <n v="0.73933040482958667"/>
+    <n v="1.2675433880414479"/>
+    <n v="0.86289571453173164"/>
+    <n v="0.67454672530726345"/>
+    <n v="1.0631022508290009"/>
+    <n v="1.4230967202068121"/>
+    <n v="1.233841141648568"/>
+    <n v="0.99879030391839707"/>
+    <n v="1.116378204329217"/>
+    <n v="1.1366566273659531"/>
+    <n v="0.57925135201893618"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="output\cleaned_03-02-03-02-01-02-01_happy.wav"/>
+    <n v="0.67774797709005563"/>
+    <n v="0.63421774699003108"/>
+    <n v="-0.85760890253444555"/>
+    <n v="-0.57948814355017808"/>
+    <n v="0.76845579490554783"/>
+    <n v="-5.4511822615074798E-2"/>
+    <n v="-1.3636999794368929"/>
+    <n v="-1.3618576293371709"/>
+    <n v="-0.20246090387129029"/>
+    <n v="6.5467539090521082E-2"/>
+    <n v="-1.018088056234173"/>
+    <n v="-0.91110417216417694"/>
+    <n v="0.72430766654934509"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_02_01_kids-talking_ps.wav"/>
+    <n v="-0.44777440348614911"/>
+    <n v="-1.105143829678302"/>
+    <n v="5.3411163054418481E-2"/>
+    <n v="0.49822017272660601"/>
+    <n v="0.30653158492912858"/>
+    <n v="0.23814068765399279"/>
+    <n v="0.35599687331404978"/>
+    <n v="0.56911922351790289"/>
+    <n v="0.71912840965779157"/>
+    <n v="1.000328905701793"/>
+    <n v="1.0686199163111789"/>
+    <n v="1.247897448649516"/>
+    <n v="0.53389923951215468"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="output\cleaned_03-02-02-02-02-01-01_calm.wav"/>
+    <n v="-0.49759869744075169"/>
+    <n v="0.99312121785751029"/>
+    <n v="1.773003949670001"/>
+    <n v="0.76652746597334487"/>
+    <n v="7.2131401759627876E-3"/>
+    <n v="0.89419090969815729"/>
+    <n v="0.99570628933316774"/>
+    <n v="0.13171543352920431"/>
+    <n v="-0.49124453276879421"/>
+    <n v="-0.17564038782797639"/>
+    <n v="0.1135106106747184"/>
+    <n v="0.17455265463816921"/>
+    <n v="0.67472570218624273"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="output\cleaned_03-02-06-02-02-01-01_fear.wav"/>
+    <n v="1.2698679893061871"/>
+    <n v="0.1304318482786391"/>
+    <n v="-0.65788519385845379"/>
+    <n v="-0.99504256484121822"/>
+    <n v="-0.10181984712828911"/>
+    <n v="1.2236145453047571"/>
+    <n v="0.1537622306750267"/>
+    <n v="-0.73963631898078275"/>
+    <n v="-0.8516562628163582"/>
+    <n v="-1.027587186800152"/>
+    <n v="-0.86594603681757398"/>
+    <n v="-0.46398622951676077"/>
+    <n v="5.487228561067202E-2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_01_02_dogs-sitting_neutral.wav"/>
+    <n v="-1.296118259964198"/>
+    <n v="-1.7393323013990221"/>
+    <n v="1.0459944813617461"/>
+    <n v="1.7945625785392041"/>
+    <n v="0.47935455921335379"/>
+    <n v="0.32288673131685691"/>
+    <n v="1.6978971743154969"/>
+    <n v="1.983833613629165"/>
+    <n v="1.153487176973407"/>
+    <n v="1.183034671483818"/>
+    <n v="1.5053571260079699"/>
+    <n v="1.4123795795707439"/>
+    <n v="0.82571527191497684"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="output\cleaned_01_01_01_02_dogs-sitting_sad.wav"/>
+    <n v="-1.5863171351851859"/>
+    <n v="-1.329205999772658"/>
+    <n v="0.99864933597700456"/>
+    <n v="1.747816843370303"/>
+    <n v="0.92016088793026951"/>
+    <n v="0.36259958650176177"/>
+    <n v="1.2179863314876631"/>
+    <n v="2.0072367419849129"/>
+    <n v="1.645341830695354"/>
+    <n v="0.83522255727697658"/>
+    <n v="0.9419433433833031"/>
+    <n v="0.90976253449361211"/>
+    <n v="-0.130924110406066"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD4498C1-DA27-49CA-9CB5-53FB801D1EFC}" name="PivotTable9" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="14"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Emotion" fld="14" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -611,7 +2359,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -645,6 +2393,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -679,9 +2428,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -854,14 +2604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,39 +2658,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
-        <v>-0.8916400391415593</v>
+        <v>-0.89164003914155932</v>
       </c>
       <c r="C2">
-        <v>-2.211656502728373</v>
+        <v>-2.2116565027283732</v>
       </c>
       <c r="D2">
-        <v>1.100741365957287</v>
+        <v>1.1007413659572871</v>
       </c>
       <c r="E2">
         <v>1.196151425936417</v>
       </c>
       <c r="F2">
-        <v>-0.5756501544146949</v>
+        <v>-0.57565015441469491</v>
       </c>
       <c r="G2">
         <v>0.1400919856581925</v>
       </c>
       <c r="H2">
-        <v>0.9457273228060042</v>
+        <v>0.94572732280600424</v>
       </c>
       <c r="I2">
-        <v>0.8138041736134615</v>
+        <v>0.81380417361346147</v>
       </c>
       <c r="J2">
         <v>0.7564061243436353</v>
       </c>
       <c r="K2">
-        <v>1.383458253993319</v>
+        <v>1.3834582539933189</v>
       </c>
       <c r="L2">
         <v>1.46155894871676</v>
@@ -955,7 +2705,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -963,37 +2713,37 @@
         <v>1.143265823334239</v>
       </c>
       <c r="C3">
-        <v>-0.1940027826067016</v>
+        <v>-0.19400278260670159</v>
       </c>
       <c r="D3">
-        <v>-0.5473417391771472</v>
+        <v>-0.54734173917714724</v>
       </c>
       <c r="E3">
-        <v>0.02370836178584624</v>
+        <v>2.3708361785846239E-2</v>
       </c>
       <c r="F3">
-        <v>0.2798028102175875</v>
+        <v>0.27980281021758752</v>
       </c>
       <c r="G3">
         <v>-1.216285889465635</v>
       </c>
       <c r="H3">
-        <v>-1.199281742008356</v>
+        <v>-1.1992817420083559</v>
       </c>
       <c r="I3">
-        <v>0.02973544794956962</v>
+        <v>2.9735447949569619E-2</v>
       </c>
       <c r="J3">
         <v>1.299424447225648</v>
       </c>
       <c r="K3">
-        <v>1.169638825124505</v>
+        <v>1.1696388251245049</v>
       </c>
       <c r="L3">
-        <v>0.01639433357103925</v>
+        <v>1.6394333571039251E-2</v>
       </c>
       <c r="M3">
-        <v>-0.7651776932868168</v>
+        <v>-0.76517769328681684</v>
       </c>
       <c r="N3">
         <v>-1.19031527984979</v>
@@ -1002,45 +2752,45 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.1890337222632301</v>
+        <v>0.18903372226323009</v>
       </c>
       <c r="C4">
         <v>0.1044104249052152</v>
       </c>
       <c r="D4">
-        <v>0.3623938983216134</v>
+        <v>0.36239389832161339</v>
       </c>
       <c r="E4">
-        <v>-0.1510169812722429</v>
+        <v>-0.15101698127224289</v>
       </c>
       <c r="F4">
         <v>-0.1490515274869218</v>
       </c>
       <c r="G4">
-        <v>0.5644145319790062</v>
+        <v>0.56441453197900615</v>
       </c>
       <c r="H4">
         <v>-0.11528416084653</v>
       </c>
       <c r="I4">
-        <v>-0.745412316863883</v>
+        <v>-0.74541231686388298</v>
       </c>
       <c r="J4">
-        <v>-0.0954246124394012</v>
+        <v>-9.5424612439401202E-2</v>
       </c>
       <c r="K4">
-        <v>0.8956516684300264</v>
+        <v>0.89565166843002642</v>
       </c>
       <c r="L4">
-        <v>-0.03211818956356695</v>
+        <v>-3.2118189563566948E-2</v>
       </c>
       <c r="M4">
-        <v>-1.40723622415803</v>
+        <v>-1.4072362241580301</v>
       </c>
       <c r="N4">
         <v>-1.055161036881276</v>
@@ -1049,289 +2799,289 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
-        <v>-1.377030489711336</v>
+        <v>-1.3770304897113359</v>
       </c>
       <c r="C5">
-        <v>-0.8910664496784749</v>
+        <v>-0.89106644967847493</v>
       </c>
       <c r="D5">
-        <v>1.301519934775451</v>
+        <v>1.3015199347754509</v>
       </c>
       <c r="E5">
         <v>1.212103539328909</v>
       </c>
       <c r="F5">
-        <v>0.5175508286511507</v>
+        <v>0.51755082865115065</v>
       </c>
       <c r="G5">
         <v>1.099213385993755</v>
       </c>
       <c r="H5">
-        <v>1.253313932021631</v>
+        <v>1.2533139320216311</v>
       </c>
       <c r="I5">
-        <v>1.153676712756157</v>
+        <v>1.1536767127561569</v>
       </c>
       <c r="J5">
-        <v>0.9242332061652105</v>
+        <v>0.92423320616521054</v>
       </c>
       <c r="K5">
         <v>1.071703074920292</v>
       </c>
       <c r="L5">
-        <v>1.186214956470183</v>
+        <v>1.1862149564701829</v>
       </c>
       <c r="M5">
-        <v>0.7301709816657524</v>
+        <v>0.73017098166575245</v>
       </c>
       <c r="N5">
-        <v>-0.3938484249162456</v>
+        <v>-0.39384842491624561</v>
       </c>
       <c r="O5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1.530616755017438</v>
+        <v>1.5306167550174381</v>
       </c>
       <c r="C6">
-        <v>3.805945067463009</v>
+        <v>3.8059450674630089</v>
       </c>
       <c r="D6">
-        <v>-2.577884596346985</v>
+        <v>-2.5778845963469852</v>
       </c>
       <c r="E6">
-        <v>-2.685602164735278</v>
+        <v>-2.6856021647352781</v>
       </c>
       <c r="F6">
-        <v>0.5077888851181716</v>
+        <v>0.50778888511817155</v>
       </c>
       <c r="G6">
-        <v>-0.3992432381116044</v>
+        <v>-0.39924323811160439</v>
       </c>
       <c r="H6">
         <v>-1.369734514283665</v>
       </c>
       <c r="I6">
-        <v>-1.336727037619328</v>
+        <v>-1.3367270376193281</v>
       </c>
       <c r="J6">
         <v>-1.119177061269226</v>
       </c>
       <c r="K6">
-        <v>-0.7555022870977506</v>
+        <v>-0.75550228709775058</v>
       </c>
       <c r="L6">
-        <v>-1.064263203237067</v>
+        <v>-1.0642632032370669</v>
       </c>
       <c r="M6">
         <v>-0.4053337348701887</v>
       </c>
       <c r="N6">
-        <v>1.189714114924251</v>
+        <v>1.1897141149242509</v>
       </c>
       <c r="O6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.03906327292110341</v>
+        <v>3.9063272921103412E-2</v>
       </c>
       <c r="C7">
-        <v>-0.02745440562155311</v>
+        <v>-2.7454405621553109E-2</v>
       </c>
       <c r="D7">
         <v>0.1350533832076701</v>
       </c>
       <c r="E7">
-        <v>-0.2504577752742493</v>
+        <v>-0.25045777527424928</v>
       </c>
       <c r="F7">
         <v>0.1227689641021624</v>
       </c>
       <c r="G7">
-        <v>0.4888971909427955</v>
+        <v>0.48889719094279549</v>
       </c>
       <c r="H7">
-        <v>-0.2545126971619631</v>
+        <v>-0.25451269716196312</v>
       </c>
       <c r="I7">
-        <v>0.004514493671900197</v>
+        <v>4.5144936719001966E-3</v>
       </c>
       <c r="J7">
-        <v>0.3068740243260629</v>
+        <v>0.30687402432606292</v>
       </c>
       <c r="K7">
-        <v>-0.6538703917682154</v>
+        <v>-0.65387039176821538</v>
       </c>
       <c r="L7">
-        <v>-0.5884853687747931</v>
+        <v>-0.58848536877479307</v>
       </c>
       <c r="M7">
         <v>-0.2046014173102593</v>
       </c>
       <c r="N7">
-        <v>-0.7404647770322961</v>
+        <v>-0.74046477703229607</v>
       </c>
       <c r="O7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.903796092603022</v>
+        <v>0.90379609260302196</v>
       </c>
       <c r="C8">
-        <v>0.5396780411423601</v>
+        <v>0.53967804114236007</v>
       </c>
       <c r="D8">
-        <v>-0.7287282350368255</v>
+        <v>-0.72872823503682549</v>
       </c>
       <c r="E8">
         <v>-0.8332380257685077</v>
       </c>
       <c r="F8">
-        <v>-0.3530487523160692</v>
+        <v>-0.35304875231606919</v>
       </c>
       <c r="G8">
-        <v>-0.3814398824385765</v>
+        <v>-0.38143988243857652</v>
       </c>
       <c r="H8">
-        <v>-0.7847597688218212</v>
+        <v>-0.78475976882182119</v>
       </c>
       <c r="I8">
-        <v>-1.426364102826185</v>
+        <v>-1.4263641028261851</v>
       </c>
       <c r="J8">
         <v>-1.26954772452576</v>
       </c>
       <c r="K8">
-        <v>-0.2975044147512674</v>
+        <v>-0.29750441475126738</v>
       </c>
       <c r="L8">
-        <v>-0.8855332668668457</v>
+        <v>-0.88553326686684575</v>
       </c>
       <c r="M8">
-        <v>-1.586079424917087</v>
+        <v>-1.5860794249170871</v>
       </c>
       <c r="N8">
-        <v>-0.04300369655696173</v>
+        <v>-4.3003696556961728E-2</v>
       </c>
       <c r="O8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0.6412356195009563</v>
+        <v>0.64123561950095631</v>
       </c>
       <c r="C9">
-        <v>0.03304336933083725</v>
+        <v>3.3043369330837249E-2</v>
       </c>
       <c r="D9">
-        <v>-0.1411073727318679</v>
+        <v>-0.14110737273186791</v>
       </c>
       <c r="E9">
-        <v>-0.9216954409851257</v>
+        <v>-0.92169544098512568</v>
       </c>
       <c r="F9">
         <v>-0.6018403488769265</v>
       </c>
       <c r="G9">
-        <v>0.5410177416407421</v>
+        <v>0.54101774164074212</v>
       </c>
       <c r="H9">
-        <v>-0.7207098009050205</v>
+        <v>-0.72070980090502046</v>
       </c>
       <c r="I9">
         <v>-1.227448581936494</v>
       </c>
       <c r="J9">
-        <v>0.07195801474048127</v>
+        <v>7.1958014740481274E-2</v>
       </c>
       <c r="K9">
-        <v>0.3754060155337082</v>
+        <v>0.37540601553370823</v>
       </c>
       <c r="L9">
         <v>-1.083712834304994</v>
       </c>
       <c r="M9">
-        <v>-2.11486145534041</v>
+        <v>-2.1148614553404101</v>
       </c>
       <c r="N9">
-        <v>-0.937105476763912</v>
+        <v>-0.93710547676391198</v>
       </c>
       <c r="O9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
-        <v>-0.2795899080794917</v>
+        <v>-0.27958990807949169</v>
       </c>
       <c r="C10">
-        <v>0.4449417818441416</v>
+        <v>0.44494178184414163</v>
       </c>
       <c r="D10">
-        <v>-0.3205653388746711</v>
+        <v>-0.32056533887467109</v>
       </c>
       <c r="E10">
-        <v>-0.4647024981598057</v>
+        <v>-0.46470249815980569</v>
       </c>
       <c r="F10">
-        <v>0.5181961647128535</v>
+        <v>0.51819616471285346</v>
       </c>
       <c r="G10">
-        <v>0.04703941277486191</v>
+        <v>4.7039412774861913E-2</v>
       </c>
       <c r="H10">
-        <v>-1.118593037550839</v>
+        <v>-1.1185930375508391</v>
       </c>
       <c r="I10">
-        <v>-0.5917711767063777</v>
+        <v>-0.59177117670637769</v>
       </c>
       <c r="J10">
-        <v>0.4309902623869012</v>
+        <v>0.43099026238690119</v>
       </c>
       <c r="K10">
-        <v>-0.2022479911602731</v>
+        <v>-0.20224799116027309</v>
       </c>
       <c r="L10">
         <v>-0.9264224451246218</v>
       </c>
       <c r="M10">
-        <v>-0.8302301668962191</v>
+        <v>-0.83023016689621909</v>
       </c>
       <c r="N10">
-        <v>0.2300460806839986</v>
+        <v>0.23004608068399859</v>
       </c>
       <c r="O10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1342,13 +3092,13 @@
         <v>1.196844487585031</v>
       </c>
       <c r="D11">
-        <v>1.128202993308587</v>
+        <v>1.1282029933085871</v>
       </c>
       <c r="E11">
         <v>1.23522504794948</v>
       </c>
       <c r="F11">
-        <v>0.276046587188842</v>
+        <v>0.27604658718884201</v>
       </c>
       <c r="G11">
         <v>0.1629774160760051</v>
@@ -1363,10 +3113,10 @@
         <v>-0.3307373648459484</v>
       </c>
       <c r="K11">
-        <v>0.4622092747823311</v>
+        <v>0.46220927478233109</v>
       </c>
       <c r="L11">
-        <v>1.852550217861224</v>
+        <v>1.8525502178612241</v>
       </c>
       <c r="M11">
         <v>1.867827715203199</v>
@@ -1378,15 +3128,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12">
-        <v>1.7327164261556</v>
+        <v>1.7327164261556001</v>
       </c>
       <c r="C12">
-        <v>0.9290391592814382</v>
+        <v>0.92903915928143821</v>
       </c>
       <c r="D12">
         <v>-1.144430832332276</v>
@@ -1398,42 +3148,42 @@
         <v>-0.3536610449120331</v>
       </c>
       <c r="G12">
-        <v>-0.6357415601012545</v>
+        <v>-0.63574156010125449</v>
       </c>
       <c r="H12">
         <v>-1.604519855930995</v>
       </c>
       <c r="I12">
-        <v>-0.9210010383782818</v>
+        <v>-0.92100103837828184</v>
       </c>
       <c r="J12">
-        <v>0.3364512812962799</v>
+        <v>0.33645128129627988</v>
       </c>
       <c r="K12">
-        <v>-0.1122955446745622</v>
+        <v>-0.11229554467456219</v>
       </c>
       <c r="L12">
-        <v>-0.5183147057578648</v>
+        <v>-0.51831470575786476</v>
       </c>
       <c r="M12">
-        <v>0.16520876405004</v>
+        <v>0.16520876405004001</v>
       </c>
       <c r="N12">
-        <v>0.2655345847098555</v>
+        <v>0.26553458470985553</v>
       </c>
       <c r="O12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13">
-        <v>-0.1783168693573345</v>
+        <v>-0.17831686935733451</v>
       </c>
       <c r="C13">
-        <v>0.4830049209123994</v>
+        <v>0.48300492091239938</v>
       </c>
       <c r="D13">
         <v>0.3274386147366371</v>
@@ -1442,28 +3192,28 @@
         <v>0.1774630069783302</v>
       </c>
       <c r="F13">
-        <v>0.321368665892673</v>
+        <v>0.32136866589267299</v>
       </c>
       <c r="G13">
-        <v>-0.05086925425245656</v>
+        <v>-5.0869254252456558E-2</v>
       </c>
       <c r="H13">
-        <v>-0.4692848013335625</v>
+        <v>-0.46928480133356248</v>
       </c>
       <c r="I13">
-        <v>-0.3401025122184024</v>
+        <v>-0.34010251221840238</v>
       </c>
       <c r="J13">
-        <v>0.07380293082137476</v>
+        <v>7.3802930821374763E-2</v>
       </c>
       <c r="K13">
-        <v>-0.3610927436528402</v>
+        <v>-0.36109274365284022</v>
       </c>
       <c r="L13">
         <v>-0.6897789943843804</v>
       </c>
       <c r="M13">
-        <v>-0.362521824985902</v>
+        <v>-0.36252182498590202</v>
       </c>
       <c r="N13">
         <v>0.602126555904549</v>
@@ -1472,33 +3222,33 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
-        <v>1.351325603836348</v>
+        <v>1.3513256038363479</v>
       </c>
       <c r="C14">
-        <v>-0.7432638885644839</v>
+        <v>-0.74326388856448389</v>
       </c>
       <c r="D14">
-        <v>-0.5906081876150771</v>
+        <v>-0.59060818761507705</v>
       </c>
       <c r="E14">
         <v>-1.032121801540935</v>
       </c>
       <c r="F14">
-        <v>-2.225148562351819</v>
+        <v>-2.2251485623518188</v>
       </c>
       <c r="G14">
-        <v>-0.4758986121440434</v>
+        <v>-0.47589861214404339</v>
       </c>
       <c r="H14">
-        <v>1.077914902109223</v>
+        <v>1.0779149021092229</v>
       </c>
       <c r="I14">
-        <v>0.04783447779515242</v>
+        <v>4.7834477795152423E-2</v>
       </c>
       <c r="J14">
         <v>-1.876394283839097</v>
@@ -1507,33 +3257,33 @@
         <v>-1.516132883382489</v>
       </c>
       <c r="L14">
-        <v>-0.5354302727045704</v>
+        <v>-0.53543027270457044</v>
       </c>
       <c r="M14">
-        <v>-0.7750459584254386</v>
+        <v>-0.77504595842543855</v>
       </c>
       <c r="N14">
-        <v>0.376244496616044</v>
+        <v>0.37624449661604398</v>
       </c>
       <c r="O14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15">
-        <v>-1.20874434073384</v>
+        <v>-1.2087443407338401</v>
       </c>
       <c r="C15">
         <v>-1.922583965882275</v>
       </c>
       <c r="D15">
-        <v>0.6467855817730805</v>
+        <v>0.64678558177308054</v>
       </c>
       <c r="E15">
-        <v>0.9852978222275323</v>
+        <v>0.98529782222753226</v>
       </c>
       <c r="F15">
         <v>0.1713829627776518</v>
@@ -1542,10 +3292,10 @@
         <v>0.725105653821145</v>
       </c>
       <c r="H15">
-        <v>0.855477356864343</v>
+        <v>0.85547735686434301</v>
       </c>
       <c r="I15">
-        <v>0.7076849486705721</v>
+        <v>0.70768494867057208</v>
       </c>
       <c r="J15">
         <v>0.6496385770448232</v>
@@ -1554,19 +3304,19 @@
         <v>1.074128098567138</v>
       </c>
       <c r="L15">
-        <v>1.552028924038724</v>
+        <v>1.5520289240387239</v>
       </c>
       <c r="M15">
-        <v>1.735270457500182</v>
+        <v>1.7352704575001821</v>
       </c>
       <c r="N15">
-        <v>0.3571477873858306</v>
+        <v>0.35714778738583058</v>
       </c>
       <c r="O15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1574,37 +3324,37 @@
         <v>1.143265823334239</v>
       </c>
       <c r="C16">
-        <v>-0.1940027826067016</v>
+        <v>-0.19400278260670159</v>
       </c>
       <c r="D16">
-        <v>-0.5473417391771472</v>
+        <v>-0.54734173917714724</v>
       </c>
       <c r="E16">
-        <v>0.02370836178584624</v>
+        <v>2.3708361785846239E-2</v>
       </c>
       <c r="F16">
-        <v>0.2798028102175875</v>
+        <v>0.27980281021758752</v>
       </c>
       <c r="G16">
         <v>-1.216285889465635</v>
       </c>
       <c r="H16">
-        <v>-1.199281742008356</v>
+        <v>-1.1992817420083559</v>
       </c>
       <c r="I16">
-        <v>0.02973544794956962</v>
+        <v>2.9735447949569619E-2</v>
       </c>
       <c r="J16">
         <v>1.299424447225648</v>
       </c>
       <c r="K16">
-        <v>1.169638825124505</v>
+        <v>1.1696388251245049</v>
       </c>
       <c r="L16">
-        <v>0.01639433357103925</v>
+        <v>1.6394333571039251E-2</v>
       </c>
       <c r="M16">
-        <v>-0.7651776932868168</v>
+        <v>-0.76517769328681684</v>
       </c>
       <c r="N16">
         <v>-1.19031527984979</v>
@@ -1613,15 +3363,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.8542827783223685</v>
+        <v>0.85428277832236854</v>
       </c>
       <c r="C17">
-        <v>0.7482030991474315</v>
+        <v>0.74820309914743155</v>
       </c>
       <c r="D17">
         <v>-1.413227047811064</v>
@@ -1633,25 +3383,25 @@
         <v>1.226832209867899</v>
       </c>
       <c r="G17">
-        <v>-0.9567056898985961</v>
+        <v>-0.95670568989859606</v>
       </c>
       <c r="H17">
-        <v>-1.160557445071097</v>
+        <v>-1.1605574450710969</v>
       </c>
       <c r="I17">
-        <v>0.2267873671468987</v>
+        <v>0.22678736714689871</v>
       </c>
       <c r="J17">
-        <v>1.235525926590879</v>
+        <v>1.2355259265908789</v>
       </c>
       <c r="K17">
-        <v>0.3196869178676559</v>
+        <v>0.31968691786765591</v>
       </c>
       <c r="L17">
-        <v>-0.3668176251116052</v>
+        <v>-0.36681762511160521</v>
       </c>
       <c r="M17">
-        <v>0.2509417249671554</v>
+        <v>0.25094172496715539</v>
       </c>
       <c r="N17">
         <v>0.1774985272017913</v>
@@ -1660,45 +3410,45 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18">
-        <v>-0.4423165430149673</v>
+        <v>-0.44231654301496731</v>
       </c>
       <c r="C18">
-        <v>0.370524391987859</v>
+        <v>0.37052439198785903</v>
       </c>
       <c r="D18">
-        <v>-0.326443743485241</v>
+        <v>-0.32644374348524102</v>
       </c>
       <c r="E18">
-        <v>-0.2761974957445723</v>
+        <v>-0.27619749574457231</v>
       </c>
       <c r="F18">
         <v>0.3913431469992229</v>
       </c>
       <c r="G18">
-        <v>0.2694892740816638</v>
+        <v>0.26948927408166379</v>
       </c>
       <c r="H18">
-        <v>-0.3862374869663637</v>
+        <v>-0.38623748696636367</v>
       </c>
       <c r="I18">
         <v>-0.4219117585465566</v>
       </c>
       <c r="J18">
-        <v>0.04614565416948509</v>
+        <v>4.6145654169485087E-2</v>
       </c>
       <c r="K18">
-        <v>-0.4252585153303368</v>
+        <v>-0.42525851533033682</v>
       </c>
       <c r="L18">
-        <v>-0.9692587844597896</v>
+        <v>-0.96925878445978964</v>
       </c>
       <c r="M18">
-        <v>-0.5803164040353521</v>
+        <v>-0.58031640403535212</v>
       </c>
       <c r="N18">
         <v>0.1007866298328397</v>
@@ -1707,27 +3457,27 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19">
-        <v>1.786994082795854</v>
+        <v>1.7869940827958539</v>
       </c>
       <c r="C19">
-        <v>-0.7540361443939979</v>
+        <v>-0.75403614439399791</v>
       </c>
       <c r="D19">
-        <v>-2.018517748330034</v>
+        <v>-2.0185177483300341</v>
       </c>
       <c r="E19">
-        <v>-1.568402909620413</v>
+        <v>-1.5684029096204131</v>
       </c>
       <c r="F19">
         <v>-1.77781034183244</v>
       </c>
       <c r="G19">
-        <v>-2.205205743880783</v>
+        <v>-2.2052057438807831</v>
       </c>
       <c r="H19">
         <v>-1.185674751773222</v>
@@ -1736,25 +3486,25 @@
         <v>-0.4225458817734053</v>
       </c>
       <c r="J19">
-        <v>-0.3430953460483943</v>
+        <v>-0.34309534604839431</v>
       </c>
       <c r="K19">
-        <v>-0.3987791452030477</v>
+        <v>-0.39877914520304769</v>
       </c>
       <c r="L19">
-        <v>-0.4130258922194192</v>
+        <v>-0.41302589221941921</v>
       </c>
       <c r="M19">
-        <v>-1.131354323506358</v>
+        <v>-1.1313543235063579</v>
       </c>
       <c r="N19">
-        <v>-1.90595273105987</v>
+        <v>-1.9059527310598701</v>
       </c>
       <c r="O19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1762,22 +3512,22 @@
         <v>-1.132084841624643</v>
       </c>
       <c r="C20">
-        <v>-0.2590175311232645</v>
+        <v>-0.25901753112326448</v>
       </c>
       <c r="D20">
-        <v>0.6091272466100199</v>
+        <v>0.60912724661001993</v>
       </c>
       <c r="E20">
-        <v>1.43207474603876</v>
+        <v>1.4320747460387599</v>
       </c>
       <c r="F20">
-        <v>1.22215274675788</v>
+        <v>1.2221527467578801</v>
       </c>
       <c r="G20">
-        <v>-0.005985558080897894</v>
+        <v>-5.9855580808978936E-3</v>
       </c>
       <c r="H20">
-        <v>0.7478147087687794</v>
+        <v>0.74781470876877942</v>
       </c>
       <c r="I20">
         <v>1.601363711611427</v>
@@ -1786,27 +3536,27 @@
         <v>1.329017991719081</v>
       </c>
       <c r="K20">
-        <v>0.6378331061381083</v>
+        <v>0.63783310613810829</v>
       </c>
       <c r="L20">
-        <v>0.7004202473669294</v>
+        <v>0.70042024736692943</v>
       </c>
       <c r="M20">
         <v>1.067234676484206</v>
       </c>
       <c r="N20">
-        <v>0.5619665106313392</v>
+        <v>0.56196651063133918</v>
       </c>
       <c r="O20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21">
-        <v>-0.2643024148175454</v>
+        <v>-0.26430241481754541</v>
       </c>
       <c r="C21">
         <v>-0.1165701125870811</v>
@@ -1818,25 +3568,25 @@
         <v>0.1773390855245803</v>
       </c>
       <c r="F21">
-        <v>0.3942594446680068</v>
+        <v>0.39425944466800678</v>
       </c>
       <c r="G21">
-        <v>-0.3724650346718482</v>
+        <v>-0.37246503467184822</v>
       </c>
       <c r="H21">
-        <v>-0.8703697137114605</v>
+        <v>-0.87036971371146055</v>
       </c>
       <c r="I21">
-        <v>-0.2044971337027099</v>
+        <v>-0.20449713370270989</v>
       </c>
       <c r="J21">
-        <v>0.2901777196841875</v>
+        <v>0.29017771968418749</v>
       </c>
       <c r="K21">
-        <v>-0.4768798540602959</v>
+        <v>-0.47687985406029593</v>
       </c>
       <c r="L21">
-        <v>-0.6499346048908801</v>
+        <v>-0.64993460489088006</v>
       </c>
       <c r="M21">
         <v>-0.7409402814511743</v>
@@ -1848,21 +3598,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22">
-        <v>0.662336760732022</v>
+        <v>0.66233676073202197</v>
       </c>
       <c r="C22">
-        <v>-1.9470711456019</v>
+        <v>-1.9470711456019001</v>
       </c>
       <c r="D22">
-        <v>0.6780520209872298</v>
+        <v>0.67805202098722983</v>
       </c>
       <c r="E22">
-        <v>0.5781812330373168</v>
+        <v>0.57818123303731683</v>
       </c>
       <c r="F22">
         <v>-2.639450766030532</v>
@@ -1874,19 +3624,19 @@
         <v>0.7805428563503598</v>
       </c>
       <c r="I22">
-        <v>-0.3368702131884564</v>
+        <v>-0.33687021318845639</v>
       </c>
       <c r="J22">
-        <v>-2.257043615560115</v>
+        <v>-2.2570436155601148</v>
       </c>
       <c r="K22">
-        <v>-0.5324268596184016</v>
+        <v>-0.53242685961840164</v>
       </c>
       <c r="L22">
-        <v>1.668363593659618</v>
+        <v>1.6683635936596179</v>
       </c>
       <c r="M22">
-        <v>0.7522568424725357</v>
+        <v>0.75225684247253566</v>
       </c>
       <c r="N22">
         <v>-2.651190814295004</v>
@@ -1895,54 +3645,54 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23">
-        <v>-0.685111415550218</v>
+        <v>-0.68511141555021804</v>
       </c>
       <c r="C23">
-        <v>-0.9639959173947846</v>
+        <v>-0.96399591739478463</v>
       </c>
       <c r="D23">
-        <v>0.9524048451083317</v>
+        <v>0.95240484510833168</v>
       </c>
       <c r="E23">
-        <v>0.9934480409164699</v>
+        <v>0.99344804091646988</v>
       </c>
       <c r="F23">
-        <v>0.9863520334207967</v>
+        <v>0.98635203342079669</v>
       </c>
       <c r="G23">
-        <v>1.424586626279763</v>
+        <v>1.4245866262797631</v>
       </c>
       <c r="H23">
-        <v>0.6823496275566496</v>
+        <v>0.68234962755664963</v>
       </c>
       <c r="I23">
-        <v>0.7564843339494577</v>
+        <v>0.75648433394945769</v>
       </c>
       <c r="J23">
         <v>1.192810215091028</v>
       </c>
       <c r="K23">
-        <v>0.811495087463286</v>
+        <v>0.81149508746328602</v>
       </c>
       <c r="L23">
-        <v>0.9537241647030968</v>
+        <v>0.95372416470309684</v>
       </c>
       <c r="M23">
         <v>1.80281552234027</v>
       </c>
       <c r="N23">
-        <v>0.9327939636783248</v>
+        <v>0.93279396367832479</v>
       </c>
       <c r="O23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1950,22 +3700,22 @@
         <v>0.8302015824093294</v>
       </c>
       <c r="C24">
-        <v>0.4496359039003714</v>
+        <v>0.44963590390037139</v>
       </c>
       <c r="D24">
-        <v>-0.83646086888625</v>
+        <v>-0.83646086888625004</v>
       </c>
       <c r="E24">
-        <v>-0.5140573034318698</v>
+        <v>-0.51405730343186984</v>
       </c>
       <c r="F24">
-        <v>0.6604536507633206</v>
+        <v>0.66045365076332063</v>
       </c>
       <c r="G24">
-        <v>-0.4954767948998323</v>
+        <v>-0.49547679489983232</v>
       </c>
       <c r="H24">
-        <v>-1.029302297554645</v>
+        <v>-1.0293022975546451</v>
       </c>
       <c r="I24">
         <v>0.3718674113852013</v>
@@ -1974,13 +3724,13 @@
         <v>1.808769068269698</v>
       </c>
       <c r="K24">
-        <v>1.804491528259497</v>
+        <v>1.8044915282594971</v>
       </c>
       <c r="L24">
-        <v>0.8460896950067078</v>
+        <v>0.84608969500670783</v>
       </c>
       <c r="M24">
-        <v>0.2709949095444407</v>
+        <v>0.27099490954444072</v>
       </c>
       <c r="N24">
         <v>-0.108838724956673</v>
@@ -1989,68 +3739,68 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25">
-        <v>1.892458659381402</v>
+        <v>1.8924586593814019</v>
       </c>
       <c r="C25">
-        <v>1.926969196198555</v>
+        <v>1.9269691961985549</v>
       </c>
       <c r="D25">
-        <v>-1.456902319669176</v>
+        <v>-1.4569023196691759</v>
       </c>
       <c r="E25">
-        <v>-2.332110045281293</v>
+        <v>-2.3321100452812931</v>
       </c>
       <c r="F25">
-        <v>-0.9245829393446895</v>
+        <v>-0.92458293934468949</v>
       </c>
       <c r="G25">
-        <v>0.02121656638311313</v>
+        <v>2.1216566383113131E-2</v>
       </c>
       <c r="H25">
-        <v>-1.580673926711856</v>
+        <v>-1.5806739267118559</v>
       </c>
       <c r="I25">
-        <v>-2.12985435769767</v>
+        <v>-2.1298543576976701</v>
       </c>
       <c r="J25">
         <v>-0.3684946762752081</v>
       </c>
       <c r="K25">
-        <v>-0.3555614082883715</v>
+        <v>-0.35556140828837152</v>
       </c>
       <c r="L25">
         <v>-1.25030726314092</v>
       </c>
       <c r="M25">
-        <v>0.2635345839392237</v>
+        <v>0.26353458393922369</v>
       </c>
       <c r="N25">
-        <v>2.132946280257557</v>
+        <v>2.1329462802575572</v>
       </c>
       <c r="O25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
       <c r="B26">
-        <v>-0.4675466917878877</v>
+        <v>-0.46754669178788771</v>
       </c>
       <c r="C26">
-        <v>0.931677607670153</v>
+        <v>0.93167760767015295</v>
       </c>
       <c r="D26">
-        <v>0.3363957558398551</v>
+        <v>0.33639575583985509</v>
       </c>
       <c r="E26">
-        <v>-0.0632329299196958</v>
+        <v>-6.3232929919695799E-2</v>
       </c>
       <c r="F26">
         <v>1.098980262766849</v>
@@ -2059,180 +3809,180 @@
         <v>1.239766351124385</v>
       </c>
       <c r="H26">
-        <v>-0.3536007702351942</v>
+        <v>-0.35360077023519421</v>
       </c>
       <c r="I26">
-        <v>-0.5003602958913281</v>
+        <v>-0.50036029589132813</v>
       </c>
       <c r="J26">
-        <v>0.5259043876263962</v>
+        <v>0.52590438762639624</v>
       </c>
       <c r="K26">
-        <v>0.4717518313371831</v>
+        <v>0.47175183133718313</v>
       </c>
       <c r="L26">
-        <v>-0.2974984498829696</v>
+        <v>-0.29749844988296958</v>
       </c>
       <c r="M26">
-        <v>-0.08825032579735599</v>
+        <v>-8.8250325797355991E-2</v>
       </c>
       <c r="N26">
-        <v>1.058226331034336</v>
+        <v>1.0582263310343361</v>
       </c>
       <c r="O26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
       <c r="B27">
-        <v>0.008629397604099589</v>
+        <v>8.6293976040995885E-3</v>
       </c>
       <c r="C27">
-        <v>-1.324729714024682</v>
+        <v>-1.3247297140246821</v>
       </c>
       <c r="D27">
-        <v>0.290720597628686</v>
+        <v>0.29072059762868602</v>
       </c>
       <c r="E27">
-        <v>-0.04394196938871587</v>
+        <v>-4.3941969388715869E-2</v>
       </c>
       <c r="F27">
         <v>-1.143752198559344</v>
       </c>
       <c r="G27">
-        <v>0.2595567464120009</v>
+        <v>0.25955674641200088</v>
       </c>
       <c r="H27">
-        <v>0.6054125660087968</v>
+        <v>0.60541256600879678</v>
       </c>
       <c r="I27">
-        <v>-0.05200808015325669</v>
+        <v>-5.200808015325669E-2</v>
       </c>
       <c r="J27">
-        <v>-0.07941309192581443</v>
+        <v>-7.941309192581443E-2</v>
       </c>
       <c r="K27">
-        <v>0.4066569589534659</v>
+        <v>0.40665695895346587</v>
       </c>
       <c r="L27">
-        <v>0.2091756249992049</v>
+        <v>0.20917562499920489</v>
       </c>
       <c r="M27">
-        <v>0.1418682977824011</v>
+        <v>0.14186829778240109</v>
       </c>
       <c r="N27">
-        <v>0.8146173200242827</v>
+        <v>0.81461732002428267</v>
       </c>
       <c r="O27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28">
-        <v>-0.5409713335145198</v>
+        <v>-0.54097133351451976</v>
       </c>
       <c r="C28">
-        <v>-0.5909437279199138</v>
+        <v>-0.59094372791991379</v>
       </c>
       <c r="D28">
-        <v>-0.4341463747199608</v>
+        <v>-0.43414637471996081</v>
       </c>
       <c r="E28">
         <v>0.6360919317699909</v>
       </c>
       <c r="F28">
-        <v>0.2199269206026805</v>
+        <v>0.21992692060268049</v>
       </c>
       <c r="G28">
-        <v>-0.8131522598745692</v>
+        <v>-0.81315225987456918</v>
       </c>
       <c r="H28">
-        <v>0.2068977539402903</v>
+        <v>0.20689775394029031</v>
       </c>
       <c r="I28">
-        <v>0.8235721213284893</v>
+        <v>0.82357212132848934</v>
       </c>
       <c r="J28">
-        <v>0.4699470082704411</v>
+        <v>0.46994700827044111</v>
       </c>
       <c r="K28">
-        <v>0.004816379949045568</v>
+        <v>4.8163799490455678E-3</v>
       </c>
       <c r="L28">
-        <v>0.6570536852611905</v>
+        <v>0.65705368526119046</v>
       </c>
       <c r="M28">
         <v>1.310865471291023</v>
       </c>
       <c r="N28">
-        <v>0.1375741914600198</v>
+        <v>0.13757419146001981</v>
       </c>
       <c r="O28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29">
-        <v>0.3741756383422664</v>
+        <v>0.37417563834226641</v>
       </c>
       <c r="C29">
-        <v>0.08777286387942396</v>
+        <v>8.7772863879423957E-2</v>
       </c>
       <c r="D29">
-        <v>-0.3817954835576525</v>
+        <v>-0.38179548355765253</v>
       </c>
       <c r="E29">
-        <v>-0.6300196556907646</v>
+        <v>-0.63001965569076457</v>
       </c>
       <c r="F29">
-        <v>0.159444669270276</v>
+        <v>0.15944466927027601</v>
       </c>
       <c r="G29">
-        <v>0.4008935091624291</v>
+        <v>0.40089350916242911</v>
       </c>
       <c r="H29">
-        <v>-0.7187963508097552</v>
+        <v>-0.71879635080975524</v>
       </c>
       <c r="I29">
-        <v>-0.8450117462023617</v>
+        <v>-0.84501174620236175</v>
       </c>
       <c r="J29">
-        <v>-0.5290893011161962</v>
+        <v>-0.52908930111619623</v>
       </c>
       <c r="K29">
-        <v>-1.193409635070723</v>
+        <v>-1.1934096350707231</v>
       </c>
       <c r="L29">
-        <v>-1.612232027116347</v>
+        <v>-1.6122320271163471</v>
       </c>
       <c r="M29">
         <v>-1.976546277205435</v>
       </c>
       <c r="N29">
-        <v>-1.050170559674004</v>
+        <v>-1.0501705596740041</v>
       </c>
       <c r="O29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30">
-        <v>0.261805641061315</v>
+        <v>0.26180564106131499</v>
       </c>
       <c r="C30">
-        <v>0.3700937271025833</v>
+        <v>0.37009372710258331</v>
       </c>
       <c r="D30">
         <v>0.2320800250113311</v>
@@ -2241,16 +3991,16 @@
         <v>-0.3710860124840451</v>
       </c>
       <c r="F30">
-        <v>0.186761165795563</v>
+        <v>0.18676116579556301</v>
       </c>
       <c r="G30">
-        <v>0.7506006458317083</v>
+        <v>0.75060064583170827</v>
       </c>
       <c r="H30">
-        <v>-0.4955182982267757</v>
+        <v>-0.49551829822677568</v>
       </c>
       <c r="I30">
-        <v>-1.043487127925051</v>
+        <v>-1.0434871279250511</v>
       </c>
       <c r="J30">
         <v>-0.8999661189071414</v>
@@ -2259,10 +4009,10 @@
         <v>-1.059349686303076</v>
       </c>
       <c r="L30">
-        <v>-0.9888993077687974</v>
+        <v>-0.98889930776879742</v>
       </c>
       <c r="M30">
-        <v>-0.8924333731021131</v>
+        <v>-0.89243337310211313</v>
       </c>
       <c r="N30">
         <v>0.1786404574508125</v>
@@ -2271,7 +4021,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2279,25 +4029,25 @@
         <v>-1.44554432768354</v>
       </c>
       <c r="C31">
-        <v>-1.64712870216741</v>
+        <v>-1.6471287021674099</v>
       </c>
       <c r="D31">
         <v>0.9923862620812125</v>
       </c>
       <c r="E31">
-        <v>1.304620358838165</v>
+        <v>1.3046203588381651</v>
       </c>
       <c r="F31">
-        <v>0.4903710247533744</v>
+        <v>0.49037102475337441</v>
       </c>
       <c r="G31">
-        <v>0.9346732935368757</v>
+        <v>0.93467329353687567</v>
       </c>
       <c r="H31">
         <v>1.258390803984083</v>
       </c>
       <c r="I31">
-        <v>1.392507192219293</v>
+        <v>1.3925071922192931</v>
       </c>
       <c r="J31">
         <v>1.475243834393533</v>
@@ -2312,51 +4062,51 @@
         <v>1.136105847698877</v>
       </c>
       <c r="N31">
-        <v>0.7684191793244075</v>
+        <v>0.76841917932440751</v>
       </c>
       <c r="O31" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32">
-        <v>0.738808334489864</v>
+        <v>0.73880833448986405</v>
       </c>
       <c r="C32">
         <v>-1.446427598233653</v>
       </c>
       <c r="D32">
-        <v>0.5416742503675744</v>
+        <v>0.54167425036757444</v>
       </c>
       <c r="E32">
-        <v>-0.4836867023052729</v>
+        <v>-0.48368670230527289</v>
       </c>
       <c r="F32">
-        <v>-4.344377028292702</v>
+        <v>-4.3443770282927021</v>
       </c>
       <c r="G32">
-        <v>-2.834445076597997</v>
+        <v>-2.8344450765979969</v>
       </c>
       <c r="H32">
-        <v>0.4465359562079194</v>
+        <v>0.44653595620791942</v>
       </c>
       <c r="I32">
-        <v>-0.1086290871974906</v>
+        <v>-0.10862908719749061</v>
       </c>
       <c r="J32">
-        <v>-2.058985562860954</v>
+        <v>-2.0589855628609541</v>
       </c>
       <c r="K32">
-        <v>-1.547238089371404</v>
+        <v>-1.5472380893714039</v>
       </c>
       <c r="L32">
-        <v>0.1710980425572149</v>
+        <v>0.17109804255721489</v>
       </c>
       <c r="M32">
-        <v>-0.1524783384725112</v>
+        <v>-0.15247833847251119</v>
       </c>
       <c r="N32">
         <v>-1.408125171204069</v>
@@ -2365,7 +4115,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2373,46 +4123,46 @@
         <v>1.016800087154734</v>
       </c>
       <c r="C33">
-        <v>0.004917446910475699</v>
+        <v>4.917446910475699E-3</v>
       </c>
       <c r="D33">
-        <v>-0.4292253239134765</v>
+        <v>-0.42922532391347651</v>
       </c>
       <c r="E33">
-        <v>-0.4530920111853881</v>
+        <v>-0.45309201118538811</v>
       </c>
       <c r="F33">
-        <v>-0.1562393285540709</v>
+        <v>-0.15623932855407091</v>
       </c>
       <c r="G33">
-        <v>-0.06876734922288189</v>
+        <v>-6.8767349222881885E-2</v>
       </c>
       <c r="H33">
-        <v>-0.5545067121803566</v>
+        <v>-0.55450671218035663</v>
       </c>
       <c r="I33">
-        <v>-1.044510948698581</v>
+        <v>-1.0445109486985811</v>
       </c>
       <c r="J33">
-        <v>-0.6050578501652358</v>
+        <v>-0.60505785016523583</v>
       </c>
       <c r="K33">
-        <v>0.4325407920489095</v>
+        <v>0.43254079204890949</v>
       </c>
       <c r="L33">
-        <v>-0.1971219500877794</v>
+        <v>-0.19712195008777941</v>
       </c>
       <c r="M33">
-        <v>-1.149351222573436</v>
+        <v>-1.1493512225734359</v>
       </c>
       <c r="N33">
-        <v>-0.7312798950630474</v>
+        <v>-0.73127989506304736</v>
       </c>
       <c r="O33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2420,19 +4170,19 @@
         <v>-1.567451034965601</v>
       </c>
       <c r="C34">
-        <v>-0.3817407483003782</v>
+        <v>-0.38174074830037819</v>
       </c>
       <c r="D34">
         <v>1.227650577451689</v>
       </c>
       <c r="E34">
-        <v>1.336319482334314</v>
+        <v>1.3363194823343141</v>
       </c>
       <c r="F34">
-        <v>1.263488710286694</v>
+        <v>1.2634887102866941</v>
       </c>
       <c r="G34">
-        <v>1.244186412214853</v>
+        <v>1.2441864122148529</v>
       </c>
       <c r="H34">
         <v>1.240301283447357</v>
@@ -2441,7 +4191,7 @@
         <v>1.672451699630281</v>
       </c>
       <c r="J34">
-        <v>1.526705636043784</v>
+        <v>1.5267056360437841</v>
       </c>
       <c r="K34">
         <v>1.138300950605647</v>
@@ -2450,63 +4200,63 @@
         <v>1.069162634394061</v>
       </c>
       <c r="M34">
-        <v>0.7137081680974016</v>
+        <v>0.71370816809740156</v>
       </c>
       <c r="N34">
-        <v>-0.01752501160292605</v>
+        <v>-1.7525011602926049E-2</v>
       </c>
       <c r="O34" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
       <c r="B35">
-        <v>0.6777479770900556</v>
+        <v>0.67774797709005563</v>
       </c>
       <c r="C35">
-        <v>0.6342177469900311</v>
+        <v>0.63421774699003108</v>
       </c>
       <c r="D35">
-        <v>-0.8576089025344455</v>
+        <v>-0.85760890253444555</v>
       </c>
       <c r="E35">
-        <v>-0.5794881435501781</v>
+        <v>-0.57948814355017808</v>
       </c>
       <c r="F35">
-        <v>0.7684557949055478</v>
+        <v>0.76845579490554783</v>
       </c>
       <c r="G35">
-        <v>-0.0545118226150748</v>
+        <v>-5.4511822615074798E-2</v>
       </c>
       <c r="H35">
-        <v>-1.363699979436893</v>
+        <v>-1.3636999794368929</v>
       </c>
       <c r="I35">
-        <v>-1.361857629337171</v>
+        <v>-1.3618576293371709</v>
       </c>
       <c r="J35">
-        <v>-0.2024609038712903</v>
+        <v>-0.20246090387129029</v>
       </c>
       <c r="K35">
-        <v>0.06546753909052108</v>
+        <v>6.5467539090521082E-2</v>
       </c>
       <c r="L35">
         <v>-1.018088056234173</v>
       </c>
       <c r="M35">
-        <v>-0.9111041721641769</v>
+        <v>-0.91110417216417694</v>
       </c>
       <c r="N35">
-        <v>0.7243076665493451</v>
+        <v>0.72430766654934509</v>
       </c>
       <c r="O35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2514,7 +4264,7 @@
         <v>0.4040403874172685</v>
       </c>
       <c r="C36">
-        <v>-0.3165112933075817</v>
+        <v>-0.31651129330758171</v>
       </c>
       <c r="D36">
         <v>-0.112118056816099</v>
@@ -2523,22 +4273,22 @@
         <v>-0.2280590897108295</v>
       </c>
       <c r="F36">
-        <v>-0.8752408547317491</v>
+        <v>-0.87524085473174906</v>
       </c>
       <c r="G36">
-        <v>-0.663429161245097</v>
+        <v>-0.66342916124509699</v>
       </c>
       <c r="H36">
         <v>-0.4488877418534436</v>
       </c>
       <c r="I36">
-        <v>-1.061323284869322</v>
+        <v>-1.0613232848693219</v>
       </c>
       <c r="J36">
-        <v>-0.8823263771867629</v>
+        <v>-0.88232637718676288</v>
       </c>
       <c r="K36">
-        <v>-0.05326264137787577</v>
+        <v>-5.3262641377875772E-2</v>
       </c>
       <c r="L36">
         <v>-0.3768602431068635</v>
@@ -2547,51 +4297,51 @@
         <v>-0.2836635138332475</v>
       </c>
       <c r="N36">
-        <v>0.8523802156453864</v>
+        <v>0.85238021564538635</v>
       </c>
       <c r="O36" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
       <c r="B37">
-        <v>1.871982821365696</v>
+        <v>1.8719828213656959</v>
       </c>
       <c r="C37">
-        <v>-0.697411223577079</v>
+        <v>-0.69741122357707896</v>
       </c>
       <c r="D37">
-        <v>-0.6223445439698785</v>
+        <v>-0.62234454396987848</v>
       </c>
       <c r="E37">
         <v>-1.25882617808398</v>
       </c>
       <c r="F37">
-        <v>-2.935336079419982</v>
+        <v>-2.9353360794199821</v>
       </c>
       <c r="G37">
-        <v>-1.581976590890516</v>
+        <v>-1.5819765908905159</v>
       </c>
       <c r="H37">
-        <v>0.5846992087658023</v>
+        <v>0.58469920876580228</v>
       </c>
       <c r="I37">
-        <v>0.3347497288961899</v>
+        <v>0.33474972889618992</v>
       </c>
       <c r="J37">
-        <v>-1.857845273431309</v>
+        <v>-1.8578452734313089</v>
       </c>
       <c r="K37">
-        <v>-2.496693260089997</v>
+        <v>-2.4966932600899971</v>
       </c>
       <c r="L37">
-        <v>-0.8892625906807591</v>
+        <v>-0.88926259068075908</v>
       </c>
       <c r="M37">
-        <v>-0.9432612550841017</v>
+        <v>-0.94326125508410175</v>
       </c>
       <c r="N37">
         <v>-1.496859124316718</v>
@@ -2600,92 +4350,92 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
       <c r="B38">
-        <v>-0.2795899080794917</v>
+        <v>-0.27958990807949169</v>
       </c>
       <c r="C38">
-        <v>0.4449417818441416</v>
+        <v>0.44494178184414163</v>
       </c>
       <c r="D38">
-        <v>-0.3205653388746711</v>
+        <v>-0.32056533887467109</v>
       </c>
       <c r="E38">
-        <v>-0.4647024981598057</v>
+        <v>-0.46470249815980569</v>
       </c>
       <c r="F38">
-        <v>0.5181961647128535</v>
+        <v>0.51819616471285346</v>
       </c>
       <c r="G38">
-        <v>0.04703941277486191</v>
+        <v>4.7039412774861913E-2</v>
       </c>
       <c r="H38">
-        <v>-1.118593037550839</v>
+        <v>-1.1185930375508391</v>
       </c>
       <c r="I38">
-        <v>-0.5917711767063777</v>
+        <v>-0.59177117670637769</v>
       </c>
       <c r="J38">
-        <v>0.4309902623869012</v>
+        <v>0.43099026238690119</v>
       </c>
       <c r="K38">
-        <v>-0.2022479911602731</v>
+        <v>-0.20224799116027309</v>
       </c>
       <c r="L38">
         <v>-0.9264224451246218</v>
       </c>
       <c r="M38">
-        <v>-0.8302301668962191</v>
+        <v>-0.83023016689621909</v>
       </c>
       <c r="N38">
-        <v>0.2300460806839986</v>
+        <v>0.23004608068399859</v>
       </c>
       <c r="O38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39">
-        <v>-0.5084074146243369</v>
+        <v>-0.50840741462433692</v>
       </c>
       <c r="C39">
         <v>0.1892132233539566</v>
       </c>
       <c r="D39">
-        <v>0.7670972243410621</v>
+        <v>0.76709722434106209</v>
       </c>
       <c r="E39">
-        <v>0.372455524087672</v>
+        <v>0.37245552408767202</v>
       </c>
       <c r="F39">
-        <v>0.5993977987563768</v>
+        <v>0.59939779875637678</v>
       </c>
       <c r="G39">
-        <v>0.09784920962090521</v>
+        <v>9.7849209620905209E-2</v>
       </c>
       <c r="H39">
-        <v>-0.8743457463886068</v>
+        <v>-0.87434574638860685</v>
       </c>
       <c r="I39">
-        <v>-0.2877442544477438</v>
+        <v>-0.28774425444774382</v>
       </c>
       <c r="J39">
-        <v>0.2792087809508607</v>
+        <v>0.27920878095086071</v>
       </c>
       <c r="K39">
-        <v>-0.9069582895201824</v>
+        <v>-0.90695828952018243</v>
       </c>
       <c r="L39">
-        <v>-1.069326966187364</v>
+        <v>-1.0693269661873639</v>
       </c>
       <c r="M39">
-        <v>-1.309452382230394</v>
+        <v>-1.3094523822303941</v>
       </c>
       <c r="N39">
         <v>-1.712709919573284</v>
@@ -2694,27 +4444,27 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
       <c r="B40">
-        <v>-0.2764125652172708</v>
+        <v>-0.27641256521727081</v>
       </c>
       <c r="C40">
         <v>-0.1088763595276062</v>
       </c>
       <c r="D40">
-        <v>-0.1289407379876653</v>
+        <v>-0.12894073798766531</v>
       </c>
       <c r="E40">
         <v>0.5021504986828027</v>
       </c>
       <c r="F40">
-        <v>0.8390761769193725</v>
+        <v>0.83907617691937253</v>
       </c>
       <c r="G40">
-        <v>-0.1979608900855764</v>
+        <v>-0.19796089008557641</v>
       </c>
       <c r="H40">
         <v>-0.1853843271281147</v>
@@ -2723,119 +4473,119 @@
         <v>0.2531543550381819</v>
       </c>
       <c r="J40">
-        <v>0.0798778229046469</v>
+        <v>7.98778229046469E-2</v>
       </c>
       <c r="K40">
-        <v>-0.4398562529715541</v>
+        <v>-0.43985625297155412</v>
       </c>
       <c r="L40">
-        <v>-0.2452641302310186</v>
+        <v>-0.24526413023101859</v>
       </c>
       <c r="M40">
-        <v>-0.08884987726800221</v>
+        <v>-8.8849877268002211E-2</v>
       </c>
       <c r="N40">
-        <v>-0.4187925956270747</v>
+        <v>-0.41879259562707472</v>
       </c>
       <c r="O40" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
       <c r="B41">
-        <v>0.05261998038481196</v>
+        <v>5.2619980384811957E-2</v>
       </c>
       <c r="C41">
         <v>-1.352961424767156</v>
       </c>
       <c r="D41">
-        <v>-0.1729369937651472</v>
+        <v>-0.17293699376514721</v>
       </c>
       <c r="E41">
         <v>0.7820506204874722</v>
       </c>
       <c r="F41">
-        <v>0.1580068548763404</v>
+        <v>0.15800685487634039</v>
       </c>
       <c r="G41">
-        <v>-0.8948445788989172</v>
+        <v>-0.89484457889891722</v>
       </c>
       <c r="H41">
         <v>0.1375674693129125</v>
       </c>
       <c r="I41">
-        <v>1.279979863831267</v>
+        <v>1.2799798638312669</v>
       </c>
       <c r="J41">
-        <v>1.891694536321645</v>
+        <v>1.8916945363216451</v>
       </c>
       <c r="K41">
-        <v>1.893828966720578</v>
+        <v>1.8938289667205781</v>
       </c>
       <c r="L41">
         <v>1.021287221641354</v>
       </c>
       <c r="M41">
-        <v>0.5608893324950487</v>
+        <v>0.56088933249504869</v>
       </c>
       <c r="N41">
-        <v>0.3154681104219429</v>
+        <v>0.31546811042194289</v>
       </c>
       <c r="O41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
       <c r="B42">
-        <v>1.892458659381402</v>
+        <v>1.8924586593814019</v>
       </c>
       <c r="C42">
-        <v>1.926969196198555</v>
+        <v>1.9269691961985549</v>
       </c>
       <c r="D42">
-        <v>-1.456902319669176</v>
+        <v>-1.4569023196691759</v>
       </c>
       <c r="E42">
-        <v>-2.332110045281293</v>
+        <v>-2.3321100452812931</v>
       </c>
       <c r="F42">
-        <v>-0.9245829393446895</v>
+        <v>-0.92458293934468949</v>
       </c>
       <c r="G42">
-        <v>0.02121656638311313</v>
+        <v>2.1216566383113131E-2</v>
       </c>
       <c r="H42">
-        <v>-1.580673926711856</v>
+        <v>-1.5806739267118559</v>
       </c>
       <c r="I42">
-        <v>-2.12985435769767</v>
+        <v>-2.1298543576976701</v>
       </c>
       <c r="J42">
         <v>-0.3684946762752081</v>
       </c>
       <c r="K42">
-        <v>-0.3555614082883715</v>
+        <v>-0.35556140828837152</v>
       </c>
       <c r="L42">
         <v>-1.25030726314092</v>
       </c>
       <c r="M42">
-        <v>0.2635345839392237</v>
+        <v>0.26353458393922369</v>
       </c>
       <c r="N42">
-        <v>2.132946280257557</v>
+        <v>2.1329462802575572</v>
       </c>
       <c r="O42" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2843,31 +4593,31 @@
         <v>1.009344600261862</v>
       </c>
       <c r="C43">
-        <v>0.9155533390948415</v>
+        <v>0.91555333909484149</v>
       </c>
       <c r="D43">
-        <v>-0.1384410879629362</v>
+        <v>-0.13844108796293619</v>
       </c>
       <c r="E43">
-        <v>-1.237732652648832</v>
+        <v>-1.2377326526488319</v>
       </c>
       <c r="F43">
-        <v>-0.4811363812304648</v>
+        <v>-0.48113638123046482</v>
       </c>
       <c r="G43">
-        <v>0.9446323681199936</v>
+        <v>0.94463236811999363</v>
       </c>
       <c r="H43">
-        <v>-0.1513440802073729</v>
+        <v>-0.15134408020737289</v>
       </c>
       <c r="I43">
-        <v>-0.7026236991809469</v>
+        <v>-0.70262369918094691</v>
       </c>
       <c r="J43">
-        <v>-0.502259147382446</v>
+        <v>-0.50225914738244604</v>
       </c>
       <c r="K43">
-        <v>-0.8602825829575875</v>
+        <v>-0.86028258295758753</v>
       </c>
       <c r="L43">
         <v>-1.38195787364395</v>
@@ -2876,60 +4626,60 @@
         <v>-1.940204552829248</v>
       </c>
       <c r="N43">
-        <v>-0.8467654645156245</v>
+        <v>-0.84676546451562451</v>
       </c>
       <c r="O43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
       <c r="B44">
-        <v>-0.6574710071108182</v>
+        <v>-0.65747100711081818</v>
       </c>
       <c r="C44">
         <v>-1.433232852424456</v>
       </c>
       <c r="D44">
-        <v>0.6596141573030992</v>
+        <v>0.65961415730309925</v>
       </c>
       <c r="E44">
-        <v>0.8326229188820666</v>
+        <v>0.83262291888206663</v>
       </c>
       <c r="F44">
-        <v>0.1971320128510939</v>
+        <v>0.19713201285109391</v>
       </c>
       <c r="G44">
-        <v>0.5388992979469319</v>
+        <v>0.53889929794693192</v>
       </c>
       <c r="H44">
-        <v>0.4513201079508896</v>
+        <v>0.45132010795088962</v>
       </c>
       <c r="I44">
-        <v>0.3775028933259886</v>
+        <v>0.37750289332598858</v>
       </c>
       <c r="J44">
         <v>0.3929642068245644</v>
       </c>
       <c r="K44">
-        <v>0.2742190028878078</v>
+        <v>0.27421900288780782</v>
       </c>
       <c r="L44">
-        <v>0.514701968858737</v>
+        <v>0.51470196885873698</v>
       </c>
       <c r="M44">
-        <v>0.6558595280391937</v>
+        <v>0.65585952803919367</v>
       </c>
       <c r="N44">
-        <v>-0.2695874815680371</v>
+        <v>-0.26958748156803708</v>
       </c>
       <c r="O44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2937,19 +4687,19 @@
         <v>-0.4450464764107967</v>
       </c>
       <c r="C45">
-        <v>-1.274731273550095</v>
+        <v>-1.2747312735500951</v>
       </c>
       <c r="D45">
-        <v>0.08948776520797731</v>
+        <v>8.9487765207977313E-2</v>
       </c>
       <c r="E45">
-        <v>0.1306789858621794</v>
+        <v>0.13067898586217941</v>
       </c>
       <c r="F45">
         <v>-1.211876810429932</v>
       </c>
       <c r="G45">
-        <v>-0.7555663633688137</v>
+        <v>-0.75556636336881366</v>
       </c>
       <c r="H45">
         <v>0.2603913662874946</v>
@@ -2958,16 +4708,16 @@
         <v>-0.1645740324105541</v>
       </c>
       <c r="J45">
-        <v>-0.6796807311276358</v>
+        <v>-0.67968073112763583</v>
       </c>
       <c r="K45">
-        <v>0.5387235894193474</v>
+        <v>0.53872358941934739</v>
       </c>
       <c r="L45">
-        <v>0.9620260200929815</v>
+        <v>0.96202602009298155</v>
       </c>
       <c r="M45">
-        <v>-0.1093313424813142</v>
+        <v>-0.10933134248131419</v>
       </c>
       <c r="N45">
         <v>-1.263828085049211</v>
@@ -2976,27 +4726,27 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
       <c r="B46">
-        <v>1.046268253548765</v>
+        <v>1.0462682535487651</v>
       </c>
       <c r="C46">
-        <v>0.3449430229957596</v>
+        <v>0.34494302299575957</v>
       </c>
       <c r="D46">
-        <v>-0.05321666100750647</v>
+        <v>-5.3216661007506473E-2</v>
       </c>
       <c r="E46">
-        <v>-1.0089530214957</v>
+        <v>-1.0089530214957001</v>
       </c>
       <c r="F46">
         <v>-1.54530027756449</v>
       </c>
       <c r="G46">
-        <v>0.7401879508649057</v>
+        <v>0.74018795086490574</v>
       </c>
       <c r="H46">
         <v>2.056932911899191</v>
@@ -3005,16 +4755,16 @@
         <v>1.515097083414729</v>
       </c>
       <c r="J46">
-        <v>-0.3511636893427653</v>
+        <v>-0.35116368934276532</v>
       </c>
       <c r="K46">
-        <v>-0.8720705973369396</v>
+        <v>-0.87207059733693959</v>
       </c>
       <c r="L46">
-        <v>0.3616530607510763</v>
+        <v>0.36165306075107628</v>
       </c>
       <c r="M46">
-        <v>1.303081035823436</v>
+        <v>1.3030810358234359</v>
       </c>
       <c r="N46">
         <v>1.663976864627329</v>
@@ -3023,86 +4773,86 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
       <c r="B47">
-        <v>-0.1739818795798317</v>
+        <v>-0.17398187957983169</v>
       </c>
       <c r="C47">
-        <v>0.3412711040756625</v>
+        <v>0.34127110407566252</v>
       </c>
       <c r="D47">
-        <v>-0.4094250149744293</v>
+        <v>-0.40942501497442929</v>
       </c>
       <c r="E47">
-        <v>-0.49035033235673</v>
+        <v>-0.49035033235672998</v>
       </c>
       <c r="F47">
-        <v>0.6352163507746951</v>
+        <v>0.63521635077469507</v>
       </c>
       <c r="G47">
-        <v>0.4063538774239653</v>
+        <v>0.40635387742396528</v>
       </c>
       <c r="H47">
-        <v>-0.8749225324048034</v>
+        <v>-0.87492253240480344</v>
       </c>
       <c r="I47">
-        <v>-0.4991162614153831</v>
+        <v>-0.49911626141538312</v>
       </c>
       <c r="J47">
-        <v>0.2375844220256831</v>
+        <v>0.23758442202568311</v>
       </c>
       <c r="K47">
-        <v>-0.5013924572396158</v>
+        <v>-0.50139245723961579</v>
       </c>
       <c r="L47">
         <v>-0.3781007415820215</v>
       </c>
       <c r="M47">
-        <v>0.6347323282885843</v>
+        <v>0.63473232828858428</v>
       </c>
       <c r="N47">
-        <v>0.9123312252910108</v>
+        <v>0.91233122529101085</v>
       </c>
       <c r="O47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
       <c r="B48">
-        <v>-0.3822386138754414</v>
+        <v>-0.38223861387544139</v>
       </c>
       <c r="C48">
-        <v>-0.6171873693664087</v>
+        <v>-0.61718736936640872</v>
       </c>
       <c r="D48">
         <v>1.25289679721997</v>
       </c>
       <c r="E48">
-        <v>1.323031055120755</v>
+        <v>1.3230310551207549</v>
       </c>
       <c r="F48">
         <v>1.256915037563606</v>
       </c>
       <c r="G48">
-        <v>1.280642292955093</v>
+        <v>1.2806422929550929</v>
       </c>
       <c r="H48">
-        <v>0.8476908443653381</v>
+        <v>0.84769084436533815</v>
       </c>
       <c r="I48">
-        <v>0.9576940117906437</v>
+        <v>0.95769401179064373</v>
       </c>
       <c r="J48">
-        <v>0.690691456351046</v>
+        <v>0.69069145635104601</v>
       </c>
       <c r="K48">
-        <v>0.3770940916051506</v>
+        <v>0.37709409160515062</v>
       </c>
       <c r="L48">
         <v>1.063437222075035</v>
@@ -3111,21 +4861,21 @@
         <v>1.326533024877584</v>
       </c>
       <c r="N48">
-        <v>-0.03886539284682042</v>
+        <v>-3.8865392846820418E-2</v>
       </c>
       <c r="O48" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
       <c r="B49">
-        <v>-0.5769159024086021</v>
+        <v>-0.57691590240860213</v>
       </c>
       <c r="C49">
-        <v>-0.5819097807915711</v>
+        <v>-0.58190978079157107</v>
       </c>
       <c r="D49">
         <v>0.1641728342768837</v>
@@ -3134,19 +4884,19 @@
         <v>1.016314908920539</v>
       </c>
       <c r="F49">
-        <v>0.9664519592064033</v>
+        <v>0.96645195920640325</v>
       </c>
       <c r="G49">
-        <v>-0.0282519476605522</v>
+        <v>-2.8251947660552199E-2</v>
       </c>
       <c r="H49">
-        <v>0.347821767360842</v>
+        <v>0.34782176736084203</v>
       </c>
       <c r="I49">
-        <v>0.7808707676487028</v>
+        <v>0.78087076764870278</v>
       </c>
       <c r="J49">
-        <v>0.3942337484439951</v>
+        <v>0.39423374844399511</v>
       </c>
       <c r="K49">
         <v>-0.1269979143174115</v>
@@ -3155,16 +4905,16 @@
         <v>0.3145111077764004</v>
       </c>
       <c r="M49">
-        <v>0.9206078924952776</v>
+        <v>0.92060789249527764</v>
       </c>
       <c r="N49">
-        <v>0.4366373159221061</v>
+        <v>0.43663731592210608</v>
       </c>
       <c r="O49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3172,22 +4922,22 @@
         <v>1.644318614708433</v>
       </c>
       <c r="C50">
-        <v>1.639313847288885</v>
+        <v>1.6393138472888851</v>
       </c>
       <c r="D50">
-        <v>-1.784966614222829</v>
+        <v>-1.7849666142228291</v>
       </c>
       <c r="E50">
-        <v>-2.045946186237457</v>
+        <v>-2.0459461862374568</v>
       </c>
       <c r="F50">
         <v>-1.139861965919535</v>
       </c>
       <c r="G50">
-        <v>-0.6637142087283338</v>
+        <v>-0.66371420872833375</v>
       </c>
       <c r="H50">
-        <v>-0.7733363256480038</v>
+        <v>-0.77333632564800381</v>
       </c>
       <c r="I50">
         <v>-1.192744458920221</v>
@@ -3196,107 +4946,107 @@
         <v>-1.133064653347684</v>
       </c>
       <c r="K50">
-        <v>-1.57803844648338</v>
+        <v>-1.5780384464833801</v>
       </c>
       <c r="L50">
-        <v>-1.263469192835848</v>
+        <v>-1.2634691928358479</v>
       </c>
       <c r="M50">
-        <v>0.1626761509465729</v>
+        <v>0.16267615094657289</v>
       </c>
       <c r="N50">
-        <v>0.7747065145906099</v>
+        <v>0.77470651459060991</v>
       </c>
       <c r="O50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
       <c r="B51">
-        <v>1.530616755017438</v>
+        <v>1.5306167550174381</v>
       </c>
       <c r="C51">
-        <v>3.805945067463009</v>
+        <v>3.8059450674630089</v>
       </c>
       <c r="D51">
-        <v>-2.577884596346985</v>
+        <v>-2.5778845963469852</v>
       </c>
       <c r="E51">
-        <v>-2.685602164735278</v>
+        <v>-2.6856021647352781</v>
       </c>
       <c r="F51">
-        <v>0.5077888851181716</v>
+        <v>0.50778888511817155</v>
       </c>
       <c r="G51">
-        <v>-0.3992432381116044</v>
+        <v>-0.39924323811160439</v>
       </c>
       <c r="H51">
         <v>-1.369734514283665</v>
       </c>
       <c r="I51">
-        <v>-1.336727037619328</v>
+        <v>-1.3367270376193281</v>
       </c>
       <c r="J51">
         <v>-1.119177061269226</v>
       </c>
       <c r="K51">
-        <v>-0.7555022870977506</v>
+        <v>-0.75550228709775058</v>
       </c>
       <c r="L51">
-        <v>-1.064263203237067</v>
+        <v>-1.0642632032370669</v>
       </c>
       <c r="M51">
         <v>-0.4053337348701887</v>
       </c>
       <c r="N51">
-        <v>1.189714114924251</v>
+        <v>1.1897141149242509</v>
       </c>
       <c r="O51" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
       <c r="B52">
-        <v>-0.5084074146243369</v>
+        <v>-0.50840741462433692</v>
       </c>
       <c r="C52">
         <v>0.1892132233539566</v>
       </c>
       <c r="D52">
-        <v>0.7670972243410621</v>
+        <v>0.76709722434106209</v>
       </c>
       <c r="E52">
-        <v>0.372455524087672</v>
+        <v>0.37245552408767202</v>
       </c>
       <c r="F52">
-        <v>0.5993977987563768</v>
+        <v>0.59939779875637678</v>
       </c>
       <c r="G52">
-        <v>0.09784920962090521</v>
+        <v>9.7849209620905209E-2</v>
       </c>
       <c r="H52">
-        <v>-0.8743457463886068</v>
+        <v>-0.87434574638860685</v>
       </c>
       <c r="I52">
-        <v>-0.2877442544477438</v>
+        <v>-0.28774425444774382</v>
       </c>
       <c r="J52">
-        <v>0.2792087809508607</v>
+        <v>0.27920878095086071</v>
       </c>
       <c r="K52">
-        <v>-0.9069582895201824</v>
+        <v>-0.90695828952018243</v>
       </c>
       <c r="L52">
-        <v>-1.069326966187364</v>
+        <v>-1.0693269661873639</v>
       </c>
       <c r="M52">
-        <v>-1.309452382230394</v>
+        <v>-1.3094523822303941</v>
       </c>
       <c r="N52">
         <v>-1.712709919573284</v>
@@ -3305,54 +5055,54 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
       <c r="B53">
-        <v>-0.01840443327772619</v>
+        <v>-1.8404433277726191E-2</v>
       </c>
       <c r="C53">
-        <v>0.354858956785951</v>
+        <v>0.35485895678595097</v>
       </c>
       <c r="D53">
-        <v>-0.1924256141529274</v>
+        <v>-0.19242561415292739</v>
       </c>
       <c r="E53">
-        <v>-0.3846126720509989</v>
+        <v>-0.38461267205099892</v>
       </c>
       <c r="F53">
-        <v>0.400572158738572</v>
+        <v>0.40057215873857199</v>
       </c>
       <c r="G53">
-        <v>0.03305350325684506</v>
+        <v>3.3053503256845057E-2</v>
       </c>
       <c r="H53">
-        <v>-1.128890945073242</v>
+        <v>-1.1288909450732421</v>
       </c>
       <c r="I53">
-        <v>-0.8954660489844072</v>
+        <v>-0.89546604898440718</v>
       </c>
       <c r="J53">
         <v>0.1193398360844987</v>
       </c>
       <c r="K53">
-        <v>0.21511962286828</v>
+        <v>0.21511962286828001</v>
       </c>
       <c r="L53">
-        <v>-0.2944538089652974</v>
+        <v>-0.29445380896529738</v>
       </c>
       <c r="M53">
-        <v>-0.5873822061339773</v>
+        <v>-0.58738220613397729</v>
       </c>
       <c r="N53">
-        <v>-0.6202587259358945</v>
+        <v>-0.62025872593589448</v>
       </c>
       <c r="O53" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3360,46 +5110,46 @@
         <v>-0.9889385569985979</v>
       </c>
       <c r="C54">
-        <v>-0.5373084226437986</v>
+        <v>-0.53730842264379863</v>
       </c>
       <c r="D54">
-        <v>0.7923944476904602</v>
+        <v>0.79239444769046019</v>
       </c>
       <c r="E54">
-        <v>0.7794096714731295</v>
+        <v>0.77940967147312945</v>
       </c>
       <c r="F54">
-        <v>0.4109619281206388</v>
+        <v>0.41096192812063881</v>
       </c>
       <c r="G54">
-        <v>0.3485237493144118</v>
+        <v>0.34852374931441182</v>
       </c>
       <c r="H54">
-        <v>0.3865584371610684</v>
+        <v>0.38655843716106841</v>
       </c>
       <c r="I54">
-        <v>0.7350348275634709</v>
+        <v>0.73503482756347094</v>
       </c>
       <c r="J54">
-        <v>0.8089832229980702</v>
+        <v>0.80898322299807024</v>
       </c>
       <c r="K54">
-        <v>0.7708270672199573</v>
+        <v>0.77082706721995731</v>
       </c>
       <c r="L54">
         <v>1.174409596163563</v>
       </c>
       <c r="M54">
-        <v>1.407905931524743</v>
+        <v>1.4079059315247431</v>
       </c>
       <c r="N54">
-        <v>-0.05471171963188077</v>
+        <v>-5.4711719631880769E-2</v>
       </c>
       <c r="O54" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3407,19 +5157,19 @@
         <v>-1.222717025309799</v>
       </c>
       <c r="C55">
-        <v>-0.6858809224334972</v>
+        <v>-0.68588092243349719</v>
       </c>
       <c r="D55">
-        <v>0.6669230119434089</v>
+        <v>0.66692301194340886</v>
       </c>
       <c r="E55">
         <v>1.060517675846222</v>
       </c>
       <c r="F55">
-        <v>-0.5034671271363564</v>
+        <v>-0.50346712713635644</v>
       </c>
       <c r="G55">
-        <v>-0.2823047480095781</v>
+        <v>-0.28230474800957811</v>
       </c>
       <c r="H55">
         <v>1.775288971483947</v>
@@ -3431,7 +5181,7 @@
         <v>-0.1580988247393251</v>
       </c>
       <c r="K55">
-        <v>0.765317562968611</v>
+        <v>0.76531756296861098</v>
       </c>
       <c r="L55">
         <v>1.868272783304209</v>
@@ -3440,60 +5190,60 @@
         <v>2.120895232704092</v>
       </c>
       <c r="N55">
-        <v>0.9349887230500118</v>
+        <v>0.93498872305001179</v>
       </c>
       <c r="O55" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
       <c r="B56">
-        <v>-0.5147988828908587</v>
+        <v>-0.51479888289085873</v>
       </c>
       <c r="C56">
-        <v>0.7617771805968525</v>
+        <v>0.76177718059685251</v>
       </c>
       <c r="D56">
-        <v>1.223423500167942</v>
+        <v>1.2234235001679421</v>
       </c>
       <c r="E56">
-        <v>1.017383321252555</v>
+        <v>1.0173833212525549</v>
       </c>
       <c r="F56">
-        <v>0.4266654821858517</v>
+        <v>0.42666548218585171</v>
       </c>
       <c r="G56">
-        <v>-0.2952218124245619</v>
+        <v>-0.29522181242456191</v>
       </c>
       <c r="H56">
-        <v>0.1530690870964569</v>
+        <v>0.15306908709645689</v>
       </c>
       <c r="I56">
-        <v>0.690616801425364</v>
+        <v>0.69061680142536397</v>
       </c>
       <c r="J56">
         <v>1.05202635259224</v>
       </c>
       <c r="K56">
-        <v>0.441933087608937</v>
+        <v>0.44193308760893701</v>
       </c>
       <c r="L56">
-        <v>-0.4308104852854941</v>
+        <v>-0.43081048528549409</v>
       </c>
       <c r="M56">
-        <v>-0.6758360331033743</v>
+        <v>-0.67583603310337426</v>
       </c>
       <c r="N56">
-        <v>0.08479997640625091</v>
+        <v>8.4799976406250907E-2</v>
       </c>
       <c r="O56" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3504,16 +5254,16 @@
         <v>-0.9028821915018278</v>
       </c>
       <c r="D57">
-        <v>0.8850168127767931</v>
+        <v>0.88501681277679312</v>
       </c>
       <c r="E57">
-        <v>1.33316425147345</v>
+        <v>1.3331642514734501</v>
       </c>
       <c r="F57">
-        <v>0.4971316613595479</v>
+        <v>0.49713166135954789</v>
       </c>
       <c r="G57">
-        <v>-0.06939485188970443</v>
+        <v>-6.9394851889704429E-2</v>
       </c>
       <c r="H57">
         <v>0.881489409126338</v>
@@ -3522,7 +5272,7 @@
         <v>1.417484117143812</v>
       </c>
       <c r="J57">
-        <v>0.789693661398808</v>
+        <v>0.78969366139880803</v>
       </c>
       <c r="K57">
         <v>0.7127228712761019</v>
@@ -3534,27 +5284,27 @@
         <v>1.469033569315161</v>
       </c>
       <c r="N57">
-        <v>0.4752885722541024</v>
+        <v>0.47528857225410243</v>
       </c>
       <c r="O57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
       <c r="B58">
-        <v>-1.213235823508556</v>
+        <v>-1.2132358235085561</v>
       </c>
       <c r="C58">
         <v>-1.364790937851373</v>
       </c>
       <c r="D58">
-        <v>0.1994500347735677</v>
+        <v>0.19945003477356771</v>
       </c>
       <c r="E58">
-        <v>1.05914321033997</v>
+        <v>1.0591432103399701</v>
       </c>
       <c r="F58">
         <v>-0.2468175402416421</v>
@@ -3563,48 +5313,48 @@
         <v>-1.315154061496189</v>
       </c>
       <c r="H58">
-        <v>0.2621170516059217</v>
+        <v>0.26211705160592169</v>
       </c>
       <c r="I58">
-        <v>1.177645633958088</v>
+        <v>1.1776456339580881</v>
       </c>
       <c r="J58">
         <v>1.078463038713497</v>
       </c>
       <c r="K58">
-        <v>1.262926711677277</v>
+        <v>1.2629267116772771</v>
       </c>
       <c r="L58">
-        <v>1.378967041987646</v>
+        <v>1.3789670419876461</v>
       </c>
       <c r="M58">
         <v>1.140077384331897</v>
       </c>
       <c r="N58">
-        <v>-0.05360213260139707</v>
+        <v>-5.3602132601397068E-2</v>
       </c>
       <c r="O58" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
       <c r="B59">
-        <v>2.418964635488218</v>
+        <v>2.4189646354882179</v>
       </c>
       <c r="C59">
-        <v>-0.8127880990483795</v>
+        <v>-0.81278809904837945</v>
       </c>
       <c r="D59">
-        <v>-3.065388849892312</v>
+        <v>-3.0653888498923121</v>
       </c>
       <c r="E59">
-        <v>-1.732387091110405</v>
+        <v>-1.7323870911104049</v>
       </c>
       <c r="F59">
-        <v>-2.456880363475738</v>
+        <v>-2.4568803634757379</v>
       </c>
       <c r="G59">
         <v>-3.734516310752928</v>
@@ -3613,16 +5363,16 @@
         <v>-1.204761340788427</v>
       </c>
       <c r="I59">
-        <v>-1.190759076744523</v>
+        <v>-1.1907590767445231</v>
       </c>
       <c r="J59">
-        <v>-2.42158406993867</v>
+        <v>-2.4215840699386701</v>
       </c>
       <c r="K59">
-        <v>-0.9898799375202966</v>
+        <v>-0.98987993752029657</v>
       </c>
       <c r="L59">
-        <v>-0.5078815716164238</v>
+        <v>-0.50788157161642378</v>
       </c>
       <c r="M59">
         <v>-1.590212705832861</v>
@@ -3634,7 +5384,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3645,43 +5395,43 @@
         <v>0.116184226979566</v>
       </c>
       <c r="D60">
-        <v>-0.9445798673889175</v>
+        <v>-0.94457986738891753</v>
       </c>
       <c r="E60">
-        <v>-0.8444303364374585</v>
+        <v>-0.84443033643745846</v>
       </c>
       <c r="F60">
-        <v>-0.1551464935909332</v>
+        <v>-0.15514649359093319</v>
       </c>
       <c r="G60">
-        <v>-0.5232496780031531</v>
+        <v>-0.52324967800315314</v>
       </c>
       <c r="H60">
         <v>-1.597976454188144</v>
       </c>
       <c r="I60">
-        <v>-2.156181424649443</v>
+        <v>-2.1561814246494428</v>
       </c>
       <c r="J60">
         <v>-1.252253915635442</v>
       </c>
       <c r="K60">
-        <v>-0.06367077206652901</v>
+        <v>-6.3670772066529005E-2</v>
       </c>
       <c r="L60">
-        <v>-0.5738628424529234</v>
+        <v>-0.57386284245292341</v>
       </c>
       <c r="M60">
-        <v>-0.8814161229689672</v>
+        <v>-0.88141612296896721</v>
       </c>
       <c r="N60">
-        <v>0.07297775290523557</v>
+        <v>7.2977752905235574E-2</v>
       </c>
       <c r="O60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -3692,48 +5442,48 @@
         <v>0.116184226979566</v>
       </c>
       <c r="D61">
-        <v>-0.9445798673889175</v>
+        <v>-0.94457986738891753</v>
       </c>
       <c r="E61">
-        <v>-0.8444303364374585</v>
+        <v>-0.84443033643745846</v>
       </c>
       <c r="F61">
-        <v>-0.1551464935909332</v>
+        <v>-0.15514649359093319</v>
       </c>
       <c r="G61">
-        <v>-0.5232496780031531</v>
+        <v>-0.52324967800315314</v>
       </c>
       <c r="H61">
         <v>-1.597976454188144</v>
       </c>
       <c r="I61">
-        <v>-2.156181424649443</v>
+        <v>-2.1561814246494428</v>
       </c>
       <c r="J61">
         <v>-1.252253915635442</v>
       </c>
       <c r="K61">
-        <v>-0.06367077206652901</v>
+        <v>-6.3670772066529005E-2</v>
       </c>
       <c r="L61">
-        <v>-0.5738628424529234</v>
+        <v>-0.57386284245292341</v>
       </c>
       <c r="M61">
-        <v>-0.8814161229689672</v>
+        <v>-0.88141612296896721</v>
       </c>
       <c r="N61">
-        <v>0.07297775290523557</v>
+        <v>7.2977752905235574E-2</v>
       </c>
       <c r="O61" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
       <c r="B62">
-        <v>-1.133058575829525</v>
+        <v>-1.1330585758295251</v>
       </c>
       <c r="C62">
         <v>0.114810856691343</v>
@@ -3742,66 +5492,66 @@
         <v>1.246362257109239</v>
       </c>
       <c r="E62">
-        <v>0.4854620449497435</v>
+        <v>0.48546204494974349</v>
       </c>
       <c r="F62">
-        <v>-0.5464979097926524</v>
+        <v>-0.54649790979265245</v>
       </c>
       <c r="G62">
-        <v>0.7578353434213785</v>
+        <v>0.75783534342137848</v>
       </c>
       <c r="H62">
-        <v>1.387795221290418</v>
+        <v>1.3877952212904181</v>
       </c>
       <c r="I62">
-        <v>0.7818739073579027</v>
+        <v>0.78187390735790274</v>
       </c>
       <c r="J62">
-        <v>0.2811457569455882</v>
+        <v>0.28114575694558819</v>
       </c>
       <c r="K62">
-        <v>0.7009960233488353</v>
+        <v>0.70099602334883526</v>
       </c>
       <c r="L62">
-        <v>0.8501193579538658</v>
+        <v>0.85011935795386584</v>
       </c>
       <c r="M62">
-        <v>0.7857950683139605</v>
+        <v>0.78579506831396051</v>
       </c>
       <c r="N62">
-        <v>0.3578862415344864</v>
+        <v>0.35788624153448639</v>
       </c>
       <c r="O62" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
       <c r="B63">
-        <v>-1.68942796346436</v>
+        <v>-1.6894279634643601</v>
       </c>
       <c r="C63">
-        <v>1.13419714400468</v>
+        <v>1.1341971440046801</v>
       </c>
       <c r="D63">
-        <v>0.5594563932148044</v>
+        <v>0.55945639321480445</v>
       </c>
       <c r="E63">
-        <v>0.8125060757747073</v>
+        <v>0.81250607577470735</v>
       </c>
       <c r="F63">
-        <v>1.030392759953095</v>
+        <v>1.0303927599530951</v>
       </c>
       <c r="G63">
         <v>1.26833083000333</v>
       </c>
       <c r="H63">
-        <v>1.878834631693533</v>
+        <v>1.8788346316935329</v>
       </c>
       <c r="I63">
-        <v>1.368570157327348</v>
+        <v>1.3685701573273481</v>
       </c>
       <c r="J63">
         <v>0.5815216764160529</v>
@@ -3810,30 +5560,30 @@
         <v>1.168885553383433</v>
       </c>
       <c r="L63">
-        <v>1.32420309904952</v>
+        <v>1.3242030990495199</v>
       </c>
       <c r="M63">
         <v>1.374216523447197</v>
       </c>
       <c r="N63">
-        <v>1.856673690019739</v>
+        <v>1.8566736900197389</v>
       </c>
       <c r="O63" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
       <c r="B64">
-        <v>0.7106335760300655</v>
+        <v>0.71063357603006549</v>
       </c>
       <c r="C64">
-        <v>0.7245785011311636</v>
+        <v>0.72457850113116362</v>
       </c>
       <c r="D64">
-        <v>-1.170839076779271</v>
+        <v>-1.1708390767792709</v>
       </c>
       <c r="E64">
         <v>-0.3943666812567525</v>
@@ -3842,57 +5592,57 @@
         <v>0.9851048544061396</v>
       </c>
       <c r="G64">
-        <v>-1.631543494432179</v>
+        <v>-1.6315434944321789</v>
       </c>
       <c r="H64">
         <v>-1.819462021155293</v>
       </c>
       <c r="I64">
-        <v>0.409118259751851</v>
+        <v>0.40911825975185101</v>
       </c>
       <c r="J64">
         <v>1.412292557160628</v>
       </c>
       <c r="K64">
-        <v>0.6847532818323365</v>
+        <v>0.68475328183233652</v>
       </c>
       <c r="L64">
-        <v>0.668121219957768</v>
+        <v>0.66812121995776796</v>
       </c>
       <c r="M64">
-        <v>0.6906101111549414</v>
+        <v>0.69061011115494142</v>
       </c>
       <c r="N64">
-        <v>-0.5736836030979218</v>
+        <v>-0.57368360309792177</v>
       </c>
       <c r="O64" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65">
-        <v>-0.5428552684425089</v>
+        <v>-0.54285526844250886</v>
       </c>
       <c r="C65">
-        <v>0.1288631764726794</v>
+        <v>0.12886317647267939</v>
       </c>
       <c r="D65">
-        <v>1.855278945959706</v>
+        <v>1.8552789459597061</v>
       </c>
       <c r="E65">
-        <v>0.8757210190277263</v>
+        <v>0.87572101902772626</v>
       </c>
       <c r="F65">
-        <v>-0.1342449481840619</v>
+        <v>-0.13424494818406191</v>
       </c>
       <c r="G65">
-        <v>0.5342506015643211</v>
+        <v>0.53425060156432114</v>
       </c>
       <c r="H65">
-        <v>0.4494002739848379</v>
+        <v>0.44940027398483789</v>
       </c>
       <c r="I65">
         <v>0.1386652799765507</v>
@@ -3901,10 +5651,10 @@
         <v>-0.2199214828362841</v>
       </c>
       <c r="K65">
-        <v>-0.6826536326983557</v>
+        <v>-0.68265363269835566</v>
       </c>
       <c r="L65">
-        <v>-0.5617848434644445</v>
+        <v>-0.56178484346444446</v>
       </c>
       <c r="M65">
         <v>-1.270951444164063</v>
@@ -3916,62 +5666,62 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
       <c r="B66">
-        <v>-0.6197856208161127</v>
+        <v>-0.61978562081611266</v>
       </c>
       <c r="C66">
-        <v>0.2425393012269837</v>
+        <v>0.24253930122698369</v>
       </c>
       <c r="D66">
-        <v>2.048720739477979</v>
+        <v>2.0487207394779792</v>
       </c>
       <c r="E66">
         <v>1.15570833903062</v>
       </c>
       <c r="F66">
-        <v>0.03971604870875959</v>
+        <v>3.971604870875959E-2</v>
       </c>
       <c r="G66">
-        <v>0.7910883390531167</v>
+        <v>0.79108833905311671</v>
       </c>
       <c r="H66">
         <v>1.102226356184187</v>
       </c>
       <c r="I66">
-        <v>0.4261745892460133</v>
+        <v>0.42617458924601331</v>
       </c>
       <c r="J66">
         <v>-1.282150372653049</v>
       </c>
       <c r="K66">
-        <v>-2.118039880018661</v>
+        <v>-2.1180398800186611</v>
       </c>
       <c r="L66">
-        <v>-0.3915863450295706</v>
+        <v>-0.39158634502957063</v>
       </c>
       <c r="M66">
-        <v>0.3642863609707752</v>
+        <v>0.36428636097077521</v>
       </c>
       <c r="N66">
-        <v>-0.6792329213487612</v>
+        <v>-0.67923292134876123</v>
       </c>
       <c r="O66" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
       <c r="B67">
-        <v>0.8542827783223685</v>
+        <v>0.85428277832236854</v>
       </c>
       <c r="C67">
-        <v>0.7482030991474315</v>
+        <v>0.74820309914743155</v>
       </c>
       <c r="D67">
         <v>-1.413227047811064</v>
@@ -3983,25 +5733,25 @@
         <v>1.226832209867899</v>
       </c>
       <c r="G67">
-        <v>-0.9567056898985961</v>
+        <v>-0.95670568989859606</v>
       </c>
       <c r="H67">
-        <v>-1.160557445071097</v>
+        <v>-1.1605574450710969</v>
       </c>
       <c r="I67">
-        <v>0.2267873671468987</v>
+        <v>0.22678736714689871</v>
       </c>
       <c r="J67">
-        <v>1.235525926590879</v>
+        <v>1.2355259265908789</v>
       </c>
       <c r="K67">
-        <v>0.3196869178676559</v>
+        <v>0.31968691786765591</v>
       </c>
       <c r="L67">
-        <v>-0.3668176251116052</v>
+        <v>-0.36681762511160521</v>
       </c>
       <c r="M67">
-        <v>0.2509417249671554</v>
+        <v>0.25094172496715539</v>
       </c>
       <c r="N67">
         <v>0.1774985272017913</v>
@@ -4010,27 +5760,27 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
       <c r="B68">
-        <v>-0.2764125652172708</v>
+        <v>-0.27641256521727081</v>
       </c>
       <c r="C68">
         <v>-0.1088763595276062</v>
       </c>
       <c r="D68">
-        <v>-0.1289407379876653</v>
+        <v>-0.12894073798766531</v>
       </c>
       <c r="E68">
         <v>0.5021504986828027</v>
       </c>
       <c r="F68">
-        <v>0.8390761769193725</v>
+        <v>0.83907617691937253</v>
       </c>
       <c r="G68">
-        <v>-0.1979608900855764</v>
+        <v>-0.19796089008557641</v>
       </c>
       <c r="H68">
         <v>-0.1853843271281147</v>
@@ -4039,25 +5789,25 @@
         <v>0.2531543550381819</v>
       </c>
       <c r="J68">
-        <v>0.0798778229046469</v>
+        <v>7.98778229046469E-2</v>
       </c>
       <c r="K68">
-        <v>-0.4398562529715541</v>
+        <v>-0.43985625297155412</v>
       </c>
       <c r="L68">
-        <v>-0.2452641302310186</v>
+        <v>-0.24526413023101859</v>
       </c>
       <c r="M68">
-        <v>-0.08884987726800221</v>
+        <v>-8.8849877268002211E-2</v>
       </c>
       <c r="N68">
-        <v>-0.4187925956270747</v>
+        <v>-0.41879259562707472</v>
       </c>
       <c r="O68" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4065,22 +5815,22 @@
         <v>1.665725051038762</v>
       </c>
       <c r="C69">
-        <v>-1.758314732570515</v>
+        <v>-1.7583147325705151</v>
       </c>
       <c r="D69">
-        <v>-0.2358455571080111</v>
+        <v>-0.23584555710801111</v>
       </c>
       <c r="E69">
         <v>-1.279605602482512</v>
       </c>
       <c r="F69">
-        <v>-3.152461162523203</v>
+        <v>-3.1524611625232031</v>
       </c>
       <c r="G69">
-        <v>-0.01592853859773416</v>
+        <v>-1.592853859773416E-2</v>
       </c>
       <c r="H69">
-        <v>1.205070099106191</v>
+        <v>1.2050700991061909</v>
       </c>
       <c r="I69">
         <v>-0.1014397151130934</v>
@@ -4089,13 +5839,13 @@
         <v>-1.834508439350969</v>
       </c>
       <c r="K69">
-        <v>-1.90040216979706</v>
+        <v>-1.9004021697970599</v>
       </c>
       <c r="L69">
-        <v>-0.3930342957982708</v>
+        <v>-0.39303429579827082</v>
       </c>
       <c r="M69">
-        <v>-0.3937604240466496</v>
+        <v>-0.39376042404664963</v>
       </c>
       <c r="N69">
         <v>-1.747850197413281</v>
@@ -4104,7 +5854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4112,54 +5862,54 @@
         <v>-0.3111413039022356</v>
       </c>
       <c r="C70">
-        <v>0.4096034745282136</v>
+        <v>0.40960347452821361</v>
       </c>
       <c r="D70">
-        <v>-0.6467230117537447</v>
+        <v>-0.64672301175374469</v>
       </c>
       <c r="E70">
-        <v>-0.0003414638536416746</v>
+        <v>-3.4146385364167462E-4</v>
       </c>
       <c r="F70">
-        <v>0.8872213537732275</v>
+        <v>0.88722135377322753</v>
       </c>
       <c r="G70">
-        <v>-0.09249946026174041</v>
+        <v>-9.2499460261740413E-2</v>
       </c>
       <c r="H70">
         <v>-0.1951903475344684</v>
       </c>
       <c r="I70">
-        <v>-0.09424241648836094</v>
+        <v>-9.4242416488360944E-2</v>
       </c>
       <c r="J70">
-        <v>-0.5427490449079148</v>
+        <v>-0.54274904490791476</v>
       </c>
       <c r="K70">
-        <v>-0.7179531658805084</v>
+        <v>-0.71795316588050839</v>
       </c>
       <c r="L70">
-        <v>-0.4528434845371246</v>
+        <v>-0.45284348453712459</v>
       </c>
       <c r="M70">
-        <v>0.07220828665350119</v>
+        <v>7.2208286653501194E-2</v>
       </c>
       <c r="N70">
-        <v>0.8641695223353151</v>
+        <v>0.86416952233531508</v>
       </c>
       <c r="O70" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
       <c r="B71">
-        <v>0.261805641061315</v>
+        <v>0.26180564106131499</v>
       </c>
       <c r="C71">
-        <v>0.3700937271025833</v>
+        <v>0.37009372710258331</v>
       </c>
       <c r="D71">
         <v>0.2320800250113311</v>
@@ -4168,16 +5918,16 @@
         <v>-0.3710860124840451</v>
       </c>
       <c r="F71">
-        <v>0.186761165795563</v>
+        <v>0.18676116579556301</v>
       </c>
       <c r="G71">
-        <v>0.7506006458317083</v>
+        <v>0.75060064583170827</v>
       </c>
       <c r="H71">
-        <v>-0.4955182982267757</v>
+        <v>-0.49551829822677568</v>
       </c>
       <c r="I71">
-        <v>-1.043487127925051</v>
+        <v>-1.0434871279250511</v>
       </c>
       <c r="J71">
         <v>-0.8999661189071414</v>
@@ -4186,10 +5936,10 @@
         <v>-1.059349686303076</v>
       </c>
       <c r="L71">
-        <v>-0.9888993077687974</v>
+        <v>-0.98889930776879742</v>
       </c>
       <c r="M71">
-        <v>-0.8924333731021131</v>
+        <v>-0.89243337310211313</v>
       </c>
       <c r="N71">
         <v>0.1786404574508125</v>
@@ -4198,7 +5948,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4206,31 +5956,31 @@
         <v>1.009344600261862</v>
       </c>
       <c r="C72">
-        <v>0.9155533390948415</v>
+        <v>0.91555333909484149</v>
       </c>
       <c r="D72">
-        <v>-0.1384410879629362</v>
+        <v>-0.13844108796293619</v>
       </c>
       <c r="E72">
-        <v>-1.237732652648832</v>
+        <v>-1.2377326526488319</v>
       </c>
       <c r="F72">
-        <v>-0.4811363812304648</v>
+        <v>-0.48113638123046482</v>
       </c>
       <c r="G72">
-        <v>0.9446323681199936</v>
+        <v>0.94463236811999363</v>
       </c>
       <c r="H72">
-        <v>-0.1513440802073729</v>
+        <v>-0.15134408020737289</v>
       </c>
       <c r="I72">
-        <v>-0.7026236991809469</v>
+        <v>-0.70262369918094691</v>
       </c>
       <c r="J72">
-        <v>-0.502259147382446</v>
+        <v>-0.50225914738244604</v>
       </c>
       <c r="K72">
-        <v>-0.8602825829575875</v>
+        <v>-0.86028258295758753</v>
       </c>
       <c r="L72">
         <v>-1.38195787364395</v>
@@ -4239,13 +5989,13 @@
         <v>-1.940204552829248</v>
       </c>
       <c r="N72">
-        <v>-0.8467654645156245</v>
+        <v>-0.84676546451562451</v>
       </c>
       <c r="O72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4253,7 +6003,7 @@
         <v>1.034061799766139</v>
       </c>
       <c r="C73">
-        <v>0.5394451816404389</v>
+        <v>0.53944518164043886</v>
       </c>
       <c r="D73">
         <v>-1.206460033119414</v>
@@ -4262,16 +6012,16 @@
         <v>-1.29675833192691</v>
       </c>
       <c r="F73">
-        <v>0.1953456887415589</v>
+        <v>0.19534568874155889</v>
       </c>
       <c r="G73">
         <v>1.069463919265405</v>
       </c>
       <c r="H73">
-        <v>-0.2744190541618489</v>
+        <v>-0.27441905416184892</v>
       </c>
       <c r="I73">
-        <v>-1.134782425370117</v>
+        <v>-1.1347824253701171</v>
       </c>
       <c r="J73">
         <v>-1.396328743015502</v>
@@ -4280,66 +6030,66 @@
         <v>-1.961078110202078</v>
       </c>
       <c r="L73">
-        <v>-1.548407778385685</v>
+        <v>-1.5484077783856851</v>
       </c>
       <c r="M73">
-        <v>-0.4040346031343106</v>
+        <v>-0.40403460313431061</v>
       </c>
       <c r="N73">
-        <v>0.9858969212742933</v>
+        <v>0.98589692127429329</v>
       </c>
       <c r="O73" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
       <c r="B74">
-        <v>0.903796092603022</v>
+        <v>0.90379609260302196</v>
       </c>
       <c r="C74">
-        <v>0.5396780411423601</v>
+        <v>0.53967804114236007</v>
       </c>
       <c r="D74">
-        <v>-0.7287282350368255</v>
+        <v>-0.72872823503682549</v>
       </c>
       <c r="E74">
         <v>-0.8332380257685077</v>
       </c>
       <c r="F74">
-        <v>-0.3530487523160692</v>
+        <v>-0.35304875231606919</v>
       </c>
       <c r="G74">
-        <v>-0.3814398824385765</v>
+        <v>-0.38143988243857652</v>
       </c>
       <c r="H74">
-        <v>-0.7847597688218212</v>
+        <v>-0.78475976882182119</v>
       </c>
       <c r="I74">
-        <v>-1.426364102826185</v>
+        <v>-1.4263641028261851</v>
       </c>
       <c r="J74">
         <v>-1.26954772452576</v>
       </c>
       <c r="K74">
-        <v>-0.2975044147512674</v>
+        <v>-0.29750441475126738</v>
       </c>
       <c r="L74">
-        <v>-0.8855332668668457</v>
+        <v>-0.88553326686684575</v>
       </c>
       <c r="M74">
-        <v>-1.586079424917087</v>
+        <v>-1.5860794249170871</v>
       </c>
       <c r="N74">
-        <v>-0.04300369655696173</v>
+        <v>-4.3003696556961728E-2</v>
       </c>
       <c r="O74" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4347,46 +6097,46 @@
         <v>-1.675572983023057</v>
       </c>
       <c r="C75">
-        <v>0.3970991696615477</v>
+        <v>0.39709916966154768</v>
       </c>
       <c r="D75">
         <v>1.49405665661581</v>
       </c>
       <c r="E75">
-        <v>0.8761623231707146</v>
+        <v>0.87616232317071463</v>
       </c>
       <c r="F75">
-        <v>0.2961793777773493</v>
+        <v>0.29617937777734932</v>
       </c>
       <c r="G75">
-        <v>1.473318463475017</v>
+        <v>1.4733184634750169</v>
       </c>
       <c r="H75">
         <v>1.710120444104426</v>
       </c>
       <c r="I75">
-        <v>0.9643634028290247</v>
+        <v>0.96436340282902466</v>
       </c>
       <c r="J75">
-        <v>0.8579336036431838</v>
+        <v>0.85793360364318383</v>
       </c>
       <c r="K75">
-        <v>2.112310026609468</v>
+        <v>2.1123100266094679</v>
       </c>
       <c r="L75">
         <v>1.687147058980871</v>
       </c>
       <c r="M75">
-        <v>1.061092535718598</v>
+        <v>1.0610925357185981</v>
       </c>
       <c r="N75">
-        <v>1.465593257679808</v>
+        <v>1.4655932576798081</v>
       </c>
       <c r="O75" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4394,31 +6144,31 @@
         <v>0.1290781786728068</v>
       </c>
       <c r="C76">
-        <v>-0.4026336289338761</v>
+        <v>-0.40263362893387611</v>
       </c>
       <c r="D76">
-        <v>-0.0519756429775504</v>
+        <v>-5.1975642977550397E-2</v>
       </c>
       <c r="E76">
         <v>0.1058532837814949</v>
       </c>
       <c r="F76">
-        <v>-0.6947472776309276</v>
+        <v>-0.69474727763092758</v>
       </c>
       <c r="G76">
-        <v>-0.4823885028930556</v>
+        <v>-0.48238850289305563</v>
       </c>
       <c r="H76">
-        <v>0.2932029484277278</v>
+        <v>0.29320294842772782</v>
       </c>
       <c r="I76">
-        <v>0.1993615375856934</v>
+        <v>0.19936153758569339</v>
       </c>
       <c r="J76">
-        <v>-0.03427947990060162</v>
+        <v>-3.4279479900601623E-2</v>
       </c>
       <c r="K76">
-        <v>-0.2200802737241206</v>
+        <v>-0.22008027372412059</v>
       </c>
       <c r="L76">
         <v>-0.1442628648203064</v>
@@ -4427,51 +6177,51 @@
         <v>-0.1001096402758038</v>
       </c>
       <c r="N76">
-        <v>-0.336537203822211</v>
+        <v>-0.33653720382221097</v>
       </c>
       <c r="O76" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
       <c r="B77">
-        <v>-0.4423165430149673</v>
+        <v>-0.44231654301496731</v>
       </c>
       <c r="C77">
-        <v>0.370524391987859</v>
+        <v>0.37052439198785903</v>
       </c>
       <c r="D77">
-        <v>-0.326443743485241</v>
+        <v>-0.32644374348524102</v>
       </c>
       <c r="E77">
-        <v>-0.2761974957445723</v>
+        <v>-0.27619749574457231</v>
       </c>
       <c r="F77">
         <v>0.3913431469992229</v>
       </c>
       <c r="G77">
-        <v>0.2694892740816638</v>
+        <v>0.26948927408166379</v>
       </c>
       <c r="H77">
-        <v>-0.3862374869663637</v>
+        <v>-0.38623748696636367</v>
       </c>
       <c r="I77">
         <v>-0.4219117585465566</v>
       </c>
       <c r="J77">
-        <v>0.04614565416948509</v>
+        <v>4.6145654169485087E-2</v>
       </c>
       <c r="K77">
-        <v>-0.4252585153303368</v>
+        <v>-0.42525851533033682</v>
       </c>
       <c r="L77">
-        <v>-0.9692587844597896</v>
+        <v>-0.96925878445978964</v>
       </c>
       <c r="M77">
-        <v>-0.5803164040353521</v>
+        <v>-0.58031640403535212</v>
       </c>
       <c r="N77">
         <v>0.1007866298328397</v>
@@ -4480,7 +6230,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4488,16 +6238,16 @@
         <v>-2.136787271843879</v>
       </c>
       <c r="C78">
-        <v>0.7818750838985269</v>
+        <v>0.78187508389852689</v>
       </c>
       <c r="D78">
         <v>1.501739261075465</v>
       </c>
       <c r="E78">
-        <v>1.220098504595022</v>
+        <v>1.2200985045950219</v>
       </c>
       <c r="F78">
-        <v>0.9108248379557378</v>
+        <v>0.91082483795573776</v>
       </c>
       <c r="G78">
         <v>1.510855799102182</v>
@@ -4506,19 +6256,19 @@
         <v>1.607729277310644</v>
       </c>
       <c r="I78">
-        <v>1.148555302985863</v>
+        <v>1.1485553029858631</v>
       </c>
       <c r="J78">
         <v>1.288733281578486</v>
       </c>
       <c r="K78">
-        <v>2.535150268009093</v>
+        <v>2.5351502680090929</v>
       </c>
       <c r="L78">
         <v>1.950359006249577</v>
       </c>
       <c r="M78">
-        <v>1.048196483878472</v>
+        <v>1.0481964838784721</v>
       </c>
       <c r="N78">
         <v>1.015373546290971</v>
@@ -4527,45 +6277,45 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>92</v>
       </c>
       <c r="B79">
-        <v>0.01815340090885384</v>
+        <v>1.815340090885384E-2</v>
       </c>
       <c r="C79">
-        <v>-1.620086953557072</v>
+        <v>-1.6200869535570721</v>
       </c>
       <c r="D79">
         <v>-0.176909536917116</v>
       </c>
       <c r="E79">
-        <v>0.3667077876559237</v>
+        <v>0.36670778765592371</v>
       </c>
       <c r="F79">
-        <v>-0.4362034811231459</v>
+        <v>-0.43620348112314589</v>
       </c>
       <c r="G79">
-        <v>-0.6618471311213122</v>
+        <v>-0.66184713112131222</v>
       </c>
       <c r="H79">
-        <v>0.1338284296120699</v>
+        <v>0.13382842961206989</v>
       </c>
       <c r="I79">
-        <v>0.6184766372364151</v>
+        <v>0.61847663723641511</v>
       </c>
       <c r="J79">
-        <v>0.5885642598243576</v>
+        <v>0.58856425982435756</v>
       </c>
       <c r="K79">
-        <v>0.7291255109454706</v>
+        <v>0.72912551094547062</v>
       </c>
       <c r="L79">
-        <v>0.7760557276955395</v>
+        <v>0.77605572769553954</v>
       </c>
       <c r="M79">
-        <v>0.4767077498392852</v>
+        <v>0.47670774983928521</v>
       </c>
       <c r="N79">
         <v>-0.2180011581791057</v>
@@ -4574,7 +6324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4585,16 +6335,16 @@
         <v>0.1625076187020397</v>
       </c>
       <c r="D80">
-        <v>1.078546653127508</v>
+        <v>1.0785466531275081</v>
       </c>
       <c r="E80">
         <v>1.256898488283577</v>
       </c>
       <c r="F80">
-        <v>0.6726969608775398</v>
+        <v>0.67269696087753983</v>
       </c>
       <c r="G80">
-        <v>0.7285215779101323</v>
+        <v>0.72852157791013228</v>
       </c>
       <c r="H80">
         <v>1.690841351769119</v>
@@ -4603,10 +6353,10 @@
         <v>1.95791626999771</v>
       </c>
       <c r="J80">
-        <v>1.579031694394725</v>
+        <v>1.5790316943947249</v>
       </c>
       <c r="K80">
-        <v>1.808951959020796</v>
+        <v>1.8089519590207961</v>
       </c>
       <c r="L80">
         <v>1.571254843852512</v>
@@ -4615,60 +6365,60 @@
         <v>1.035885383032765</v>
       </c>
       <c r="N80">
-        <v>0.8044998260089311</v>
+        <v>0.80449982600893111</v>
       </c>
       <c r="O80" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>94</v>
       </c>
       <c r="B81">
-        <v>0.03906327292110341</v>
+        <v>3.9063272921103412E-2</v>
       </c>
       <c r="C81">
-        <v>-0.02745440562155311</v>
+        <v>-2.7454405621553109E-2</v>
       </c>
       <c r="D81">
         <v>0.1350533832076701</v>
       </c>
       <c r="E81">
-        <v>-0.2504577752742493</v>
+        <v>-0.25045777527424928</v>
       </c>
       <c r="F81">
         <v>0.1227689641021624</v>
       </c>
       <c r="G81">
-        <v>0.4888971909427955</v>
+        <v>0.48889719094279549</v>
       </c>
       <c r="H81">
-        <v>-0.2545126971619631</v>
+        <v>-0.25451269716196312</v>
       </c>
       <c r="I81">
-        <v>0.004514493671900197</v>
+        <v>4.5144936719001966E-3</v>
       </c>
       <c r="J81">
-        <v>0.3068740243260629</v>
+        <v>0.30687402432606292</v>
       </c>
       <c r="K81">
-        <v>-0.6538703917682154</v>
+        <v>-0.65387039176821538</v>
       </c>
       <c r="L81">
-        <v>-0.5884853687747931</v>
+        <v>-0.58848536877479307</v>
       </c>
       <c r="M81">
         <v>-0.2046014173102593</v>
       </c>
       <c r="N81">
-        <v>-0.7404647770322961</v>
+        <v>-0.74046477703229607</v>
       </c>
       <c r="O81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4676,22 +6426,22 @@
         <v>0.8302015824093294</v>
       </c>
       <c r="C82">
-        <v>0.4496359039003714</v>
+        <v>0.44963590390037139</v>
       </c>
       <c r="D82">
-        <v>-0.83646086888625</v>
+        <v>-0.83646086888625004</v>
       </c>
       <c r="E82">
-        <v>-0.5140573034318698</v>
+        <v>-0.51405730343186984</v>
       </c>
       <c r="F82">
-        <v>0.6604536507633206</v>
+        <v>0.66045365076332063</v>
       </c>
       <c r="G82">
-        <v>-0.4954767948998323</v>
+        <v>-0.49547679489983232</v>
       </c>
       <c r="H82">
-        <v>-1.029302297554645</v>
+        <v>-1.0293022975546451</v>
       </c>
       <c r="I82">
         <v>0.3718674113852013</v>
@@ -4700,13 +6450,13 @@
         <v>1.808769068269698</v>
       </c>
       <c r="K82">
-        <v>1.804491528259497</v>
+        <v>1.8044915282594971</v>
       </c>
       <c r="L82">
-        <v>0.8460896950067078</v>
+        <v>0.84608969500670783</v>
       </c>
       <c r="M82">
-        <v>0.2709949095444407</v>
+        <v>0.27099490954444072</v>
       </c>
       <c r="N82">
         <v>-0.108838724956673</v>
@@ -4715,186 +6465,186 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
       <c r="B83">
-        <v>0.07819588505328444</v>
+        <v>7.8195885053284439E-2</v>
       </c>
       <c r="C83">
-        <v>0.7475151620705112</v>
+        <v>0.74751516207051116</v>
       </c>
       <c r="D83">
-        <v>-0.5972930086026886</v>
+        <v>-0.59729300860268864</v>
       </c>
       <c r="E83">
         <v>-0.6408456714195</v>
       </c>
       <c r="F83">
-        <v>0.3432547371249737</v>
+        <v>0.34325473712497367</v>
       </c>
       <c r="G83">
-        <v>0.05176210867873208</v>
+        <v>5.1762108678732079E-2</v>
       </c>
       <c r="H83">
-        <v>-0.8984796737372392</v>
+        <v>-0.89847967373723925</v>
       </c>
       <c r="I83">
-        <v>-0.997613500743496</v>
+        <v>-0.99761350074349597</v>
       </c>
       <c r="J83">
         <v>-0.1624036879408419</v>
       </c>
       <c r="K83">
-        <v>-0.06088661677498375</v>
+        <v>-6.0886616774983748E-2</v>
       </c>
       <c r="L83">
-        <v>-0.8399798745608467</v>
+        <v>-0.83997987456084666</v>
       </c>
       <c r="M83">
-        <v>-0.4649562810153821</v>
+        <v>-0.46495628101538211</v>
       </c>
       <c r="N83">
-        <v>0.8939960249293035</v>
+        <v>0.89399602492930352</v>
       </c>
       <c r="O83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
       <c r="B84">
-        <v>0.6412356195009563</v>
+        <v>0.64123561950095631</v>
       </c>
       <c r="C84">
-        <v>0.03304336933083725</v>
+        <v>3.3043369330837249E-2</v>
       </c>
       <c r="D84">
-        <v>-0.1411073727318679</v>
+        <v>-0.14110737273186791</v>
       </c>
       <c r="E84">
-        <v>-0.9216954409851257</v>
+        <v>-0.92169544098512568</v>
       </c>
       <c r="F84">
         <v>-0.6018403488769265</v>
       </c>
       <c r="G84">
-        <v>0.5410177416407421</v>
+        <v>0.54101774164074212</v>
       </c>
       <c r="H84">
-        <v>-0.7207098009050205</v>
+        <v>-0.72070980090502046</v>
       </c>
       <c r="I84">
         <v>-1.227448581936494</v>
       </c>
       <c r="J84">
-        <v>0.07195801474048127</v>
+        <v>7.1958014740481274E-2</v>
       </c>
       <c r="K84">
-        <v>0.3754060155337082</v>
+        <v>0.37540601553370823</v>
       </c>
       <c r="L84">
         <v>-1.083712834304994</v>
       </c>
       <c r="M84">
-        <v>-2.11486145534041</v>
+        <v>-2.1148614553404101</v>
       </c>
       <c r="N84">
-        <v>-0.937105476763912</v>
+        <v>-0.93710547676391198</v>
       </c>
       <c r="O84" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
       <c r="B85">
-        <v>2.050232023445684</v>
+        <v>2.0502320234456839</v>
       </c>
       <c r="C85">
-        <v>-1.035806783148905</v>
+        <v>-1.0358067831489051</v>
       </c>
       <c r="D85">
         <v>-2.196761925997027</v>
       </c>
       <c r="E85">
-        <v>-1.371627204984286</v>
+        <v>-1.3716272049842859</v>
       </c>
       <c r="F85">
-        <v>-2.569789888948608</v>
+        <v>-2.5697898889486082</v>
       </c>
       <c r="G85">
-        <v>-3.50642415186831</v>
+        <v>-3.5064241518683099</v>
       </c>
       <c r="H85">
-        <v>-0.7180531892745096</v>
+        <v>-0.71805318927450956</v>
       </c>
       <c r="I85">
         <v>-0.2341101119208826</v>
       </c>
       <c r="J85">
-        <v>-2.146925441474336</v>
+        <v>-2.1469254414743362</v>
       </c>
       <c r="K85">
         <v>-1.358245946393585</v>
       </c>
       <c r="L85">
-        <v>0.2647415261141726</v>
+        <v>0.26474152611417262</v>
       </c>
       <c r="M85">
-        <v>-1.025494036586572</v>
+        <v>-1.0254940365865719</v>
       </c>
       <c r="N85">
-        <v>-2.723514099566868</v>
+        <v>-2.7235140995668679</v>
       </c>
       <c r="O85" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>99</v>
       </c>
       <c r="B86">
-        <v>0.1890337222632301</v>
+        <v>0.18903372226323009</v>
       </c>
       <c r="C86">
         <v>0.1044104249052152</v>
       </c>
       <c r="D86">
-        <v>0.3623938983216134</v>
+        <v>0.36239389832161339</v>
       </c>
       <c r="E86">
-        <v>-0.1510169812722429</v>
+        <v>-0.15101698127224289</v>
       </c>
       <c r="F86">
         <v>-0.1490515274869218</v>
       </c>
       <c r="G86">
-        <v>0.5644145319790062</v>
+        <v>0.56441453197900615</v>
       </c>
       <c r="H86">
         <v>-0.11528416084653</v>
       </c>
       <c r="I86">
-        <v>-0.745412316863883</v>
+        <v>-0.74541231686388298</v>
       </c>
       <c r="J86">
-        <v>-0.0954246124394012</v>
+        <v>-9.5424612439401202E-2</v>
       </c>
       <c r="K86">
-        <v>0.8956516684300264</v>
+        <v>0.89565166843002642</v>
       </c>
       <c r="L86">
-        <v>-0.03211818956356695</v>
+        <v>-3.2118189563566948E-2</v>
       </c>
       <c r="M86">
-        <v>-1.40723622415803</v>
+        <v>-1.4072362241580301</v>
       </c>
       <c r="N86">
         <v>-1.055161036881276</v>
@@ -4903,30 +6653,30 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
       <c r="B87">
-        <v>-0.5428552684425089</v>
+        <v>-0.54285526844250886</v>
       </c>
       <c r="C87">
-        <v>0.1288631764726794</v>
+        <v>0.12886317647267939</v>
       </c>
       <c r="D87">
-        <v>1.855278945959706</v>
+        <v>1.8552789459597061</v>
       </c>
       <c r="E87">
-        <v>0.8757210190277263</v>
+        <v>0.87572101902772626</v>
       </c>
       <c r="F87">
-        <v>-0.1342449481840619</v>
+        <v>-0.13424494818406191</v>
       </c>
       <c r="G87">
-        <v>0.5342506015643211</v>
+        <v>0.53425060156432114</v>
       </c>
       <c r="H87">
-        <v>0.4494002739848379</v>
+        <v>0.44940027398483789</v>
       </c>
       <c r="I87">
         <v>0.1386652799765507</v>
@@ -4935,10 +6685,10 @@
         <v>-0.2199214828362841</v>
       </c>
       <c r="K87">
-        <v>-0.6826536326983557</v>
+        <v>-0.68265363269835566</v>
       </c>
       <c r="L87">
-        <v>-0.5617848434644445</v>
+        <v>-0.56178484346444446</v>
       </c>
       <c r="M87">
         <v>-1.270951444164063</v>
@@ -4950,7 +6700,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4958,46 +6708,46 @@
         <v>-0.3111413039022356</v>
       </c>
       <c r="C88">
-        <v>0.4096034745282136</v>
+        <v>0.40960347452821361</v>
       </c>
       <c r="D88">
-        <v>-0.6467230117537447</v>
+        <v>-0.64672301175374469</v>
       </c>
       <c r="E88">
-        <v>-0.0003414638536416746</v>
+        <v>-3.4146385364167462E-4</v>
       </c>
       <c r="F88">
-        <v>0.8872213537732275</v>
+        <v>0.88722135377322753</v>
       </c>
       <c r="G88">
-        <v>-0.09249946026174041</v>
+        <v>-9.2499460261740413E-2</v>
       </c>
       <c r="H88">
         <v>-0.1951903475344684</v>
       </c>
       <c r="I88">
-        <v>-0.09424241648836094</v>
+        <v>-9.4242416488360944E-2</v>
       </c>
       <c r="J88">
-        <v>-0.5427490449079148</v>
+        <v>-0.54274904490791476</v>
       </c>
       <c r="K88">
-        <v>-0.7179531658805084</v>
+        <v>-0.71795316588050839</v>
       </c>
       <c r="L88">
-        <v>-0.4528434845371246</v>
+        <v>-0.45284348453712459</v>
       </c>
       <c r="M88">
-        <v>0.07220828665350119</v>
+        <v>7.2208286653501194E-2</v>
       </c>
       <c r="N88">
-        <v>0.8641695223353151</v>
+        <v>0.86416952233531508</v>
       </c>
       <c r="O88" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -5005,31 +6755,31 @@
         <v>0.2455497637824258</v>
       </c>
       <c r="C89">
-        <v>0.1477742474742288</v>
+        <v>0.14777424747422879</v>
       </c>
       <c r="D89">
-        <v>-0.460271335049075</v>
+        <v>-0.46027133504907503</v>
       </c>
       <c r="E89">
-        <v>-0.4938048186828271</v>
+        <v>-0.49380481868282711</v>
       </c>
       <c r="F89">
-        <v>-0.06289944567201991</v>
+        <v>-6.289944567201991E-2</v>
       </c>
       <c r="G89">
-        <v>-0.0130657858178938</v>
+        <v>-1.3065785817893799E-2</v>
       </c>
       <c r="H89">
-        <v>-0.4151387837172393</v>
+        <v>-0.41513878371723928</v>
       </c>
       <c r="I89">
-        <v>-0.5993630729209083</v>
+        <v>-0.59936307292090829</v>
       </c>
       <c r="J89">
-        <v>-0.4243159131816664</v>
+        <v>-0.42431591318166639</v>
       </c>
       <c r="K89">
-        <v>-0.7293167519524851</v>
+        <v>-0.72931675195248513</v>
       </c>
       <c r="L89">
         <v>-1.51169173334774</v>
@@ -5038,39 +6788,39 @@
         <v>-1.666774703788096</v>
       </c>
       <c r="N89">
-        <v>0.613124452901511</v>
+        <v>0.61312445290151096</v>
       </c>
       <c r="O89" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
       <c r="B90">
-        <v>-1.254553987413782</v>
+        <v>-1.2545539874137821</v>
       </c>
       <c r="C90">
-        <v>-0.5161507582218174</v>
+        <v>-0.51615075822181744</v>
       </c>
       <c r="D90">
-        <v>1.557256313567973</v>
+        <v>1.5572563135679729</v>
       </c>
       <c r="E90">
-        <v>1.665279998290159</v>
+        <v>1.6652799982901589</v>
       </c>
       <c r="F90">
-        <v>1.248751889411511</v>
+        <v>1.2487518894115111</v>
       </c>
       <c r="G90">
-        <v>1.304274687150283</v>
+        <v>1.3042746871502831</v>
       </c>
       <c r="H90">
         <v>1.350697857113702</v>
       </c>
       <c r="I90">
-        <v>1.446838582057857</v>
+        <v>1.4468385820578571</v>
       </c>
       <c r="J90">
         <v>1.172652811765585</v>
@@ -5082,110 +6832,110 @@
         <v>1.502415458507411</v>
       </c>
       <c r="M90">
-        <v>1.593940902320948</v>
+        <v>1.5939409023209481</v>
       </c>
       <c r="N90">
-        <v>0.209474609502784</v>
+        <v>0.20947460950278399</v>
       </c>
       <c r="O90" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
       <c r="B91">
-        <v>0.2940197914149916</v>
+        <v>0.29401979141499163</v>
       </c>
       <c r="C91">
-        <v>-0.6339294667815026</v>
+        <v>-0.63392946678150264</v>
       </c>
       <c r="D91">
-        <v>-0.08847616920504979</v>
+        <v>-8.847616920504979E-2</v>
       </c>
       <c r="E91">
-        <v>0.06296192775098181</v>
+        <v>6.2961927750981805E-2</v>
       </c>
       <c r="F91">
-        <v>-0.4986694700911825</v>
+        <v>-0.49866947009118251</v>
       </c>
       <c r="G91">
         <v>-0.1521047472904731</v>
       </c>
       <c r="H91">
-        <v>0.4248787074719655</v>
+        <v>0.42487870747196549</v>
       </c>
       <c r="I91">
-        <v>0.23677826682373</v>
+        <v>0.23677826682372999</v>
       </c>
       <c r="J91">
-        <v>-0.0821368261072314</v>
+        <v>-8.21368261072314E-2</v>
       </c>
       <c r="K91">
-        <v>-0.3493597987480349</v>
+        <v>-0.34935979874803491</v>
       </c>
       <c r="L91">
-        <v>-0.2457260051487125</v>
+        <v>-0.24572600514871251</v>
       </c>
       <c r="M91">
-        <v>0.5509856534353624</v>
+        <v>0.55098565343536243</v>
       </c>
       <c r="N91">
-        <v>0.7715078965600807</v>
+        <v>0.77150789656008067</v>
       </c>
       <c r="O91" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
       <c r="B92">
-        <v>0.06328223617356955</v>
+        <v>6.3282236173569553E-2</v>
       </c>
       <c r="C92">
-        <v>1.411882726013492</v>
+        <v>1.4118827260134921</v>
       </c>
       <c r="D92">
-        <v>-0.3570588849372752</v>
+        <v>-0.35705888493727522</v>
       </c>
       <c r="E92">
-        <v>-0.9293463796680974</v>
+        <v>-0.92934637966809741</v>
       </c>
       <c r="F92">
-        <v>0.6535823044257719</v>
+        <v>0.65358230442577192</v>
       </c>
       <c r="G92">
-        <v>1.146377627949415</v>
+        <v>1.1463776279494149</v>
       </c>
       <c r="H92">
-        <v>-0.635160140815796</v>
+        <v>-0.63516014081579597</v>
       </c>
       <c r="I92">
         <v>-1.164501186872039</v>
       </c>
       <c r="J92">
-        <v>-0.2134799444423386</v>
+        <v>-0.21347994444233859</v>
       </c>
       <c r="K92">
-        <v>-0.2560335602397776</v>
+        <v>-0.25603356023977758</v>
       </c>
       <c r="L92">
-        <v>-1.150664223123763</v>
+        <v>-1.1506642231237629</v>
       </c>
       <c r="M92">
-        <v>-0.6826359201455887</v>
+        <v>-0.68263592014558871</v>
       </c>
       <c r="N92">
-        <v>0.8244667621569848</v>
+        <v>0.82446676215698478</v>
       </c>
       <c r="O92" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -5193,22 +6943,22 @@
         <v>1.644318614708433</v>
       </c>
       <c r="C93">
-        <v>1.639313847288885</v>
+        <v>1.6393138472888851</v>
       </c>
       <c r="D93">
-        <v>-1.784966614222829</v>
+        <v>-1.7849666142228291</v>
       </c>
       <c r="E93">
-        <v>-2.045946186237457</v>
+        <v>-2.0459461862374568</v>
       </c>
       <c r="F93">
         <v>-1.139861965919535</v>
       </c>
       <c r="G93">
-        <v>-0.6637142087283338</v>
+        <v>-0.66371420872833375</v>
       </c>
       <c r="H93">
-        <v>-0.7733363256480038</v>
+        <v>-0.77333632564800381</v>
       </c>
       <c r="I93">
         <v>-1.192744458920221</v>
@@ -5217,22 +6967,22 @@
         <v>-1.133064653347684</v>
       </c>
       <c r="K93">
-        <v>-1.57803844648338</v>
+        <v>-1.5780384464833801</v>
       </c>
       <c r="L93">
-        <v>-1.263469192835848</v>
+        <v>-1.2634691928358479</v>
       </c>
       <c r="M93">
-        <v>0.1626761509465729</v>
+        <v>0.16267615094657289</v>
       </c>
       <c r="N93">
-        <v>0.7747065145906099</v>
+        <v>0.77470651459060991</v>
       </c>
       <c r="O93" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -5240,131 +6990,131 @@
         <v>-0.6625235908456274</v>
       </c>
       <c r="C94">
-        <v>-0.5148080602873482</v>
+        <v>-0.51480806028734816</v>
       </c>
       <c r="D94">
-        <v>1.537641359106641</v>
+        <v>1.5376413591066409</v>
       </c>
       <c r="E94">
-        <v>2.05141493123905</v>
+        <v>2.0514149312390502</v>
       </c>
       <c r="F94">
-        <v>2.032518043597147</v>
+        <v>2.0325180435971468</v>
       </c>
       <c r="G94">
-        <v>1.861664300843478</v>
+        <v>1.8616643008434779</v>
       </c>
       <c r="H94">
         <v>1.911824633150278</v>
       </c>
       <c r="I94">
-        <v>2.106366334652431</v>
+        <v>2.1063663346524311</v>
       </c>
       <c r="J94">
         <v>1.688295304626511</v>
       </c>
       <c r="K94">
-        <v>1.63001530541786</v>
+        <v>1.6300153054178601</v>
       </c>
       <c r="L94">
         <v>1.995256319386314</v>
       </c>
       <c r="M94">
-        <v>2.276236507673817</v>
+        <v>2.2762365076738171</v>
       </c>
       <c r="N94">
-        <v>1.156576637233561</v>
+        <v>1.1565766372335611</v>
       </c>
       <c r="O94" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
       <c r="B95">
-        <v>-0.0526971316456697</v>
+        <v>-5.2697131645669699E-2</v>
       </c>
       <c r="C95">
-        <v>0.523024830956491</v>
+        <v>0.52302483095649099</v>
       </c>
       <c r="D95">
-        <v>-0.9933612788875775</v>
+        <v>-0.99336127888757753</v>
       </c>
       <c r="E95">
-        <v>-0.3683397380474741</v>
+        <v>-0.36833973804747411</v>
       </c>
       <c r="F95">
-        <v>0.416319488335323</v>
+        <v>0.41631948833532301</v>
       </c>
       <c r="G95">
-        <v>-0.4385517506209285</v>
+        <v>-0.43855175062092849</v>
       </c>
       <c r="H95">
-        <v>-0.4625880550656387</v>
+        <v>-0.46258805506563871</v>
       </c>
       <c r="I95">
-        <v>-0.7571776086245691</v>
+        <v>-0.75717760862456907</v>
       </c>
       <c r="J95">
-        <v>-0.8631460482160307</v>
+        <v>-0.86314604821603069</v>
       </c>
       <c r="K95">
         <v>-0.1230167846613321</v>
       </c>
       <c r="L95">
-        <v>-0.5131810894953753</v>
+        <v>-0.51318108949537533</v>
       </c>
       <c r="M95">
-        <v>-0.6523046216005243</v>
+        <v>-0.65230462160052427</v>
       </c>
       <c r="N95">
-        <v>0.6483617141396574</v>
+        <v>0.64836171413965737</v>
       </c>
       <c r="O95" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
       <c r="B96">
-        <v>-0.5446114676334565</v>
+        <v>-0.54461146763345647</v>
       </c>
       <c r="C96">
-        <v>-0.8142146764808542</v>
+        <v>-0.81421467648085422</v>
       </c>
       <c r="D96">
-        <v>0.388784865132729</v>
+        <v>0.38878486513272897</v>
       </c>
       <c r="E96">
-        <v>0.4567899334584662</v>
+        <v>0.45678993345846619</v>
       </c>
       <c r="F96">
         <v>0.2215243038696417</v>
       </c>
       <c r="G96">
-        <v>0.4434057363712974</v>
+        <v>0.44340573637129738</v>
       </c>
       <c r="H96">
-        <v>0.3487368985287126</v>
+        <v>0.34873689852871259</v>
       </c>
       <c r="I96">
         <v>0.3598542350903835</v>
       </c>
       <c r="J96">
-        <v>-0.1506867624076134</v>
+        <v>-0.15068676240761339</v>
       </c>
       <c r="K96">
-        <v>-0.8126789557489421</v>
+        <v>-0.81267895574894211</v>
       </c>
       <c r="L96">
-        <v>0.07958990249196304</v>
+        <v>7.9589902491963044E-2</v>
       </c>
       <c r="M96">
-        <v>0.7163656618698845</v>
+        <v>0.71636566186988448</v>
       </c>
       <c r="N96">
         <v>-0.5152012910498226</v>
@@ -5373,24 +7123,24 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
       <c r="B97">
-        <v>-1.313647481972548</v>
+        <v>-1.3136474819725481</v>
       </c>
       <c r="C97">
         <v>-1.633120826000694</v>
       </c>
       <c r="D97">
-        <v>0.9277380481369082</v>
+        <v>0.92773804813690819</v>
       </c>
       <c r="E97">
-        <v>1.558147635620344</v>
+        <v>1.5581476356203441</v>
       </c>
       <c r="F97">
-        <v>0.3222331620348527</v>
+        <v>0.32223316203485269</v>
       </c>
       <c r="G97">
         <v>0.1080813855762057</v>
@@ -5408,66 +7158,66 @@
         <v>1.275418631947304</v>
       </c>
       <c r="L97">
-        <v>1.39972657320513</v>
+        <v>1.3997265732051301</v>
       </c>
       <c r="M97">
         <v>1.085798094738833</v>
       </c>
       <c r="N97">
-        <v>0.2682595563806355</v>
+        <v>0.26825955638063548</v>
       </c>
       <c r="O97" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>111</v>
       </c>
       <c r="B98">
-        <v>-1.397308370773302</v>
+        <v>-1.3973083707733021</v>
       </c>
       <c r="C98">
-        <v>-1.43537490945558</v>
+        <v>-1.4353749094555801</v>
       </c>
       <c r="D98">
-        <v>0.8235009651069086</v>
+        <v>0.82350096510690862</v>
       </c>
       <c r="E98">
-        <v>1.325214604267347</v>
+        <v>1.3252146042673469</v>
       </c>
       <c r="F98">
-        <v>1.023195215299891</v>
+        <v>1.0231952152998911</v>
       </c>
       <c r="G98">
-        <v>1.089047909158514</v>
+        <v>1.0890479091585139</v>
       </c>
       <c r="H98">
         <v>1.118084290209266</v>
       </c>
       <c r="I98">
-        <v>1.438734775456561</v>
+        <v>1.4387347754565609</v>
       </c>
       <c r="J98">
-        <v>1.389720439999146</v>
+        <v>1.3897204399991461</v>
       </c>
       <c r="K98">
-        <v>1.091325705436876</v>
+        <v>1.0913257054368759</v>
       </c>
       <c r="L98">
-        <v>1.19062203806749</v>
+        <v>1.1906220380674899</v>
       </c>
       <c r="M98">
         <v>1.478598434486772</v>
       </c>
       <c r="N98">
-        <v>1.070751427443018</v>
+        <v>1.0707514274430181</v>
       </c>
       <c r="O98" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -5475,46 +7225,46 @@
         <v>-0.6594392074988451</v>
       </c>
       <c r="C99">
-        <v>0.5203419389531622</v>
+        <v>0.52034193895316216</v>
       </c>
       <c r="D99">
-        <v>0.3124752145173406</v>
+        <v>0.31247521451734062</v>
       </c>
       <c r="E99">
-        <v>-0.05221267160960994</v>
+        <v>-5.2212671609609941E-2</v>
       </c>
       <c r="F99">
-        <v>0.3966501535355504</v>
+        <v>0.39665015353555039</v>
       </c>
       <c r="G99">
         <v>0.8111833570302599</v>
       </c>
       <c r="H99">
-        <v>0.0001305630429980714</v>
+        <v>1.305630429980714E-4</v>
       </c>
       <c r="I99">
-        <v>-0.6909745672659063</v>
+        <v>-0.69097456726590634</v>
       </c>
       <c r="J99">
-        <v>-0.8140336775302287</v>
+        <v>-0.81403367753022871</v>
       </c>
       <c r="K99">
-        <v>-0.418200968814244</v>
+        <v>-0.41820096881424401</v>
       </c>
       <c r="L99">
         <v>-0.1267688254019359</v>
       </c>
       <c r="M99">
-        <v>-0.04302633440059215</v>
+        <v>-4.3026334400592149E-2</v>
       </c>
       <c r="N99">
-        <v>0.2986665855168574</v>
+        <v>0.29866658551685737</v>
       </c>
       <c r="O99" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5522,10 +7272,10 @@
         <v>-0.351355322771569</v>
       </c>
       <c r="C100">
-        <v>0.6698965800292004</v>
+        <v>0.66989658002920038</v>
       </c>
       <c r="D100">
-        <v>-0.05145696834844642</v>
+        <v>-5.1456968348446423E-2</v>
       </c>
       <c r="E100">
         <v>-0.1818437321132105</v>
@@ -5534,25 +7284,25 @@
         <v>1.100735237947347</v>
       </c>
       <c r="G100">
-        <v>0.941095987411201</v>
+        <v>0.94109598741120104</v>
       </c>
       <c r="H100">
-        <v>-0.3761071395988259</v>
+        <v>-0.37610713959882591</v>
       </c>
       <c r="I100">
-        <v>-0.08420035459663616</v>
+        <v>-8.4200354596636162E-2</v>
       </c>
       <c r="J100">
         <v>0.4804986677404855</v>
       </c>
       <c r="K100">
-        <v>-0.5299408661961685</v>
+        <v>-0.52994086619616854</v>
       </c>
       <c r="L100">
-        <v>-0.7659781186803449</v>
+        <v>-0.76597811868034493</v>
       </c>
       <c r="M100">
-        <v>0.196075827588045</v>
+        <v>0.19607582758804501</v>
       </c>
       <c r="N100">
         <v>1.102923696898563</v>
@@ -5561,74 +7311,74 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>114</v>
       </c>
       <c r="B101">
-        <v>-0.6197856208161127</v>
+        <v>-0.61978562081611266</v>
       </c>
       <c r="C101">
-        <v>0.2425393012269837</v>
+        <v>0.24253930122698369</v>
       </c>
       <c r="D101">
-        <v>2.048720739477979</v>
+        <v>2.0487207394779792</v>
       </c>
       <c r="E101">
         <v>1.15570833903062</v>
       </c>
       <c r="F101">
-        <v>0.03971604870875959</v>
+        <v>3.971604870875959E-2</v>
       </c>
       <c r="G101">
-        <v>0.7910883390531167</v>
+        <v>0.79108833905311671</v>
       </c>
       <c r="H101">
         <v>1.102226356184187</v>
       </c>
       <c r="I101">
-        <v>0.4261745892460133</v>
+        <v>0.42617458924601331</v>
       </c>
       <c r="J101">
         <v>-1.282150372653049</v>
       </c>
       <c r="K101">
-        <v>-2.118039880018661</v>
+        <v>-2.1180398800186611</v>
       </c>
       <c r="L101">
-        <v>-0.3915863450295706</v>
+        <v>-0.39158634502957063</v>
       </c>
       <c r="M101">
-        <v>0.3642863609707752</v>
+        <v>0.36428636097077521</v>
       </c>
       <c r="N101">
-        <v>-0.6792329213487612</v>
+        <v>-0.67923292134876123</v>
       </c>
       <c r="O101" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>115</v>
       </c>
       <c r="B102">
-        <v>-1.533637847191682</v>
+        <v>-1.5336378471916821</v>
       </c>
       <c r="C102">
-        <v>-0.8556517744613801</v>
+        <v>-0.85565177446138008</v>
       </c>
       <c r="D102">
-        <v>2.006229918669953</v>
+        <v>2.0062299186699528</v>
       </c>
       <c r="E102">
-        <v>1.4380471194059</v>
+        <v>1.4380471194058999</v>
       </c>
       <c r="F102">
-        <v>-0.005631730468426028</v>
+        <v>-5.6317304684260277E-3</v>
       </c>
       <c r="G102">
-        <v>1.49288486603796</v>
+        <v>1.4928848660379599</v>
       </c>
       <c r="H102">
         <v>1.961956972995746</v>
@@ -5637,33 +7387,33 @@
         <v>1.132247815375043</v>
       </c>
       <c r="J102">
-        <v>0.9114212987722448</v>
+        <v>0.91142129877224476</v>
       </c>
       <c r="K102">
-        <v>2.04657487324584</v>
+        <v>2.0465748732458402</v>
       </c>
       <c r="L102">
-        <v>1.769605130376925</v>
+        <v>1.7696051303769249</v>
       </c>
       <c r="M102">
-        <v>1.082016571395734</v>
+        <v>1.0820165713957339</v>
       </c>
       <c r="N102">
-        <v>0.9082024413668749</v>
+        <v>0.90820244136687489</v>
       </c>
       <c r="O102" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>116</v>
       </c>
       <c r="B103">
-        <v>1.7327164261556</v>
+        <v>1.7327164261556001</v>
       </c>
       <c r="C103">
-        <v>0.9290391592814382</v>
+        <v>0.92903915928143821</v>
       </c>
       <c r="D103">
         <v>-1.144430832332276</v>
@@ -5675,81 +7425,81 @@
         <v>-0.3536610449120331</v>
       </c>
       <c r="G103">
-        <v>-0.6357415601012545</v>
+        <v>-0.63574156010125449</v>
       </c>
       <c r="H103">
         <v>-1.604519855930995</v>
       </c>
       <c r="I103">
-        <v>-0.9210010383782818</v>
+        <v>-0.92100103837828184</v>
       </c>
       <c r="J103">
-        <v>0.3364512812962799</v>
+        <v>0.33645128129627988</v>
       </c>
       <c r="K103">
-        <v>-0.1122955446745622</v>
+        <v>-0.11229554467456219</v>
       </c>
       <c r="L103">
-        <v>-0.5183147057578648</v>
+        <v>-0.51831470575786476</v>
       </c>
       <c r="M103">
-        <v>0.16520876405004</v>
+        <v>0.16520876405004001</v>
       </c>
       <c r="N103">
-        <v>0.2655345847098555</v>
+        <v>0.26553458470985553</v>
       </c>
       <c r="O103" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>117</v>
       </c>
       <c r="B104">
-        <v>0.3741756383422664</v>
+        <v>0.37417563834226641</v>
       </c>
       <c r="C104">
-        <v>0.08777286387942396</v>
+        <v>8.7772863879423957E-2</v>
       </c>
       <c r="D104">
-        <v>-0.3817954835576525</v>
+        <v>-0.38179548355765253</v>
       </c>
       <c r="E104">
-        <v>-0.6300196556907646</v>
+        <v>-0.63001965569076457</v>
       </c>
       <c r="F104">
-        <v>0.159444669270276</v>
+        <v>0.15944466927027601</v>
       </c>
       <c r="G104">
-        <v>0.4008935091624291</v>
+        <v>0.40089350916242911</v>
       </c>
       <c r="H104">
-        <v>-0.7187963508097552</v>
+        <v>-0.71879635080975524</v>
       </c>
       <c r="I104">
-        <v>-0.8450117462023617</v>
+        <v>-0.84501174620236175</v>
       </c>
       <c r="J104">
-        <v>-0.5290893011161962</v>
+        <v>-0.52908930111619623</v>
       </c>
       <c r="K104">
-        <v>-1.193409635070723</v>
+        <v>-1.1934096350707231</v>
       </c>
       <c r="L104">
-        <v>-1.612232027116347</v>
+        <v>-1.6122320271163471</v>
       </c>
       <c r="M104">
         <v>-1.976546277205435</v>
       </c>
       <c r="N104">
-        <v>-1.050170559674004</v>
+        <v>-1.0501705596740041</v>
       </c>
       <c r="O104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5757,7 +7507,7 @@
         <v>1.034061799766139</v>
       </c>
       <c r="C105">
-        <v>0.5394451816404389</v>
+        <v>0.53944518164043886</v>
       </c>
       <c r="D105">
         <v>-1.206460033119414</v>
@@ -5766,16 +7516,16 @@
         <v>-1.29675833192691</v>
       </c>
       <c r="F105">
-        <v>0.1953456887415589</v>
+        <v>0.19534568874155889</v>
       </c>
       <c r="G105">
         <v>1.069463919265405</v>
       </c>
       <c r="H105">
-        <v>-0.2744190541618489</v>
+        <v>-0.27441905416184892</v>
       </c>
       <c r="I105">
-        <v>-1.134782425370117</v>
+        <v>-1.1347824253701171</v>
       </c>
       <c r="J105">
         <v>-1.396328743015502</v>
@@ -5784,92 +7534,92 @@
         <v>-1.961078110202078</v>
       </c>
       <c r="L105">
-        <v>-1.548407778385685</v>
+        <v>-1.5484077783856851</v>
       </c>
       <c r="M105">
-        <v>-0.4040346031343106</v>
+        <v>-0.40403460313431061</v>
       </c>
       <c r="N105">
-        <v>0.9858969212742933</v>
+        <v>0.98589692127429329</v>
       </c>
       <c r="O105" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>119</v>
       </c>
       <c r="B106">
-        <v>-0.8660547716441938</v>
+        <v>-0.86605477164419375</v>
       </c>
       <c r="C106">
-        <v>-0.4119198405226358</v>
+        <v>-0.41191984052263581</v>
       </c>
       <c r="D106">
-        <v>0.978833131612948</v>
+        <v>0.97883313161294805</v>
       </c>
       <c r="E106">
         <v>0.2240620053943041</v>
       </c>
       <c r="F106">
-        <v>-1.29756169435421</v>
+        <v>-1.2975616943542101</v>
       </c>
       <c r="G106">
-        <v>0.2152944139335281</v>
+        <v>0.21529441393352811</v>
       </c>
       <c r="H106">
-        <v>1.112032598709756</v>
+        <v>1.1120325987097559</v>
       </c>
       <c r="I106">
-        <v>0.3511186111648822</v>
+        <v>0.35111861116488219</v>
       </c>
       <c r="J106">
-        <v>-0.07889649417856874</v>
+        <v>-7.8896494178568741E-2</v>
       </c>
       <c r="K106">
-        <v>0.5710926398490251</v>
+        <v>0.57109263984902514</v>
       </c>
       <c r="L106">
-        <v>0.7058928930670489</v>
+        <v>0.70589289306704894</v>
       </c>
       <c r="M106">
-        <v>0.5068967714032321</v>
+        <v>0.50689677140323208</v>
       </c>
       <c r="N106">
-        <v>-0.001331272763364333</v>
+        <v>-1.331272763364333E-3</v>
       </c>
       <c r="O106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>120</v>
       </c>
       <c r="B107">
-        <v>1.269867989306187</v>
+        <v>1.2698679893061871</v>
       </c>
       <c r="C107">
         <v>0.1304318482786391</v>
       </c>
       <c r="D107">
-        <v>-0.6578851938584538</v>
+        <v>-0.65788519385845379</v>
       </c>
       <c r="E107">
-        <v>-0.9950425648412182</v>
+        <v>-0.99504256484121822</v>
       </c>
       <c r="F107">
-        <v>-0.1018198471282891</v>
+        <v>-0.10181984712828911</v>
       </c>
       <c r="G107">
-        <v>1.223614545304757</v>
+        <v>1.2236145453047571</v>
       </c>
       <c r="H107">
         <v>0.1537622306750267</v>
       </c>
       <c r="I107">
-        <v>-0.7396363189807827</v>
+        <v>-0.73963631898078275</v>
       </c>
       <c r="J107">
         <v>-0.8516562628163582</v>
@@ -5878,66 +7628,66 @@
         <v>-1.027587186800152</v>
       </c>
       <c r="L107">
-        <v>-0.865946036817574</v>
+        <v>-0.86594603681757398</v>
       </c>
       <c r="M107">
-        <v>-0.4639862295167608</v>
+        <v>-0.46398622951676077</v>
       </c>
       <c r="N107">
-        <v>0.05487228561067202</v>
+        <v>5.487228561067202E-2</v>
       </c>
       <c r="O107" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>121</v>
       </c>
       <c r="B108">
-        <v>0.07819588505328444</v>
+        <v>7.8195885053284439E-2</v>
       </c>
       <c r="C108">
-        <v>0.7475151620705112</v>
+        <v>0.74751516207051116</v>
       </c>
       <c r="D108">
-        <v>-0.5972930086026886</v>
+        <v>-0.59729300860268864</v>
       </c>
       <c r="E108">
         <v>-0.6408456714195</v>
       </c>
       <c r="F108">
-        <v>0.3432547371249737</v>
+        <v>0.34325473712497367</v>
       </c>
       <c r="G108">
-        <v>0.05176210867873208</v>
+        <v>5.1762108678732079E-2</v>
       </c>
       <c r="H108">
-        <v>-0.8984796737372392</v>
+        <v>-0.89847967373723925</v>
       </c>
       <c r="I108">
-        <v>-0.997613500743496</v>
+        <v>-0.99761350074349597</v>
       </c>
       <c r="J108">
         <v>-0.1624036879408419</v>
       </c>
       <c r="K108">
-        <v>-0.06088661677498375</v>
+        <v>-6.0886616774983748E-2</v>
       </c>
       <c r="L108">
-        <v>-0.8399798745608467</v>
+        <v>-0.83997987456084666</v>
       </c>
       <c r="M108">
-        <v>-0.4649562810153821</v>
+        <v>-0.46495628101538211</v>
       </c>
       <c r="N108">
-        <v>0.8939960249293035</v>
+        <v>0.89399602492930352</v>
       </c>
       <c r="O108" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5948,7 +7698,7 @@
         <v>0.1249177102344604</v>
       </c>
       <c r="D109">
-        <v>0.6520891248826667</v>
+        <v>0.65208912488266668</v>
       </c>
       <c r="E109">
         <v>1.001320881824316</v>
@@ -5957,7 +7707,7 @@
         <v>1.318001956076801</v>
       </c>
       <c r="G109">
-        <v>1.257089539500276</v>
+        <v>1.2570895395002759</v>
       </c>
       <c r="H109">
         <v>1.28785475338774</v>
@@ -5966,25 +7716,25 @@
         <v>1.26206321647286</v>
       </c>
       <c r="J109">
-        <v>0.5163970770634808</v>
+        <v>0.51639707706348081</v>
       </c>
       <c r="K109">
-        <v>0.3874174546383463</v>
+        <v>0.38741745463834631</v>
       </c>
       <c r="L109">
-        <v>1.296592674129479</v>
+        <v>1.2965926741294791</v>
       </c>
       <c r="M109">
-        <v>1.791010260688709</v>
+        <v>1.7910102606887091</v>
       </c>
       <c r="N109">
-        <v>0.8472599076150726</v>
+        <v>0.84725990761507264</v>
       </c>
       <c r="O109" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5995,75 +7745,75 @@
         <v>1.817406296678471</v>
       </c>
       <c r="D110">
-        <v>0.9090197338671822</v>
+        <v>0.90901973386718216</v>
       </c>
       <c r="E110">
-        <v>1.160625661079988</v>
+        <v>1.1606256610799881</v>
       </c>
       <c r="F110">
-        <v>0.5101781818717956</v>
+        <v>0.51017818187179564</v>
       </c>
       <c r="G110">
-        <v>0.6621430118312402</v>
+        <v>0.66214301183124025</v>
       </c>
       <c r="H110">
-        <v>2.168933252114565</v>
+        <v>2.1689332521145648</v>
       </c>
       <c r="I110">
-        <v>1.719797429471074</v>
+        <v>1.7197974294710741</v>
       </c>
       <c r="J110">
-        <v>0.7145648049869124</v>
+        <v>0.71456480498691244</v>
       </c>
       <c r="K110">
-        <v>1.765776900948892</v>
+        <v>1.7657769009488919</v>
       </c>
       <c r="L110">
-        <v>1.668326860452343</v>
+        <v>1.6683268604523429</v>
       </c>
       <c r="M110">
-        <v>0.7988303942003764</v>
+        <v>0.79883039420037638</v>
       </c>
       <c r="N110">
-        <v>1.111206558327923</v>
+        <v>1.1112065583279229</v>
       </c>
       <c r="O110" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>124</v>
       </c>
       <c r="B111">
-        <v>-0.75288625881336</v>
+        <v>-0.75288625881336002</v>
       </c>
       <c r="C111">
-        <v>1.770302324851433</v>
+        <v>1.7703023248514329</v>
       </c>
       <c r="D111">
-        <v>0.5212865018086238</v>
+        <v>0.52128650180862379</v>
       </c>
       <c r="E111">
-        <v>-0.4172948067764211</v>
+        <v>-0.41729480677642111</v>
       </c>
       <c r="F111">
         <v>0.8560540225865173</v>
       </c>
       <c r="G111">
-        <v>0.8900160757207402</v>
+        <v>0.89001607572074015</v>
       </c>
       <c r="H111">
-        <v>-0.6493515513868295</v>
+        <v>-0.64935155138682954</v>
       </c>
       <c r="I111">
-        <v>-0.4346592207142821</v>
+        <v>-0.43465922071428209</v>
       </c>
       <c r="J111">
-        <v>-0.2043102459095796</v>
+        <v>-0.20431024590957961</v>
       </c>
       <c r="K111">
-        <v>-1.138739414218022</v>
+        <v>-1.1387394142180221</v>
       </c>
       <c r="L111">
         <v>-0.1125368152262511</v>
@@ -6084,14 +7834,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2124E78-3A38-4CB1-8120-2992EC31741F}">
+  <dimension ref="A3:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6138,7 +7985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -6146,7 +7993,7 @@
         <v>-1.559544794738875</v>
       </c>
       <c r="C2">
-        <v>-0.07508356326072278</v>
+        <v>-7.5083563260722783E-2</v>
       </c>
       <c r="D2">
         <v>1.273980074288888</v>
@@ -6155,75 +8002,75 @@
         <v>1.189670708951309</v>
       </c>
       <c r="F2">
-        <v>0.5337353487177113</v>
+        <v>0.53373534871771133</v>
       </c>
       <c r="G2">
-        <v>0.9776208901264263</v>
+        <v>0.97762089012642628</v>
       </c>
       <c r="H2">
-        <v>1.686051737538775</v>
+        <v>1.6860517375387749</v>
       </c>
       <c r="I2">
         <v>1.702084872511445</v>
       </c>
       <c r="J2">
-        <v>1.342002511450486</v>
+        <v>1.3420025114504861</v>
       </c>
       <c r="K2">
-        <v>1.67074036190268</v>
+        <v>1.6707403619026799</v>
       </c>
       <c r="L2">
-        <v>1.554003333929708</v>
+        <v>1.5540033339297079</v>
       </c>
       <c r="M2">
         <v>1.114976266310302</v>
       </c>
       <c r="N2">
-        <v>0.5084868877608985</v>
+        <v>0.50848688776089845</v>
       </c>
       <c r="O2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>134</v>
       </c>
       <c r="B3">
-        <v>-0.4615591627107536</v>
+        <v>-0.46155916271075359</v>
       </c>
       <c r="C3">
-        <v>1.41228084064581</v>
+        <v>1.4122808406458101</v>
       </c>
       <c r="D3">
-        <v>1.194473231709262</v>
+        <v>1.1944732317092619</v>
       </c>
       <c r="E3">
-        <v>0.1797537567772211</v>
+        <v>0.17975375677722111</v>
       </c>
       <c r="F3">
-        <v>0.09235033571614312</v>
+        <v>9.2350335716143123E-2</v>
       </c>
       <c r="G3">
-        <v>0.5625121137934463</v>
+        <v>0.56251211379344634</v>
       </c>
       <c r="H3">
-        <v>0.2572520155619583</v>
+        <v>0.25725201556195831</v>
       </c>
       <c r="I3">
-        <v>0.002587767894686299</v>
+        <v>2.5877678946862989E-3</v>
       </c>
       <c r="J3">
-        <v>0.007968230864209617</v>
+        <v>7.9682308642096168E-3</v>
       </c>
       <c r="K3">
-        <v>-0.2429301721256273</v>
+        <v>-0.24293017212562729</v>
       </c>
       <c r="L3">
-        <v>-0.4529889119069088</v>
+        <v>-0.45298891190690882</v>
       </c>
       <c r="M3">
-        <v>-0.2330098020712291</v>
+        <v>-0.23300980207122909</v>
       </c>
       <c r="N3">
         <v>1.043147360061178</v>
@@ -6232,54 +8079,54 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>135</v>
       </c>
       <c r="B4">
-        <v>0.3126437956303413</v>
+        <v>0.31264379563034128</v>
       </c>
       <c r="C4">
-        <v>-1.610185416994148</v>
+        <v>-1.6101854169941481</v>
       </c>
       <c r="D4">
-        <v>0.08734236660554227</v>
+        <v>8.7342366605542274E-2</v>
       </c>
       <c r="E4">
         <v>1.174259990106757</v>
       </c>
       <c r="F4">
-        <v>-0.284398128010064</v>
+        <v>-0.28439812801006398</v>
       </c>
       <c r="G4">
         <v>-1.093594185463008</v>
       </c>
       <c r="H4">
-        <v>0.486828645152479</v>
+        <v>0.48682864515247898</v>
       </c>
       <c r="I4">
-        <v>1.202143903935523</v>
+        <v>1.2021439039355231</v>
       </c>
       <c r="J4">
         <v>1.238360309707192</v>
       </c>
       <c r="K4">
-        <v>0.7781493405672467</v>
+        <v>0.77814934056724672</v>
       </c>
       <c r="L4">
-        <v>0.526677596613829</v>
+        <v>0.52667759661382896</v>
       </c>
       <c r="M4">
-        <v>0.5530440099351057</v>
+        <v>0.55304400993510572</v>
       </c>
       <c r="N4">
-        <v>-0.2467872147734302</v>
+        <v>-0.24678721477343021</v>
       </c>
       <c r="O4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -6287,46 +8134,46 @@
         <v>1.399282013426778</v>
       </c>
       <c r="C5">
-        <v>-0.500153560826315</v>
+        <v>-0.50015356082631501</v>
       </c>
       <c r="D5">
-        <v>-2.113305415855336</v>
+        <v>-2.1133054158553359</v>
       </c>
       <c r="E5">
-        <v>-0.7153263718525181</v>
+        <v>-0.71532637185251813</v>
       </c>
       <c r="F5">
-        <v>-1.347141649557073</v>
+        <v>-1.3471416495570729</v>
       </c>
       <c r="G5">
-        <v>-2.383474282274706</v>
+        <v>-2.3834742822747059</v>
       </c>
       <c r="H5">
-        <v>-0.262703137567678</v>
+        <v>-0.26270313756767799</v>
       </c>
       <c r="I5">
-        <v>-0.02164107177079506</v>
+        <v>-2.1641071770795061E-2</v>
       </c>
       <c r="J5">
-        <v>-0.648381068577243</v>
+        <v>-0.64838106857724298</v>
       </c>
       <c r="K5">
-        <v>-0.3702177555846383</v>
+        <v>-0.37021775558463832</v>
       </c>
       <c r="L5">
-        <v>-0.2362696130105273</v>
+        <v>-0.23626961301052729</v>
       </c>
       <c r="M5">
-        <v>-0.3945788791112421</v>
+        <v>-0.39457887911124212</v>
       </c>
       <c r="N5">
-        <v>-0.9473117235290968</v>
+        <v>-0.94731172352909676</v>
       </c>
       <c r="O5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -6334,104 +8181,104 @@
         <v>-0.1128773831295273</v>
       </c>
       <c r="C6">
-        <v>0.2479013294352281</v>
+        <v>0.24790132943522811</v>
       </c>
       <c r="D6">
-        <v>0.5006542401467032</v>
+        <v>0.50065424014670323</v>
       </c>
       <c r="E6">
-        <v>0.2420076446196957</v>
+        <v>0.24200764461969571</v>
       </c>
       <c r="F6">
-        <v>0.01120518622944525</v>
+        <v>1.120518622944525E-2</v>
       </c>
       <c r="G6">
-        <v>-0.4393207815201147</v>
+        <v>-0.43932078152011472</v>
       </c>
       <c r="H6">
-        <v>-0.336734057112997</v>
+        <v>-0.33673405711299698</v>
       </c>
       <c r="I6">
-        <v>0.2634850871170381</v>
+        <v>0.26348508711703811</v>
       </c>
       <c r="J6">
-        <v>-0.01015057648469768</v>
+        <v>-1.0150576484697679E-2</v>
       </c>
       <c r="K6">
-        <v>-1.440127961384999</v>
+        <v>-1.4401279613849991</v>
       </c>
       <c r="L6">
         <v>-1.025341961395225</v>
       </c>
       <c r="M6">
-        <v>-0.4523056414352618</v>
+        <v>-0.45230564143526181</v>
       </c>
       <c r="N6">
-        <v>-0.5851259973139555</v>
+        <v>-0.58512599731395554</v>
       </c>
       <c r="O6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>138</v>
       </c>
       <c r="B7">
-        <v>0.06328223617356955</v>
+        <v>6.3282236173569553E-2</v>
       </c>
       <c r="C7">
-        <v>1.411882726013492</v>
+        <v>1.4118827260134921</v>
       </c>
       <c r="D7">
-        <v>-0.3570588849372752</v>
+        <v>-0.35705888493727522</v>
       </c>
       <c r="E7">
-        <v>-0.9293463796680974</v>
+        <v>-0.92934637966809741</v>
       </c>
       <c r="F7">
-        <v>0.6535823044257719</v>
+        <v>0.65358230442577192</v>
       </c>
       <c r="G7">
-        <v>1.146377627949415</v>
+        <v>1.1463776279494149</v>
       </c>
       <c r="H7">
-        <v>-0.635160140815796</v>
+        <v>-0.63516014081579597</v>
       </c>
       <c r="I7">
         <v>-1.164501186872039</v>
       </c>
       <c r="J7">
-        <v>-0.2134799444423386</v>
+        <v>-0.21347994444233859</v>
       </c>
       <c r="K7">
-        <v>-0.2560335602397776</v>
+        <v>-0.25603356023977758</v>
       </c>
       <c r="L7">
-        <v>-1.150664223123763</v>
+        <v>-1.1506642231237629</v>
       </c>
       <c r="M7">
-        <v>-0.6826359201455887</v>
+        <v>-0.68263592014558871</v>
       </c>
       <c r="N7">
-        <v>0.8244667621569848</v>
+        <v>0.82446676215698478</v>
       </c>
       <c r="O7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>139</v>
       </c>
       <c r="B8">
-        <v>0.7106335760300655</v>
+        <v>0.71063357603006549</v>
       </c>
       <c r="C8">
-        <v>0.7245785011311636</v>
+        <v>0.72457850113116362</v>
       </c>
       <c r="D8">
-        <v>-1.170839076779271</v>
+        <v>-1.1708390767792709</v>
       </c>
       <c r="E8">
         <v>-0.3943666812567525</v>
@@ -6440,34 +8287,34 @@
         <v>0.9851048544061396</v>
       </c>
       <c r="G8">
-        <v>-1.631543494432179</v>
+        <v>-1.6315434944321789</v>
       </c>
       <c r="H8">
         <v>-1.819462021155293</v>
       </c>
       <c r="I8">
-        <v>0.409118259751851</v>
+        <v>0.40911825975185101</v>
       </c>
       <c r="J8">
         <v>1.412292557160628</v>
       </c>
       <c r="K8">
-        <v>0.6847532818323365</v>
+        <v>0.68475328183233652</v>
       </c>
       <c r="L8">
-        <v>0.668121219957768</v>
+        <v>0.66812121995776796</v>
       </c>
       <c r="M8">
-        <v>0.6906101111549414</v>
+        <v>0.69061011115494142</v>
       </c>
       <c r="N8">
-        <v>-0.5736836030979218</v>
+        <v>-0.57368360309792177</v>
       </c>
       <c r="O8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -6475,93 +8322,93 @@
         <v>-0.1128773831295273</v>
       </c>
       <c r="C9">
-        <v>0.2479013294352281</v>
+        <v>0.24790132943522811</v>
       </c>
       <c r="D9">
-        <v>0.5006542401467032</v>
+        <v>0.50065424014670323</v>
       </c>
       <c r="E9">
-        <v>0.2420076446196957</v>
+        <v>0.24200764461969571</v>
       </c>
       <c r="F9">
-        <v>0.01120518622944525</v>
+        <v>1.120518622944525E-2</v>
       </c>
       <c r="G9">
-        <v>-0.4393207815201147</v>
+        <v>-0.43932078152011472</v>
       </c>
       <c r="H9">
-        <v>-0.336734057112997</v>
+        <v>-0.33673405711299698</v>
       </c>
       <c r="I9">
-        <v>0.2634850871170381</v>
+        <v>0.26348508711703811</v>
       </c>
       <c r="J9">
-        <v>-0.01015057648469768</v>
+        <v>-1.0150576484697679E-2</v>
       </c>
       <c r="K9">
-        <v>-1.440127961384999</v>
+        <v>-1.4401279613849991</v>
       </c>
       <c r="L9">
         <v>-1.025341961395225</v>
       </c>
       <c r="M9">
-        <v>-0.4523056414352618</v>
+        <v>-0.45230564143526181</v>
       </c>
       <c r="N9">
-        <v>-0.5851259973139555</v>
+        <v>-0.58512599731395554</v>
       </c>
       <c r="O9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>141</v>
       </c>
       <c r="B10">
-        <v>-0.0526971316456697</v>
+        <v>-5.2697131645669699E-2</v>
       </c>
       <c r="C10">
-        <v>0.523024830956491</v>
+        <v>0.52302483095649099</v>
       </c>
       <c r="D10">
-        <v>-0.9933612788875775</v>
+        <v>-0.99336127888757753</v>
       </c>
       <c r="E10">
-        <v>-0.3683397380474741</v>
+        <v>-0.36833973804747411</v>
       </c>
       <c r="F10">
-        <v>0.416319488335323</v>
+        <v>0.41631948833532301</v>
       </c>
       <c r="G10">
-        <v>-0.4385517506209285</v>
+        <v>-0.43855175062092849</v>
       </c>
       <c r="H10">
-        <v>-0.4625880550656387</v>
+        <v>-0.46258805506563871</v>
       </c>
       <c r="I10">
-        <v>-0.7571776086245691</v>
+        <v>-0.75717760862456907</v>
       </c>
       <c r="J10">
-        <v>-0.8631460482160307</v>
+        <v>-0.86314604821603069</v>
       </c>
       <c r="K10">
         <v>-0.1230167846613321</v>
       </c>
       <c r="L10">
-        <v>-0.5131810894953753</v>
+        <v>-0.51318108949537533</v>
       </c>
       <c r="M10">
-        <v>-0.6523046216005243</v>
+        <v>-0.65230462160052427</v>
       </c>
       <c r="N10">
-        <v>0.6483617141396574</v>
+        <v>0.64836171413965737</v>
       </c>
       <c r="O10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -6569,31 +8416,31 @@
         <v>0.2455497637824258</v>
       </c>
       <c r="C11">
-        <v>0.1477742474742288</v>
+        <v>0.14777424747422879</v>
       </c>
       <c r="D11">
-        <v>-0.460271335049075</v>
+        <v>-0.46027133504907503</v>
       </c>
       <c r="E11">
-        <v>-0.4938048186828271</v>
+        <v>-0.49380481868282711</v>
       </c>
       <c r="F11">
-        <v>-0.06289944567201991</v>
+        <v>-6.289944567201991E-2</v>
       </c>
       <c r="G11">
-        <v>-0.0130657858178938</v>
+        <v>-1.3065785817893799E-2</v>
       </c>
       <c r="H11">
-        <v>-0.4151387837172393</v>
+        <v>-0.41513878371723928</v>
       </c>
       <c r="I11">
-        <v>-0.5993630729209083</v>
+        <v>-0.59936307292090829</v>
       </c>
       <c r="J11">
-        <v>-0.4243159131816664</v>
+        <v>-0.42431591318166639</v>
       </c>
       <c r="K11">
-        <v>-0.7293167519524851</v>
+        <v>-0.72931675195248513</v>
       </c>
       <c r="L11">
         <v>-1.51169173334774</v>
@@ -6602,18 +8449,18 @@
         <v>-1.666774703788096</v>
       </c>
       <c r="N11">
-        <v>0.613124452901511</v>
+        <v>0.61312445290151096</v>
       </c>
       <c r="O11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
       <c r="B12">
-        <v>-0.2643024148175454</v>
+        <v>-0.26430241481754541</v>
       </c>
       <c r="C12">
         <v>-0.1165701125870811</v>
@@ -6625,25 +8472,25 @@
         <v>0.1773390855245803</v>
       </c>
       <c r="F12">
-        <v>0.3942594446680068</v>
+        <v>0.39425944466800678</v>
       </c>
       <c r="G12">
-        <v>-0.3724650346718482</v>
+        <v>-0.37246503467184822</v>
       </c>
       <c r="H12">
-        <v>-0.8703697137114605</v>
+        <v>-0.87036971371146055</v>
       </c>
       <c r="I12">
-        <v>-0.2044971337027099</v>
+        <v>-0.20449713370270989</v>
       </c>
       <c r="J12">
-        <v>0.2901777196841875</v>
+        <v>0.29017771968418749</v>
       </c>
       <c r="K12">
-        <v>-0.4768798540602959</v>
+        <v>-0.47687985406029593</v>
       </c>
       <c r="L12">
-        <v>-0.6499346048908801</v>
+        <v>-0.64993460489088006</v>
       </c>
       <c r="M12">
         <v>-0.7409402814511743</v>
@@ -6655,54 +8502,54 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
       <c r="B13">
-        <v>0.6189199856077578</v>
+        <v>0.61891998560775785</v>
       </c>
       <c r="C13">
         <v>-1.561747510762282</v>
       </c>
       <c r="D13">
-        <v>-0.2458734969724999</v>
+        <v>-0.24587349697249991</v>
       </c>
       <c r="E13">
-        <v>-0.3331038525059324</v>
+        <v>-0.33310385250593239</v>
       </c>
       <c r="F13">
-        <v>-2.69383432680846</v>
+        <v>-2.6938343268084601</v>
       </c>
       <c r="G13">
-        <v>-2.274423377915164</v>
+        <v>-2.2744233779151641</v>
       </c>
       <c r="H13">
-        <v>-0.4811784133001354</v>
+        <v>-0.48117841330013539</v>
       </c>
       <c r="I13">
         <v>-1.466269189253941</v>
       </c>
       <c r="J13">
-        <v>-2.97837340518133</v>
+        <v>-2.9783734051813302</v>
       </c>
       <c r="K13">
-        <v>-0.9243614235359867</v>
+        <v>-0.92436142353598671</v>
       </c>
       <c r="L13">
         <v>1.373896655016364</v>
       </c>
       <c r="M13">
-        <v>0.6211139152983322</v>
+        <v>0.62111391529833215</v>
       </c>
       <c r="N13">
-        <v>-2.005589679357193</v>
+        <v>-2.0055896793571928</v>
       </c>
       <c r="O13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -6710,93 +8557,93 @@
         <v>1.016800087154734</v>
       </c>
       <c r="C14">
-        <v>0.004917446910475699</v>
+        <v>4.917446910475699E-3</v>
       </c>
       <c r="D14">
-        <v>-0.4292253239134765</v>
+        <v>-0.42922532391347651</v>
       </c>
       <c r="E14">
-        <v>-0.4530920111853881</v>
+        <v>-0.45309201118538811</v>
       </c>
       <c r="F14">
-        <v>-0.1562393285540709</v>
+        <v>-0.15623932855407091</v>
       </c>
       <c r="G14">
-        <v>-0.06876734922288189</v>
+        <v>-6.8767349222881885E-2</v>
       </c>
       <c r="H14">
-        <v>-0.5545067121803566</v>
+        <v>-0.55450671218035663</v>
       </c>
       <c r="I14">
-        <v>-1.044510948698581</v>
+        <v>-1.0445109486985811</v>
       </c>
       <c r="J14">
-        <v>-0.6050578501652358</v>
+        <v>-0.60505785016523583</v>
       </c>
       <c r="K14">
-        <v>0.4325407920489095</v>
+        <v>0.43254079204890949</v>
       </c>
       <c r="L14">
-        <v>-0.1971219500877794</v>
+        <v>-0.19712195008777941</v>
       </c>
       <c r="M14">
-        <v>-1.149351222573436</v>
+        <v>-1.1493512225734359</v>
       </c>
       <c r="N14">
-        <v>-0.7312798950630474</v>
+        <v>-0.73127989506304736</v>
       </c>
       <c r="O14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>146</v>
       </c>
       <c r="B15">
-        <v>-0.1739818795798317</v>
+        <v>-0.17398187957983169</v>
       </c>
       <c r="C15">
-        <v>0.3412711040756625</v>
+        <v>0.34127110407566252</v>
       </c>
       <c r="D15">
-        <v>-0.4094250149744293</v>
+        <v>-0.40942501497442929</v>
       </c>
       <c r="E15">
-        <v>-0.49035033235673</v>
+        <v>-0.49035033235672998</v>
       </c>
       <c r="F15">
-        <v>0.6352163507746951</v>
+        <v>0.63521635077469507</v>
       </c>
       <c r="G15">
-        <v>0.4063538774239653</v>
+        <v>0.40635387742396528</v>
       </c>
       <c r="H15">
-        <v>-0.8749225324048034</v>
+        <v>-0.87492253240480344</v>
       </c>
       <c r="I15">
-        <v>-0.4991162614153831</v>
+        <v>-0.49911626141538312</v>
       </c>
       <c r="J15">
-        <v>0.2375844220256831</v>
+        <v>0.23758442202568311</v>
       </c>
       <c r="K15">
-        <v>-0.5013924572396158</v>
+        <v>-0.50139245723961579</v>
       </c>
       <c r="L15">
         <v>-0.3781007415820215</v>
       </c>
       <c r="M15">
-        <v>0.6347323282885843</v>
+        <v>0.63473232828858428</v>
       </c>
       <c r="N15">
-        <v>0.9123312252910108</v>
+        <v>0.91233122529101085</v>
       </c>
       <c r="O15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -6804,7 +8651,7 @@
         <v>-0.6466830219054962</v>
       </c>
       <c r="C16">
-        <v>-1.155874650844419</v>
+        <v>-1.1558746508444191</v>
       </c>
       <c r="D16">
         <v>0.5252727979587517</v>
@@ -6813,28 +8660,28 @@
         <v>1.113872424990809</v>
       </c>
       <c r="F16">
-        <v>0.8097044897940699</v>
+        <v>0.80970448979406995</v>
       </c>
       <c r="G16">
-        <v>0.4826049087808235</v>
+        <v>0.48260490878082352</v>
       </c>
       <c r="H16">
-        <v>0.6176610093088162</v>
+        <v>0.61766100930881618</v>
       </c>
       <c r="I16">
-        <v>0.7995582350250182</v>
+        <v>0.79955823502501822</v>
       </c>
       <c r="J16">
-        <v>0.3570348157997981</v>
+        <v>0.35703481579979812</v>
       </c>
       <c r="K16">
-        <v>-0.3931364908293239</v>
+        <v>-0.39313649082932389</v>
       </c>
       <c r="L16">
-        <v>-0.09224442803405949</v>
+        <v>-9.2244428034059495E-2</v>
       </c>
       <c r="M16">
-        <v>0.3552912250204937</v>
+        <v>0.35529122502049371</v>
       </c>
       <c r="N16">
         <v>0.1158607160178424</v>
@@ -6843,7 +8690,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -6851,145 +8698,145 @@
         <v>-0.2720581810084895</v>
       </c>
       <c r="C17">
-        <v>-1.284860661883718</v>
+        <v>-1.2848606618837179</v>
       </c>
       <c r="D17">
-        <v>-0.2142856937309908</v>
+        <v>-0.21428569373099079</v>
       </c>
       <c r="E17">
-        <v>0.4334637903565761</v>
+        <v>0.43346379035657612</v>
       </c>
       <c r="F17">
-        <v>-0.7202384757024715</v>
+        <v>-0.72023847570247146</v>
       </c>
       <c r="G17">
         <v>-0.9451322311409176</v>
       </c>
       <c r="H17">
-        <v>0.6461780891766982</v>
+        <v>0.64617808917669817</v>
       </c>
       <c r="I17">
-        <v>0.7307052071132462</v>
+        <v>0.73070520711324616</v>
       </c>
       <c r="J17">
-        <v>-0.2602021210960759</v>
+        <v>-0.26020212109607588</v>
       </c>
       <c r="K17">
         <v>0.206089409103374</v>
       </c>
       <c r="L17">
-        <v>0.9613693387399908</v>
+        <v>0.96136933873999075</v>
       </c>
       <c r="M17">
-        <v>0.8169264936662247</v>
+        <v>0.81692649366622472</v>
       </c>
       <c r="N17">
-        <v>-0.1675350055283265</v>
+        <v>-0.16753500552832651</v>
       </c>
       <c r="O17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>149</v>
       </c>
       <c r="B18">
-        <v>0.2445064771343382</v>
+        <v>0.24450647713433821</v>
       </c>
       <c r="C18">
-        <v>-0.528668208382949</v>
+        <v>-0.52866820838294903</v>
       </c>
       <c r="D18">
-        <v>1.057530689727976</v>
+        <v>1.0575306897279759</v>
       </c>
       <c r="E18">
         <v>1.228898646772163</v>
       </c>
       <c r="F18">
-        <v>-2.258410746888288</v>
+        <v>-2.2584107468882881</v>
       </c>
       <c r="G18">
-        <v>-2.618614843709837</v>
+        <v>-2.6186148437098371</v>
       </c>
       <c r="H18">
         <v>1.23217838373643</v>
       </c>
       <c r="I18">
-        <v>0.4232703048670466</v>
+        <v>0.42327030486704659</v>
       </c>
       <c r="J18">
-        <v>-2.449709435844743</v>
+        <v>-2.4497094358447429</v>
       </c>
       <c r="K18">
-        <v>0.004915505003223218</v>
+        <v>4.9155050032232183E-3</v>
       </c>
       <c r="L18">
-        <v>2.342902178128408</v>
+        <v>2.3429021781284081</v>
       </c>
       <c r="M18">
-        <v>-0.1091263145172588</v>
+        <v>-0.10912631451725879</v>
       </c>
       <c r="N18">
-        <v>-4.169301559570091</v>
+        <v>-4.1693015595700906</v>
       </c>
       <c r="O18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
       <c r="B19">
-        <v>0.2398551574949473</v>
+        <v>0.23985515749494729</v>
       </c>
       <c r="C19">
         <v>-1.189710012826702</v>
       </c>
       <c r="D19">
-        <v>-0.3992940658448266</v>
+        <v>-0.39929406584482657</v>
       </c>
       <c r="E19">
-        <v>0.5988348607520301</v>
+        <v>0.59883486075203007</v>
       </c>
       <c r="F19">
-        <v>-0.521445173093449</v>
+        <v>-0.52144517309344895</v>
       </c>
       <c r="G19">
         <v>-1.71954526815314</v>
       </c>
       <c r="H19">
-        <v>0.1482929645517952</v>
+        <v>0.14829296455179519</v>
       </c>
       <c r="I19">
         <v>0.8321688146197449</v>
       </c>
       <c r="J19">
-        <v>0.03939022687702433</v>
+        <v>3.9390226877024329E-2</v>
       </c>
       <c r="K19">
-        <v>0.3674543767630689</v>
+        <v>0.36745437676306891</v>
       </c>
       <c r="L19">
-        <v>0.8379666881833873</v>
+        <v>0.83796668818338726</v>
       </c>
       <c r="M19">
         <v>0.1148752272702737</v>
       </c>
       <c r="N19">
-        <v>-1.214988788889697</v>
+        <v>-1.2149887888896971</v>
       </c>
       <c r="O19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>151</v>
       </c>
       <c r="B20">
-        <v>-1.898202997216551</v>
+        <v>-1.8982029972165511</v>
       </c>
       <c r="C20">
         <v>-0.6252980160503</v>
@@ -6998,13 +8845,13 @@
         <v>1.27998481297301</v>
       </c>
       <c r="E20">
-        <v>1.398590247247412</v>
+        <v>1.3985902472474121</v>
       </c>
       <c r="F20">
-        <v>0.7334401708624677</v>
+        <v>0.73344017086246771</v>
       </c>
       <c r="G20">
-        <v>1.154665242494045</v>
+        <v>1.1546652424940449</v>
       </c>
       <c r="H20">
         <v>1.495747792548676</v>
@@ -7025,60 +8872,60 @@
         <v>0.8593018389563406</v>
       </c>
       <c r="N20">
-        <v>0.6314303630372768</v>
+        <v>0.63143036303727684</v>
       </c>
       <c r="O20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>152</v>
       </c>
       <c r="B21">
-        <v>-0.01840443327772619</v>
+        <v>-1.8404433277726191E-2</v>
       </c>
       <c r="C21">
-        <v>0.354858956785951</v>
+        <v>0.35485895678595097</v>
       </c>
       <c r="D21">
-        <v>-0.1924256141529274</v>
+        <v>-0.19242561415292739</v>
       </c>
       <c r="E21">
-        <v>-0.3846126720509989</v>
+        <v>-0.38461267205099892</v>
       </c>
       <c r="F21">
-        <v>0.400572158738572</v>
+        <v>0.40057215873857199</v>
       </c>
       <c r="G21">
-        <v>0.03305350325684506</v>
+        <v>3.3053503256845057E-2</v>
       </c>
       <c r="H21">
-        <v>-1.128890945073242</v>
+        <v>-1.1288909450732421</v>
       </c>
       <c r="I21">
-        <v>-0.8954660489844072</v>
+        <v>-0.89546604898440718</v>
       </c>
       <c r="J21">
         <v>0.1193398360844987</v>
       </c>
       <c r="K21">
-        <v>0.21511962286828</v>
+        <v>0.21511962286828001</v>
       </c>
       <c r="L21">
-        <v>-0.2944538089652974</v>
+        <v>-0.29445380896529738</v>
       </c>
       <c r="M21">
-        <v>-0.5873822061339773</v>
+        <v>-0.58738220613397729</v>
       </c>
       <c r="N21">
-        <v>-0.6202587259358945</v>
+        <v>-0.62025872593589448</v>
       </c>
       <c r="O21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -7086,7 +8933,7 @@
         <v>0.4040403874172685</v>
       </c>
       <c r="C22">
-        <v>-0.3165112933075817</v>
+        <v>-0.31651129330758171</v>
       </c>
       <c r="D22">
         <v>-0.112118056816099</v>
@@ -7095,22 +8942,22 @@
         <v>-0.2280590897108295</v>
       </c>
       <c r="F22">
-        <v>-0.8752408547317491</v>
+        <v>-0.87524085473174906</v>
       </c>
       <c r="G22">
-        <v>-0.663429161245097</v>
+        <v>-0.66342916124509699</v>
       </c>
       <c r="H22">
         <v>-0.4488877418534436</v>
       </c>
       <c r="I22">
-        <v>-1.061323284869322</v>
+        <v>-1.0613232848693219</v>
       </c>
       <c r="J22">
-        <v>-0.8823263771867629</v>
+        <v>-0.88232637718676288</v>
       </c>
       <c r="K22">
-        <v>-0.05326264137787577</v>
+        <v>-5.3262641377875772E-2</v>
       </c>
       <c r="L22">
         <v>-0.3768602431068635</v>
@@ -7119,227 +8966,227 @@
         <v>-0.2836635138332475</v>
       </c>
       <c r="N22">
-        <v>0.8523802156453864</v>
+        <v>0.85238021564538635</v>
       </c>
       <c r="O22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>154</v>
       </c>
       <c r="B23">
-        <v>-1.92346658466409</v>
+        <v>-1.9234665846640899</v>
       </c>
       <c r="C23">
-        <v>-0.9268448113757181</v>
+        <v>-0.92684481137571806</v>
       </c>
       <c r="D23">
-        <v>0.7393304048295867</v>
+        <v>0.73933040482958667</v>
       </c>
       <c r="E23">
-        <v>1.267543388041448</v>
+        <v>1.2675433880414479</v>
       </c>
       <c r="F23">
-        <v>0.8628957145317316</v>
+        <v>0.86289571453173164</v>
       </c>
       <c r="G23">
-        <v>0.6745467253072635</v>
+        <v>0.67454672530726345</v>
       </c>
       <c r="H23">
-        <v>1.063102250829001</v>
+        <v>1.0631022508290009</v>
       </c>
       <c r="I23">
-        <v>1.423096720206812</v>
+        <v>1.4230967202068121</v>
       </c>
       <c r="J23">
         <v>1.233841141648568</v>
       </c>
       <c r="K23">
-        <v>0.9987903039183971</v>
+        <v>0.99879030391839707</v>
       </c>
       <c r="L23">
         <v>1.116378204329217</v>
       </c>
       <c r="M23">
-        <v>1.136656627365953</v>
+        <v>1.1366566273659531</v>
       </c>
       <c r="N23">
-        <v>0.5792513520189362</v>
+        <v>0.57925135201893618</v>
       </c>
       <c r="O23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>155</v>
       </c>
       <c r="B24">
-        <v>0.6777479770900556</v>
+        <v>0.67774797709005563</v>
       </c>
       <c r="C24">
-        <v>0.6342177469900311</v>
+        <v>0.63421774699003108</v>
       </c>
       <c r="D24">
-        <v>-0.8576089025344455</v>
+        <v>-0.85760890253444555</v>
       </c>
       <c r="E24">
-        <v>-0.5794881435501781</v>
+        <v>-0.57948814355017808</v>
       </c>
       <c r="F24">
-        <v>0.7684557949055478</v>
+        <v>0.76845579490554783</v>
       </c>
       <c r="G24">
-        <v>-0.0545118226150748</v>
+        <v>-5.4511822615074798E-2</v>
       </c>
       <c r="H24">
-        <v>-1.363699979436893</v>
+        <v>-1.3636999794368929</v>
       </c>
       <c r="I24">
-        <v>-1.361857629337171</v>
+        <v>-1.3618576293371709</v>
       </c>
       <c r="J24">
-        <v>-0.2024609038712903</v>
+        <v>-0.20246090387129029</v>
       </c>
       <c r="K24">
-        <v>0.06546753909052108</v>
+        <v>6.5467539090521082E-2</v>
       </c>
       <c r="L24">
         <v>-1.018088056234173</v>
       </c>
       <c r="M24">
-        <v>-0.9111041721641769</v>
+        <v>-0.91110417216417694</v>
       </c>
       <c r="N24">
-        <v>0.7243076665493451</v>
+        <v>0.72430766654934509</v>
       </c>
       <c r="O24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>156</v>
       </c>
       <c r="B25">
-        <v>-0.4477744034861491</v>
+        <v>-0.44777440348614911</v>
       </c>
       <c r="C25">
         <v>-1.105143829678302</v>
       </c>
       <c r="D25">
-        <v>0.05341116305441848</v>
+        <v>5.3411163054418481E-2</v>
       </c>
       <c r="E25">
-        <v>0.498220172726606</v>
+        <v>0.49822017272660601</v>
       </c>
       <c r="F25">
-        <v>0.3065315849291286</v>
+        <v>0.30653158492912858</v>
       </c>
       <c r="G25">
-        <v>0.2381406876539928</v>
+        <v>0.23814068765399279</v>
       </c>
       <c r="H25">
-        <v>0.3559968733140498</v>
+        <v>0.35599687331404978</v>
       </c>
       <c r="I25">
-        <v>0.5691192235179029</v>
+        <v>0.56911922351790289</v>
       </c>
       <c r="J25">
-        <v>0.7191284096577916</v>
+        <v>0.71912840965779157</v>
       </c>
       <c r="K25">
         <v>1.000328905701793</v>
       </c>
       <c r="L25">
-        <v>1.068619916311179</v>
+        <v>1.0686199163111789</v>
       </c>
       <c r="M25">
         <v>1.247897448649516</v>
       </c>
       <c r="N25">
-        <v>0.5338992395121547</v>
+        <v>0.53389923951215468</v>
       </c>
       <c r="O25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>157</v>
       </c>
       <c r="B26">
-        <v>-0.4975986974407517</v>
+        <v>-0.49759869744075169</v>
       </c>
       <c r="C26">
-        <v>0.9931212178575103</v>
+        <v>0.99312121785751029</v>
       </c>
       <c r="D26">
         <v>1.773003949670001</v>
       </c>
       <c r="E26">
-        <v>0.7665274659733449</v>
+        <v>0.76652746597334487</v>
       </c>
       <c r="F26">
-        <v>0.007213140175962788</v>
+        <v>7.2131401759627876E-3</v>
       </c>
       <c r="G26">
-        <v>0.8941909096981573</v>
+        <v>0.89419090969815729</v>
       </c>
       <c r="H26">
-        <v>0.9957062893331677</v>
+        <v>0.99570628933316774</v>
       </c>
       <c r="I26">
-        <v>0.1317154335292043</v>
+        <v>0.13171543352920431</v>
       </c>
       <c r="J26">
-        <v>-0.4912445327687942</v>
+        <v>-0.49124453276879421</v>
       </c>
       <c r="K26">
-        <v>-0.1756403878279764</v>
+        <v>-0.17564038782797639</v>
       </c>
       <c r="L26">
         <v>0.1135106106747184</v>
       </c>
       <c r="M26">
-        <v>0.1745526546381692</v>
+        <v>0.17455265463816921</v>
       </c>
       <c r="N26">
-        <v>0.6747257021862427</v>
+        <v>0.67472570218624273</v>
       </c>
       <c r="O26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>158</v>
       </c>
       <c r="B27">
-        <v>1.269867989306187</v>
+        <v>1.2698679893061871</v>
       </c>
       <c r="C27">
         <v>0.1304318482786391</v>
       </c>
       <c r="D27">
-        <v>-0.6578851938584538</v>
+        <v>-0.65788519385845379</v>
       </c>
       <c r="E27">
-        <v>-0.9950425648412182</v>
+        <v>-0.99504256484121822</v>
       </c>
       <c r="F27">
-        <v>-0.1018198471282891</v>
+        <v>-0.10181984712828911</v>
       </c>
       <c r="G27">
-        <v>1.223614545304757</v>
+        <v>1.2236145453047571</v>
       </c>
       <c r="H27">
         <v>0.1537622306750267</v>
       </c>
       <c r="I27">
-        <v>-0.7396363189807827</v>
+        <v>-0.73963631898078275</v>
       </c>
       <c r="J27">
         <v>-0.8516562628163582</v>
@@ -7348,19 +9195,19 @@
         <v>-1.027587186800152</v>
       </c>
       <c r="L27">
-        <v>-0.865946036817574</v>
+        <v>-0.86594603681757398</v>
       </c>
       <c r="M27">
-        <v>-0.4639862295167608</v>
+        <v>-0.46398622951676077</v>
       </c>
       <c r="N27">
-        <v>0.05487228561067202</v>
+        <v>5.487228561067202E-2</v>
       </c>
       <c r="O27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>159</v>
       </c>
@@ -7368,22 +9215,22 @@
         <v>-1.296118259964198</v>
       </c>
       <c r="C28">
-        <v>-1.739332301399022</v>
+        <v>-1.7393323013990221</v>
       </c>
       <c r="D28">
-        <v>1.045994481361746</v>
+        <v>1.0459944813617461</v>
       </c>
       <c r="E28">
-        <v>1.794562578539204</v>
+        <v>1.7945625785392041</v>
       </c>
       <c r="F28">
-        <v>0.4793545592133538</v>
+        <v>0.47935455921335379</v>
       </c>
       <c r="G28">
-        <v>0.3228867313168569</v>
+        <v>0.32288673131685691</v>
       </c>
       <c r="H28">
-        <v>1.697897174315497</v>
+        <v>1.6978971743154969</v>
       </c>
       <c r="I28">
         <v>1.983833613629165</v>
@@ -7395,57 +9242,57 @@
         <v>1.183034671483818</v>
       </c>
       <c r="L28">
-        <v>1.50535712600797</v>
+        <v>1.5053571260079699</v>
       </c>
       <c r="M28">
-        <v>1.412379579570744</v>
+        <v>1.4123795795707439</v>
       </c>
       <c r="N28">
-        <v>0.8257152719149768</v>
+        <v>0.82571527191497684</v>
       </c>
       <c r="O28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>160</v>
       </c>
       <c r="B29">
-        <v>-1.586317135185186</v>
+        <v>-1.5863171351851859</v>
       </c>
       <c r="C29">
         <v>-1.329205999772658</v>
       </c>
       <c r="D29">
-        <v>0.9986493359770046</v>
+        <v>0.99864933597700456</v>
       </c>
       <c r="E29">
         <v>1.747816843370303</v>
       </c>
       <c r="F29">
-        <v>0.9201608879302695</v>
+        <v>0.92016088793026951</v>
       </c>
       <c r="G29">
-        <v>0.3625995865017618</v>
+        <v>0.36259958650176177</v>
       </c>
       <c r="H29">
-        <v>1.217986331487663</v>
+        <v>1.2179863314876631</v>
       </c>
       <c r="I29">
-        <v>2.007236741984913</v>
+        <v>2.0072367419849129</v>
       </c>
       <c r="J29">
         <v>1.645341830695354</v>
       </c>
       <c r="K29">
-        <v>0.8352225572769766</v>
+        <v>0.83522255727697658</v>
       </c>
       <c r="L29">
         <v>0.9419433433833031</v>
       </c>
       <c r="M29">
-        <v>0.9097625344936121</v>
+        <v>0.90976253449361211</v>
       </c>
       <c r="N29">
         <v>-0.130924110406066</v>
